--- a/毕业论文/内容分析 (自动保存的) (自动保存的).xlsx
+++ b/毕业论文/内容分析 (自动保存的) (自动保存的).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631">
   <si>
     <t>编码</t>
   </si>
@@ -1659,6 +1659,9 @@
     <t>2001.09.22</t>
   </si>
   <si>
+    <t>2001.12.10</t>
+  </si>
+  <si>
     <t>2001.12.26</t>
   </si>
   <si>
@@ -1864,6 +1867,51 @@
   </si>
   <si>
     <t>2004.07.24</t>
+  </si>
+  <si>
+    <t>2004.07.26</t>
+  </si>
+  <si>
+    <t>2004.08.06</t>
+  </si>
+  <si>
+    <t>2004.08.15</t>
+  </si>
+  <si>
+    <t>2004.08.17</t>
+  </si>
+  <si>
+    <t>2004.08.20</t>
+  </si>
+  <si>
+    <t>2004.09.07</t>
+  </si>
+  <si>
+    <t>2004.09.20</t>
+  </si>
+  <si>
+    <t>2004.09.24</t>
+  </si>
+  <si>
+    <t>2004.09.29</t>
+  </si>
+  <si>
+    <t>2004.10.17</t>
+  </si>
+  <si>
+    <t>2004.10.25</t>
+  </si>
+  <si>
+    <t>2004.11.02</t>
+  </si>
+  <si>
+    <t>2004.11.22</t>
+  </si>
+  <si>
+    <t>2004.12.05</t>
+  </si>
+  <si>
+    <t>2004.12.17</t>
   </si>
 </sst>
 </file>
@@ -1871,10 +1919,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1892,7 +1940,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1926,8 +1974,106 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1949,20 +2095,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1972,94 +2104,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2072,13 +2120,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2090,13 +2144,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2108,19 +2186,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2132,43 +2222,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2180,31 +2234,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2222,19 +2258,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2246,13 +2294,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2263,6 +2311,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2283,26 +2361,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2327,8 +2388,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2348,173 +2411,158 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="11"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="11" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
@@ -2522,10 +2570,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="11" applyFont="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2870,10 +2920,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O663"/>
+  <dimension ref="A1:O684"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A630" workbookViewId="0">
-      <selection activeCell="D638" sqref="D638"/>
+    <sheetView tabSelected="1" topLeftCell="A667" workbookViewId="0">
+      <selection activeCell="C693" sqref="C693"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>
@@ -19518,26 +19568,26 @@
       </c>
     </row>
     <row r="579" spans="2:9">
-      <c r="B579" s="3" t="s">
+      <c r="B579" s="4" t="s">
         <v>546</v>
       </c>
       <c r="C579" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D579" t="s">
         <v>27</v>
       </c>
       <c r="E579" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F579" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="G579" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="H579" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="I579" t="s">
         <v>29</v>
@@ -19551,7 +19601,7 @@
         <v>10</v>
       </c>
       <c r="D580" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E580" t="s">
         <v>12</v>
@@ -19566,7 +19616,7 @@
         <v>38</v>
       </c>
       <c r="I580" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="581" spans="2:9">
@@ -19577,7 +19627,7 @@
         <v>10</v>
       </c>
       <c r="D581" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E581" t="s">
         <v>12</v>
@@ -19592,38 +19642,38 @@
         <v>38</v>
       </c>
       <c r="I581" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="582" spans="2:9">
-      <c r="B582" s="3" t="s">
-        <v>549</v>
+      <c r="B582" s="4" t="s">
+        <v>548</v>
       </c>
       <c r="C582" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D582" t="s">
         <v>27</v>
       </c>
       <c r="E582" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F582" t="s">
         <v>13</v>
       </c>
       <c r="G582" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="H582" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="I582" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="583" spans="2:9">
       <c r="B583" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C583" t="s">
         <v>10</v>
@@ -19632,24 +19682,24 @@
         <v>27</v>
       </c>
       <c r="E583" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F583" t="s">
         <v>13</v>
       </c>
       <c r="G583" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="H583" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="I583" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="584" spans="2:9">
       <c r="B584" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C584" t="s">
         <v>10</v>
@@ -19658,16 +19708,16 @@
         <v>27</v>
       </c>
       <c r="E584" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="F584" t="s">
         <v>13</v>
       </c>
       <c r="G584" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="H584" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="I584" t="s">
         <v>16</v>
@@ -19675,25 +19725,25 @@
     </row>
     <row r="585" spans="2:9">
       <c r="B585" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C585" t="s">
         <v>10</v>
       </c>
       <c r="D585" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E585" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F585" t="s">
         <v>13</v>
       </c>
       <c r="G585" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="H585" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="I585" t="s">
         <v>16</v>
@@ -19701,7 +19751,7 @@
     </row>
     <row r="586" spans="2:9">
       <c r="B586" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C586" t="s">
         <v>10</v>
@@ -19710,7 +19760,7 @@
         <v>27</v>
       </c>
       <c r="E586" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="F586" t="s">
         <v>13</v>
@@ -19719,7 +19769,7 @@
         <v>22</v>
       </c>
       <c r="H586" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="I586" t="s">
         <v>16</v>
@@ -19727,7 +19777,7 @@
     </row>
     <row r="587" spans="2:9">
       <c r="B587" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C587" t="s">
         <v>10</v>
@@ -19736,39 +19786,39 @@
         <v>11</v>
       </c>
       <c r="E587" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F587" t="s">
         <v>13</v>
       </c>
       <c r="G587" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="H587" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="I587" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="588" spans="2:9">
       <c r="B588" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C588" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D588" t="s">
         <v>27</v>
       </c>
       <c r="E588" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F588" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="G588" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="H588" t="s">
         <v>57</v>
@@ -19779,7 +19829,7 @@
     </row>
     <row r="589" spans="2:9">
       <c r="B589" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C589" t="s">
         <v>10</v>
@@ -19794,36 +19844,36 @@
         <v>13</v>
       </c>
       <c r="G589" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="H589" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="I589" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="590" spans="2:9">
       <c r="B590" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C590" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D590" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E590" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F590" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="G590" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="H590" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="I590" t="s">
         <v>16</v>
@@ -19831,36 +19881,36 @@
     </row>
     <row r="591" spans="2:9">
       <c r="B591" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C591" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D591" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E591" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F591" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="G591" t="s">
         <v>37</v>
       </c>
       <c r="H591" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="I591" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="592" spans="2:9">
       <c r="B592" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C592" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D592" t="s">
         <v>11</v>
@@ -19869,13 +19919,13 @@
         <v>19</v>
       </c>
       <c r="F592" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="G592" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H592" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="I592" t="s">
         <v>16</v>
@@ -19883,39 +19933,39 @@
     </row>
     <row r="593" spans="2:9">
       <c r="B593" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C593" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D593" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E593" t="s">
         <v>12</v>
       </c>
       <c r="F593" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="G593" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H593" t="s">
         <v>53</v>
       </c>
       <c r="I593" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="594" spans="2:9">
       <c r="B594" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C594" t="s">
         <v>36</v>
       </c>
       <c r="D594" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E594" t="s">
         <v>19</v>
@@ -19924,10 +19974,10 @@
         <v>52</v>
       </c>
       <c r="G594" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="H594" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="I594" t="s">
         <v>16</v>
@@ -19935,7 +19985,7 @@
     </row>
     <row r="595" spans="2:9">
       <c r="B595" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C595" t="s">
         <v>10</v>
@@ -19944,16 +19994,16 @@
         <v>11</v>
       </c>
       <c r="E595" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F595" t="s">
         <v>13</v>
       </c>
       <c r="G595" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="H595" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="I595" t="s">
         <v>16</v>
@@ -19961,10 +20011,10 @@
     </row>
     <row r="596" spans="2:9">
       <c r="B596" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C596" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D596" t="s">
         <v>27</v>
@@ -19973,21 +20023,21 @@
         <v>19</v>
       </c>
       <c r="F596" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G596" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H596" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I596" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="597" spans="2:9">
       <c r="B597" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C597" t="s">
         <v>10</v>
@@ -20002,163 +20052,163 @@
         <v>13</v>
       </c>
       <c r="G597" t="s">
+        <v>65</v>
+      </c>
+      <c r="H597" t="s">
+        <v>15</v>
+      </c>
+      <c r="I597" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="598" spans="2:9">
+      <c r="B598" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="C598" t="s">
+        <v>24</v>
+      </c>
+      <c r="D598" t="s">
+        <v>27</v>
+      </c>
+      <c r="E598" t="s">
+        <v>19</v>
+      </c>
+      <c r="F598" t="s">
+        <v>33</v>
+      </c>
+      <c r="G598" t="s">
+        <v>28</v>
+      </c>
+      <c r="H598" t="s">
+        <v>57</v>
+      </c>
+      <c r="I598" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="599" spans="2:9">
+      <c r="B599" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C599" t="s">
+        <v>10</v>
+      </c>
+      <c r="D599" t="s">
+        <v>11</v>
+      </c>
+      <c r="E599" t="s">
+        <v>19</v>
+      </c>
+      <c r="F599" t="s">
+        <v>13</v>
+      </c>
+      <c r="G599" t="s">
         <v>70</v>
       </c>
-      <c r="H597" t="s">
+      <c r="H599" t="s">
         <v>57</v>
       </c>
-      <c r="I597" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="598" spans="2:9">
-      <c r="B598" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="C598" t="s">
-        <v>10</v>
-      </c>
-      <c r="D598" t="s">
-        <v>27</v>
-      </c>
-      <c r="E598" t="s">
-        <v>19</v>
-      </c>
-      <c r="F598" t="s">
+      <c r="I599" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="600" spans="2:9">
+      <c r="B600" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="C600" t="s">
+        <v>10</v>
+      </c>
+      <c r="D600" t="s">
+        <v>27</v>
+      </c>
+      <c r="E600" t="s">
+        <v>19</v>
+      </c>
+      <c r="F600" t="s">
         <v>13</v>
       </c>
-      <c r="G598" t="s">
+      <c r="G600" t="s">
         <v>65</v>
       </c>
-      <c r="H598" t="s">
+      <c r="H600" t="s">
         <v>38</v>
       </c>
-      <c r="I598" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="599" spans="2:9">
-      <c r="B599" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="C599" t="s">
+      <c r="I600" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="601" spans="2:9">
+      <c r="B601" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="C601" t="s">
         <v>44</v>
       </c>
-      <c r="D599" t="s">
-        <v>27</v>
-      </c>
-      <c r="E599" t="s">
+      <c r="D601" t="s">
+        <v>27</v>
+      </c>
+      <c r="E601" t="s">
         <v>12</v>
       </c>
-      <c r="F599" t="s">
-        <v>21</v>
-      </c>
-      <c r="G599" t="s">
+      <c r="F601" t="s">
+        <v>21</v>
+      </c>
+      <c r="G601" t="s">
         <v>65</v>
       </c>
-      <c r="H599" t="s">
+      <c r="H601" t="s">
         <v>38</v>
       </c>
-      <c r="I599" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="600" spans="2:9">
-      <c r="B600" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="C600" t="s">
-        <v>10</v>
-      </c>
-      <c r="D600" t="s">
-        <v>27</v>
-      </c>
-      <c r="E600" t="s">
-        <v>19</v>
-      </c>
-      <c r="F600" t="s">
+      <c r="I601" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="602" spans="2:9">
+      <c r="B602" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="C602" t="s">
+        <v>10</v>
+      </c>
+      <c r="D602" t="s">
+        <v>27</v>
+      </c>
+      <c r="E602" t="s">
+        <v>19</v>
+      </c>
+      <c r="F602" t="s">
         <v>33</v>
       </c>
-      <c r="G600" t="s">
-        <v>22</v>
-      </c>
-      <c r="H600" t="s">
+      <c r="G602" t="s">
+        <v>22</v>
+      </c>
+      <c r="H602" t="s">
         <v>15</v>
       </c>
-      <c r="I600" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="601" spans="2:9">
-      <c r="B601" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="C601" t="s">
-        <v>10</v>
-      </c>
-      <c r="D601" t="s">
-        <v>27</v>
-      </c>
-      <c r="E601" t="s">
-        <v>19</v>
-      </c>
-      <c r="F601" t="s">
-        <v>13</v>
-      </c>
-      <c r="G601" t="s">
-        <v>22</v>
-      </c>
-      <c r="H601" t="s">
-        <v>57</v>
-      </c>
-      <c r="I601" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="602" spans="2:9">
-      <c r="B602" s="4" t="s">
+      <c r="I602" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="603" spans="2:9">
+      <c r="B603" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="C602" t="s">
-        <v>10</v>
-      </c>
-      <c r="D602" t="s">
-        <v>11</v>
-      </c>
-      <c r="E602" t="s">
-        <v>19</v>
-      </c>
-      <c r="F602" t="s">
-        <v>13</v>
-      </c>
-      <c r="G602" t="s">
-        <v>65</v>
-      </c>
-      <c r="H602" t="s">
-        <v>38</v>
-      </c>
-      <c r="I602" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="603" spans="2:9">
-      <c r="B603" s="4" t="s">
-        <v>570</v>
-      </c>
       <c r="C603" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D603" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E603" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F603" t="s">
         <v>13</v>
       </c>
       <c r="G603" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H603" t="s">
         <v>57</v>
@@ -20168,112 +20218,112 @@
       </c>
     </row>
     <row r="604" spans="2:9">
-      <c r="B604" s="4" t="s">
+      <c r="B604" s="5" t="s">
         <v>570</v>
       </c>
       <c r="C604" t="s">
+        <v>10</v>
+      </c>
+      <c r="D604" t="s">
+        <v>11</v>
+      </c>
+      <c r="E604" t="s">
+        <v>19</v>
+      </c>
+      <c r="F604" t="s">
+        <v>13</v>
+      </c>
+      <c r="G604" t="s">
+        <v>65</v>
+      </c>
+      <c r="H604" t="s">
+        <v>38</v>
+      </c>
+      <c r="I604" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="605" spans="2:9">
+      <c r="B605" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C605" t="s">
+        <v>31</v>
+      </c>
+      <c r="D605" t="s">
+        <v>18</v>
+      </c>
+      <c r="E605" t="s">
+        <v>12</v>
+      </c>
+      <c r="F605" t="s">
+        <v>13</v>
+      </c>
+      <c r="G605" t="s">
+        <v>28</v>
+      </c>
+      <c r="H605" t="s">
+        <v>57</v>
+      </c>
+      <c r="I605" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="606" spans="2:9">
+      <c r="B606" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="C606" t="s">
         <v>36</v>
       </c>
-      <c r="D604" t="s">
-        <v>27</v>
-      </c>
-      <c r="E604" t="s">
+      <c r="D606" t="s">
+        <v>27</v>
+      </c>
+      <c r="E606" t="s">
         <v>12</v>
       </c>
-      <c r="F604" t="s">
+      <c r="F606" t="s">
         <v>33</v>
       </c>
-      <c r="G604" t="s">
+      <c r="G606" t="s">
         <v>28</v>
-      </c>
-      <c r="H604" t="s">
-        <v>57</v>
-      </c>
-      <c r="I604" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="605" spans="2:9">
-      <c r="B605" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="C605" t="s">
-        <v>36</v>
-      </c>
-      <c r="D605" t="s">
-        <v>11</v>
-      </c>
-      <c r="E605" t="s">
-        <v>19</v>
-      </c>
-      <c r="F605" t="s">
-        <v>52</v>
-      </c>
-      <c r="G605" t="s">
-        <v>22</v>
-      </c>
-      <c r="H605" t="s">
-        <v>34</v>
-      </c>
-      <c r="I605" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="606" spans="2:9">
-      <c r="B606" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="C606" t="s">
-        <v>10</v>
-      </c>
-      <c r="D606" t="s">
-        <v>27</v>
-      </c>
-      <c r="E606" t="s">
-        <v>19</v>
-      </c>
-      <c r="F606" t="s">
-        <v>13</v>
-      </c>
-      <c r="G606" t="s">
-        <v>22</v>
       </c>
       <c r="H606" t="s">
         <v>57</v>
       </c>
       <c r="I606" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="607" spans="2:9">
-      <c r="B607" s="4" t="s">
+      <c r="B607" s="5" t="s">
         <v>572</v>
       </c>
       <c r="C607" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D607" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E607" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F607" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G607" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H607" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I607" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="608" spans="2:9">
-      <c r="B608" s="4" t="s">
-        <v>573</v>
+      <c r="B608" s="5" t="s">
+        <v>572</v>
       </c>
       <c r="C608" t="s">
         <v>10</v>
@@ -20298,75 +20348,75 @@
       </c>
     </row>
     <row r="609" spans="2:9">
-      <c r="B609" s="4" t="s">
-        <v>574</v>
+      <c r="B609" s="5" t="s">
+        <v>573</v>
       </c>
       <c r="C609" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D609" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E609" t="s">
         <v>12</v>
       </c>
       <c r="F609" t="s">
+        <v>21</v>
+      </c>
+      <c r="G609" t="s">
+        <v>28</v>
+      </c>
+      <c r="H609" t="s">
+        <v>38</v>
+      </c>
+      <c r="I609" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="610" spans="2:9">
+      <c r="B610" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C610" t="s">
+        <v>10</v>
+      </c>
+      <c r="D610" t="s">
+        <v>27</v>
+      </c>
+      <c r="E610" t="s">
+        <v>19</v>
+      </c>
+      <c r="F610" t="s">
         <v>13</v>
       </c>
-      <c r="G609" t="s">
+      <c r="G610" t="s">
+        <v>22</v>
+      </c>
+      <c r="H610" t="s">
+        <v>57</v>
+      </c>
+      <c r="I610" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="611" spans="2:9">
+      <c r="B611" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C611" t="s">
+        <v>10</v>
+      </c>
+      <c r="D611" t="s">
+        <v>11</v>
+      </c>
+      <c r="E611" t="s">
+        <v>12</v>
+      </c>
+      <c r="F611" t="s">
+        <v>13</v>
+      </c>
+      <c r="G611" t="s">
         <v>70</v>
-      </c>
-      <c r="H609" t="s">
-        <v>57</v>
-      </c>
-      <c r="I609" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="610" spans="2:9">
-      <c r="B610" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="C610" t="s">
-        <v>36</v>
-      </c>
-      <c r="D610" t="s">
-        <v>27</v>
-      </c>
-      <c r="E610" t="s">
-        <v>19</v>
-      </c>
-      <c r="F610" t="s">
-        <v>33</v>
-      </c>
-      <c r="G610" t="s">
-        <v>37</v>
-      </c>
-      <c r="H610" t="s">
-        <v>38</v>
-      </c>
-      <c r="I610" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="611" spans="2:9">
-      <c r="B611" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="C611" t="s">
-        <v>36</v>
-      </c>
-      <c r="D611" t="s">
-        <v>27</v>
-      </c>
-      <c r="E611" t="s">
-        <v>60</v>
-      </c>
-      <c r="F611" t="s">
-        <v>52</v>
-      </c>
-      <c r="G611" t="s">
-        <v>28</v>
       </c>
       <c r="H611" t="s">
         <v>57</v>
@@ -20376,86 +20426,86 @@
       </c>
     </row>
     <row r="612" spans="2:9">
-      <c r="B612" s="4" t="s">
-        <v>577</v>
+      <c r="B612" s="5" t="s">
+        <v>576</v>
       </c>
       <c r="C612" t="s">
         <v>36</v>
       </c>
       <c r="D612" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E612" t="s">
+        <v>19</v>
+      </c>
+      <c r="F612" t="s">
+        <v>33</v>
+      </c>
+      <c r="G612" t="s">
+        <v>37</v>
+      </c>
+      <c r="H612" t="s">
+        <v>38</v>
+      </c>
+      <c r="I612" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="613" spans="2:9">
+      <c r="B613" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="C613" t="s">
+        <v>36</v>
+      </c>
+      <c r="D613" t="s">
+        <v>27</v>
+      </c>
+      <c r="E613" t="s">
+        <v>60</v>
+      </c>
+      <c r="F613" t="s">
+        <v>52</v>
+      </c>
+      <c r="G613" t="s">
+        <v>28</v>
+      </c>
+      <c r="H613" t="s">
+        <v>57</v>
+      </c>
+      <c r="I613" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="614" spans="2:9">
+      <c r="B614" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="C614" t="s">
+        <v>36</v>
+      </c>
+      <c r="D614" t="s">
+        <v>11</v>
+      </c>
+      <c r="E614" t="s">
         <v>12</v>
       </c>
-      <c r="F612" t="s">
-        <v>21</v>
-      </c>
-      <c r="G612" t="s">
-        <v>22</v>
-      </c>
-      <c r="H612" t="s">
+      <c r="F614" t="s">
+        <v>21</v>
+      </c>
+      <c r="G614" t="s">
+        <v>22</v>
+      </c>
+      <c r="H614" t="s">
         <v>15</v>
       </c>
-      <c r="I612" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="613" spans="2:9">
-      <c r="B613" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="C613" t="s">
-        <v>10</v>
-      </c>
-      <c r="D613" t="s">
-        <v>27</v>
-      </c>
-      <c r="E613" t="s">
-        <v>19</v>
-      </c>
-      <c r="F613" t="s">
-        <v>13</v>
-      </c>
-      <c r="G613" t="s">
-        <v>65</v>
-      </c>
-      <c r="H613" t="s">
-        <v>38</v>
-      </c>
-      <c r="I613" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="614" spans="2:9">
-      <c r="B614" s="4" t="s">
+      <c r="I614" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="615" spans="2:9">
+      <c r="B615" s="5" t="s">
         <v>579</v>
-      </c>
-      <c r="C614" t="s">
-        <v>31</v>
-      </c>
-      <c r="D614" t="s">
-        <v>11</v>
-      </c>
-      <c r="E614" t="s">
-        <v>19</v>
-      </c>
-      <c r="F614" t="s">
-        <v>13</v>
-      </c>
-      <c r="G614" t="s">
-        <v>65</v>
-      </c>
-      <c r="H614" t="s">
-        <v>38</v>
-      </c>
-      <c r="I614" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="615" spans="2:9">
-      <c r="B615" s="4" t="s">
-        <v>580</v>
       </c>
       <c r="C615" t="s">
         <v>10</v>
@@ -20470,7 +20520,7 @@
         <v>13</v>
       </c>
       <c r="G615" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="H615" t="s">
         <v>38</v>
@@ -20480,46 +20530,46 @@
       </c>
     </row>
     <row r="616" spans="2:9">
-      <c r="B616" s="4" t="s">
-        <v>581</v>
+      <c r="B616" s="5" t="s">
+        <v>580</v>
       </c>
       <c r="C616" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D616" t="s">
         <v>11</v>
       </c>
       <c r="E616" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F616" t="s">
         <v>13</v>
       </c>
       <c r="G616" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="H616" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="I616" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="617" spans="2:9">
-      <c r="B617" s="4" t="s">
-        <v>582</v>
+      <c r="B617" s="5" t="s">
+        <v>581</v>
       </c>
       <c r="C617" t="s">
         <v>10</v>
       </c>
       <c r="D617" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E617" t="s">
         <v>19</v>
       </c>
       <c r="F617" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="G617" t="s">
         <v>28</v>
@@ -20528,70 +20578,70 @@
         <v>38</v>
       </c>
       <c r="I617" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="618" spans="2:9">
-      <c r="B618" s="4" t="s">
-        <v>583</v>
+      <c r="B618" s="5" t="s">
+        <v>582</v>
       </c>
       <c r="C618" t="s">
         <v>10</v>
       </c>
       <c r="D618" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E618" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F618" t="s">
         <v>13</v>
       </c>
       <c r="G618" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="H618" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I618" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="619" spans="2:9">
-      <c r="B619" s="4" t="s">
+      <c r="B619" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="C619" t="s">
+        <v>10</v>
+      </c>
+      <c r="D619" t="s">
+        <v>18</v>
+      </c>
+      <c r="E619" t="s">
+        <v>19</v>
+      </c>
+      <c r="F619" t="s">
+        <v>33</v>
+      </c>
+      <c r="G619" t="s">
+        <v>28</v>
+      </c>
+      <c r="H619" t="s">
+        <v>38</v>
+      </c>
+      <c r="I619" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="620" spans="2:9">
+      <c r="B620" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="C619" t="s">
-        <v>36</v>
-      </c>
-      <c r="D619" t="s">
-        <v>27</v>
-      </c>
-      <c r="E619" t="s">
-        <v>19</v>
-      </c>
-      <c r="F619" t="s">
-        <v>52</v>
-      </c>
-      <c r="G619" t="s">
-        <v>70</v>
-      </c>
-      <c r="H619" t="s">
-        <v>57</v>
-      </c>
-      <c r="I619" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="620" spans="2:9">
-      <c r="B620" s="4" t="s">
-        <v>585</v>
-      </c>
       <c r="C620" t="s">
         <v>10</v>
       </c>
       <c r="D620" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E620" t="s">
         <v>19</v>
@@ -20600,122 +20650,122 @@
         <v>13</v>
       </c>
       <c r="G620" t="s">
+        <v>22</v>
+      </c>
+      <c r="H620" t="s">
+        <v>57</v>
+      </c>
+      <c r="I620" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="621" spans="2:9">
+      <c r="B621" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="C621" t="s">
+        <v>36</v>
+      </c>
+      <c r="D621" t="s">
+        <v>27</v>
+      </c>
+      <c r="E621" t="s">
+        <v>19</v>
+      </c>
+      <c r="F621" t="s">
+        <v>52</v>
+      </c>
+      <c r="G621" t="s">
+        <v>70</v>
+      </c>
+      <c r="H621" t="s">
+        <v>57</v>
+      </c>
+      <c r="I621" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="622" spans="2:9">
+      <c r="B622" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="C622" t="s">
+        <v>10</v>
+      </c>
+      <c r="D622" t="s">
+        <v>11</v>
+      </c>
+      <c r="E622" t="s">
+        <v>19</v>
+      </c>
+      <c r="F622" t="s">
+        <v>13</v>
+      </c>
+      <c r="G622" t="s">
         <v>37</v>
       </c>
-      <c r="H620" t="s">
+      <c r="H622" t="s">
         <v>25</v>
       </c>
-      <c r="I620" t="s">
+      <c r="I622" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="621" spans="2:9">
-      <c r="B621" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="C621" t="s">
-        <v>10</v>
-      </c>
-      <c r="D621" t="s">
-        <v>11</v>
-      </c>
-      <c r="E621" t="s">
-        <v>19</v>
-      </c>
-      <c r="F621" t="s">
-        <v>13</v>
-      </c>
-      <c r="G621" t="s">
-        <v>47</v>
-      </c>
-      <c r="H621" t="s">
-        <v>43</v>
-      </c>
-      <c r="I621" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="622" spans="2:9">
-      <c r="B622" s="4" t="s">
+    <row r="623" spans="2:9">
+      <c r="B623" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="C622" t="s">
-        <v>36</v>
-      </c>
-      <c r="D622" t="s">
-        <v>27</v>
-      </c>
-      <c r="E622" t="s">
-        <v>19</v>
-      </c>
-      <c r="F622" t="s">
-        <v>52</v>
-      </c>
-      <c r="G622" t="s">
-        <v>67</v>
-      </c>
-      <c r="H622" t="s">
-        <v>53</v>
-      </c>
-      <c r="I622" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="623" spans="2:9">
-      <c r="B623" s="4" t="s">
-        <v>587</v>
-      </c>
       <c r="C623" t="s">
         <v>10</v>
       </c>
       <c r="D623" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E623" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F623" t="s">
         <v>13</v>
       </c>
-      <c r="G623" s="4" t="s">
-        <v>22</v>
+      <c r="G623" t="s">
+        <v>47</v>
       </c>
       <c r="H623" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="I623" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="624" spans="2:9">
-      <c r="B624" s="4" t="s">
+      <c r="B624" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="C624" t="s">
+        <v>36</v>
+      </c>
+      <c r="D624" t="s">
+        <v>27</v>
+      </c>
+      <c r="E624" t="s">
+        <v>19</v>
+      </c>
+      <c r="F624" t="s">
+        <v>52</v>
+      </c>
+      <c r="G624" t="s">
+        <v>67</v>
+      </c>
+      <c r="H624" t="s">
+        <v>53</v>
+      </c>
+      <c r="I624" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="625" spans="2:9">
+      <c r="B625" s="5" t="s">
         <v>588</v>
-      </c>
-      <c r="C624" t="s">
-        <v>10</v>
-      </c>
-      <c r="D624" t="s">
-        <v>27</v>
-      </c>
-      <c r="E624" t="s">
-        <v>12</v>
-      </c>
-      <c r="F624" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G624" t="s">
-        <v>37</v>
-      </c>
-      <c r="H624" t="s">
-        <v>43</v>
-      </c>
-      <c r="I624" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="625" spans="2:9">
-      <c r="B625" s="4" t="s">
-        <v>589</v>
       </c>
       <c r="C625" t="s">
         <v>10</v>
@@ -20729,19 +20779,19 @@
       <c r="F625" t="s">
         <v>13</v>
       </c>
-      <c r="G625" t="s">
-        <v>37</v>
+      <c r="G625" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="H625" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="I625" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="626" spans="2:9">
-      <c r="B626" s="4" t="s">
-        <v>590</v>
+      <c r="B626" s="5" t="s">
+        <v>589</v>
       </c>
       <c r="C626" t="s">
         <v>10</v>
@@ -20750,24 +20800,24 @@
         <v>27</v>
       </c>
       <c r="E626" t="s">
-        <v>19</v>
-      </c>
-      <c r="F626" t="s">
+        <v>12</v>
+      </c>
+      <c r="F626" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G626" t="s">
         <v>37</v>
       </c>
       <c r="H626" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I626" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="627" spans="2:9">
-      <c r="B627" s="4" t="s">
-        <v>591</v>
+      <c r="B627" s="5" t="s">
+        <v>590</v>
       </c>
       <c r="C627" t="s">
         <v>10</v>
@@ -20779,21 +20829,21 @@
         <v>12</v>
       </c>
       <c r="F627" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="G627" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="H627" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I627" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="628" spans="2:9">
-      <c r="B628" s="4" t="s">
-        <v>592</v>
+      <c r="B628" s="5" t="s">
+        <v>591</v>
       </c>
       <c r="C628" t="s">
         <v>10</v>
@@ -20805,53 +20855,53 @@
         <v>19</v>
       </c>
       <c r="F628" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G628" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="H628" t="s">
         <v>57</v>
       </c>
       <c r="I628" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="629" spans="2:9">
-      <c r="B629" s="4" t="s">
+      <c r="B629" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="C629" t="s">
+        <v>10</v>
+      </c>
+      <c r="D629" t="s">
+        <v>27</v>
+      </c>
+      <c r="E629" t="s">
+        <v>12</v>
+      </c>
+      <c r="F629" t="s">
+        <v>52</v>
+      </c>
+      <c r="G629" t="s">
+        <v>22</v>
+      </c>
+      <c r="H629" t="s">
+        <v>57</v>
+      </c>
+      <c r="I629" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="630" spans="2:9">
+      <c r="B630" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="C629" t="s">
-        <v>10</v>
-      </c>
-      <c r="D629" t="s">
-        <v>27</v>
-      </c>
-      <c r="E629" t="s">
-        <v>19</v>
-      </c>
-      <c r="F629" t="s">
-        <v>21</v>
-      </c>
-      <c r="G629" t="s">
-        <v>28</v>
-      </c>
-      <c r="H629" t="s">
-        <v>53</v>
-      </c>
-      <c r="I629" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="630" spans="2:9">
-      <c r="B630" s="4" t="s">
-        <v>594</v>
-      </c>
       <c r="C630" t="s">
         <v>10</v>
       </c>
       <c r="D630" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E630" t="s">
         <v>19</v>
@@ -20860,44 +20910,44 @@
         <v>21</v>
       </c>
       <c r="G630" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="H630" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="I630" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="631" spans="2:9">
-      <c r="B631" s="4" t="s">
+      <c r="B631" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="C631" t="s">
+        <v>10</v>
+      </c>
+      <c r="D631" t="s">
+        <v>27</v>
+      </c>
+      <c r="E631" t="s">
+        <v>19</v>
+      </c>
+      <c r="F631" t="s">
+        <v>21</v>
+      </c>
+      <c r="G631" t="s">
+        <v>28</v>
+      </c>
+      <c r="H631" t="s">
+        <v>53</v>
+      </c>
+      <c r="I631" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="632" spans="2:9">
+      <c r="B632" s="5" t="s">
         <v>595</v>
-      </c>
-      <c r="C631" t="s">
-        <v>10</v>
-      </c>
-      <c r="D631" t="s">
-        <v>27</v>
-      </c>
-      <c r="E631" t="s">
-        <v>19</v>
-      </c>
-      <c r="F631" t="s">
-        <v>21</v>
-      </c>
-      <c r="G631" t="s">
-        <v>65</v>
-      </c>
-      <c r="H631" t="s">
-        <v>38</v>
-      </c>
-      <c r="I631" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="632" spans="2:9">
-      <c r="B632" s="4" t="s">
-        <v>596</v>
       </c>
       <c r="C632" t="s">
         <v>10</v>
@@ -20915,14 +20965,14 @@
         <v>47</v>
       </c>
       <c r="H632" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="I632" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="633" spans="2:9">
-      <c r="B633" s="4" t="s">
+      <c r="B633" s="5" t="s">
         <v>596</v>
       </c>
       <c r="C633" t="s">
@@ -20938,33 +20988,33 @@
         <v>21</v>
       </c>
       <c r="G633" t="s">
+        <v>65</v>
+      </c>
+      <c r="H633" t="s">
+        <v>38</v>
+      </c>
+      <c r="I633" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="634" spans="2:9">
+      <c r="B634" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="C634" t="s">
+        <v>10</v>
+      </c>
+      <c r="D634" t="s">
+        <v>11</v>
+      </c>
+      <c r="E634" t="s">
+        <v>19</v>
+      </c>
+      <c r="F634" t="s">
+        <v>21</v>
+      </c>
+      <c r="G634" t="s">
         <v>47</v>
-      </c>
-      <c r="H633" t="s">
-        <v>57</v>
-      </c>
-      <c r="I633" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="634" spans="2:9">
-      <c r="B634" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="C634" t="s">
-        <v>10</v>
-      </c>
-      <c r="D634" t="s">
-        <v>27</v>
-      </c>
-      <c r="E634" t="s">
-        <v>19</v>
-      </c>
-      <c r="F634" t="s">
-        <v>13</v>
-      </c>
-      <c r="G634" t="s">
-        <v>28</v>
       </c>
       <c r="H634" t="s">
         <v>53</v>
@@ -20974,8 +21024,8 @@
       </c>
     </row>
     <row r="635" spans="2:9">
-      <c r="B635" s="4" t="s">
-        <v>598</v>
+      <c r="B635" s="5" t="s">
+        <v>597</v>
       </c>
       <c r="C635" t="s">
         <v>10</v>
@@ -20987,10 +21037,10 @@
         <v>19</v>
       </c>
       <c r="F635" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G635" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="H635" t="s">
         <v>57</v>
@@ -21000,14 +21050,14 @@
       </c>
     </row>
     <row r="636" spans="2:9">
-      <c r="B636" s="4" t="s">
-        <v>599</v>
+      <c r="B636" s="5" t="s">
+        <v>598</v>
       </c>
       <c r="C636" t="s">
         <v>10</v>
       </c>
       <c r="D636" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E636" t="s">
         <v>19</v>
@@ -21016,45 +21066,45 @@
         <v>13</v>
       </c>
       <c r="G636" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="H636" t="s">
+        <v>53</v>
+      </c>
+      <c r="I636" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="637" spans="2:9">
+      <c r="B637" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="C637" t="s">
+        <v>10</v>
+      </c>
+      <c r="D637" t="s">
+        <v>27</v>
+      </c>
+      <c r="E637" t="s">
+        <v>19</v>
+      </c>
+      <c r="F637" t="s">
+        <v>13</v>
+      </c>
+      <c r="G637" t="s">
+        <v>65</v>
+      </c>
+      <c r="H637" t="s">
         <v>57</v>
       </c>
-      <c r="I636" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="637" spans="2:9">
-      <c r="B637" s="4" t="s">
+      <c r="I637" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="638" spans="2:9">
+      <c r="B638" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="C637" t="s">
-        <v>44</v>
-      </c>
-      <c r="D637" t="s">
-        <v>27</v>
-      </c>
-      <c r="E637" t="s">
-        <v>19</v>
-      </c>
-      <c r="F637" t="s">
-        <v>21</v>
-      </c>
-      <c r="G637" t="s">
-        <v>47</v>
-      </c>
-      <c r="H637" t="s">
-        <v>38</v>
-      </c>
-      <c r="I637" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="638" spans="2:9">
-      <c r="B638" s="4" t="s">
-        <v>601</v>
-      </c>
       <c r="C638" t="s">
         <v>10</v>
       </c>
@@ -21065,47 +21115,47 @@
         <v>19</v>
       </c>
       <c r="F638" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G638" t="s">
         <v>47</v>
       </c>
       <c r="H638" t="s">
+        <v>57</v>
+      </c>
+      <c r="I638" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="639" spans="2:9">
+      <c r="B639" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="C639" t="s">
+        <v>44</v>
+      </c>
+      <c r="D639" t="s">
+        <v>27</v>
+      </c>
+      <c r="E639" t="s">
+        <v>19</v>
+      </c>
+      <c r="F639" t="s">
+        <v>21</v>
+      </c>
+      <c r="G639" t="s">
+        <v>47</v>
+      </c>
+      <c r="H639" t="s">
         <v>38</v>
-      </c>
-      <c r="I638" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="639" spans="2:9">
-      <c r="B639" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="C639" t="s">
-        <v>10</v>
-      </c>
-      <c r="D639" t="s">
-        <v>27</v>
-      </c>
-      <c r="E639" t="s">
-        <v>19</v>
-      </c>
-      <c r="F639" t="s">
-        <v>13</v>
-      </c>
-      <c r="G639" t="s">
-        <v>37</v>
-      </c>
-      <c r="H639" t="s">
-        <v>25</v>
       </c>
       <c r="I639" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="640" spans="2:9">
-      <c r="B640" s="4" t="s">
-        <v>603</v>
+      <c r="B640" s="5" t="s">
+        <v>602</v>
       </c>
       <c r="C640" t="s">
         <v>10</v>
@@ -21126,76 +21176,76 @@
         <v>38</v>
       </c>
       <c r="I640" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="641" spans="2:9">
-      <c r="B641" s="4" t="s">
-        <v>604</v>
+      <c r="B641" s="5" t="s">
+        <v>603</v>
       </c>
       <c r="C641" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D641" t="s">
         <v>27</v>
       </c>
       <c r="E641" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F641" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="G641" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="H641" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I641" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="642" spans="2:9">
-      <c r="B642" s="4" t="s">
+      <c r="B642" s="5" t="s">
         <v>604</v>
       </c>
       <c r="C642" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D642" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E642" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F642" t="s">
         <v>21</v>
       </c>
       <c r="G642" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="H642" t="s">
         <v>38</v>
       </c>
       <c r="I642" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="643" spans="2:9">
-      <c r="B643" s="4" t="s">
+      <c r="B643" s="5" t="s">
         <v>605</v>
       </c>
       <c r="C643" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D643" t="s">
         <v>27</v>
       </c>
       <c r="E643" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F643" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G643" t="s">
         <v>22</v>
@@ -21208,11 +21258,11 @@
       </c>
     </row>
     <row r="644" spans="2:9">
-      <c r="B644" s="4" t="s">
+      <c r="B644" s="5" t="s">
         <v>605</v>
       </c>
       <c r="C644" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D644" t="s">
         <v>27</v>
@@ -21224,21 +21274,21 @@
         <v>21</v>
       </c>
       <c r="G644" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="H644" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="I644" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="645" spans="2:9">
-      <c r="B645" s="4" t="s">
-        <v>605</v>
+      <c r="B645" s="5" t="s">
+        <v>606</v>
       </c>
       <c r="C645" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D645" t="s">
         <v>27</v>
@@ -21250,7 +21300,7 @@
         <v>21</v>
       </c>
       <c r="G645" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="H645" t="s">
         <v>53</v>
@@ -21260,8 +21310,8 @@
       </c>
     </row>
     <row r="646" spans="2:9">
-      <c r="B646" s="4" t="s">
-        <v>605</v>
+      <c r="B646" s="5" t="s">
+        <v>606</v>
       </c>
       <c r="C646" t="s">
         <v>48</v>
@@ -21270,7 +21320,7 @@
         <v>27</v>
       </c>
       <c r="E646" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F646" t="s">
         <v>21</v>
@@ -21279,18 +21329,18 @@
         <v>47</v>
       </c>
       <c r="H646" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="I646" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="647" spans="2:9">
-      <c r="B647" s="4" t="s">
+      <c r="B647" s="5" t="s">
         <v>606</v>
       </c>
       <c r="C647" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D647" t="s">
         <v>27</v>
@@ -21302,44 +21352,44 @@
         <v>21</v>
       </c>
       <c r="G647" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="H647" t="s">
+        <v>53</v>
+      </c>
+      <c r="I647" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="648" spans="2:9">
+      <c r="B648" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="C648" t="s">
+        <v>48</v>
+      </c>
+      <c r="D648" t="s">
+        <v>27</v>
+      </c>
+      <c r="E648" t="s">
+        <v>19</v>
+      </c>
+      <c r="F648" t="s">
+        <v>21</v>
+      </c>
+      <c r="G648" t="s">
+        <v>47</v>
+      </c>
+      <c r="H648" t="s">
         <v>38</v>
-      </c>
-      <c r="I647" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="648" spans="2:9">
-      <c r="B648" s="4" t="s">
-        <v>607</v>
-      </c>
-      <c r="C648" t="s">
-        <v>24</v>
-      </c>
-      <c r="D648" t="s">
-        <v>11</v>
-      </c>
-      <c r="E648" t="s">
-        <v>12</v>
-      </c>
-      <c r="F648" t="s">
-        <v>13</v>
-      </c>
-      <c r="G648" t="s">
-        <v>37</v>
-      </c>
-      <c r="H648" t="s">
-        <v>25</v>
       </c>
       <c r="I648" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="649" spans="2:9">
-      <c r="B649" s="4" t="s">
-        <v>608</v>
+      <c r="B649" s="5" t="s">
+        <v>607</v>
       </c>
       <c r="C649" t="s">
         <v>10</v>
@@ -21360,183 +21410,183 @@
         <v>38</v>
       </c>
       <c r="I649" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
     </row>
     <row r="650" spans="2:9">
-      <c r="B650" s="4" t="s">
-        <v>609</v>
+      <c r="B650" s="5" t="s">
+        <v>608</v>
       </c>
       <c r="C650" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D650" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E650" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F650" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G650" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H650" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I650" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="651" spans="2:9">
-      <c r="B651" s="4" t="s">
+      <c r="B651" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="C651" t="s">
+        <v>10</v>
+      </c>
+      <c r="D651" t="s">
+        <v>27</v>
+      </c>
+      <c r="E651" t="s">
+        <v>19</v>
+      </c>
+      <c r="F651" t="s">
+        <v>21</v>
+      </c>
+      <c r="G651" t="s">
+        <v>28</v>
+      </c>
+      <c r="H651" t="s">
+        <v>38</v>
+      </c>
+      <c r="I651" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="652" spans="2:9">
+      <c r="B652" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="C651" t="s">
-        <v>10</v>
-      </c>
-      <c r="D651" t="s">
-        <v>11</v>
-      </c>
-      <c r="E651" t="s">
-        <v>19</v>
-      </c>
-      <c r="F651" t="s">
-        <v>21</v>
-      </c>
-      <c r="G651" t="s">
+      <c r="C652" t="s">
+        <v>36</v>
+      </c>
+      <c r="D652" t="s">
+        <v>27</v>
+      </c>
+      <c r="E652" t="s">
+        <v>32</v>
+      </c>
+      <c r="F652" t="s">
+        <v>21</v>
+      </c>
+      <c r="G652" t="s">
+        <v>28</v>
+      </c>
+      <c r="H652" t="s">
+        <v>53</v>
+      </c>
+      <c r="I652" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="653" spans="2:9">
+      <c r="B653" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="C653" t="s">
+        <v>10</v>
+      </c>
+      <c r="D653" t="s">
+        <v>11</v>
+      </c>
+      <c r="E653" t="s">
+        <v>19</v>
+      </c>
+      <c r="F653" t="s">
+        <v>21</v>
+      </c>
+      <c r="G653" t="s">
         <v>70</v>
       </c>
-      <c r="H651" t="s">
+      <c r="H653" t="s">
         <v>57</v>
       </c>
-      <c r="I651" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="652" spans="2:9">
-      <c r="B652" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="C652" t="s">
-        <v>10</v>
-      </c>
-      <c r="D652" t="s">
-        <v>11</v>
-      </c>
-      <c r="E652" t="s">
-        <v>19</v>
-      </c>
-      <c r="F652" t="s">
-        <v>21</v>
-      </c>
-      <c r="G652" t="s">
+      <c r="I653" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="654" spans="2:9">
+      <c r="B654" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C654" t="s">
+        <v>10</v>
+      </c>
+      <c r="D654" t="s">
+        <v>11</v>
+      </c>
+      <c r="E654" t="s">
+        <v>19</v>
+      </c>
+      <c r="F654" t="s">
+        <v>21</v>
+      </c>
+      <c r="G654" t="s">
         <v>47</v>
       </c>
-      <c r="H652" t="s">
+      <c r="H654" t="s">
         <v>38</v>
       </c>
-      <c r="I652" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="653" spans="2:9">
-      <c r="B653" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="C653" t="s">
-        <v>10</v>
-      </c>
-      <c r="D653" t="s">
-        <v>11</v>
-      </c>
-      <c r="E653" t="s">
-        <v>19</v>
-      </c>
-      <c r="F653" t="s">
-        <v>21</v>
-      </c>
-      <c r="G653" t="s">
+      <c r="I654" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="655" spans="2:9">
+      <c r="B655" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C655" t="s">
+        <v>10</v>
+      </c>
+      <c r="D655" t="s">
+        <v>11</v>
+      </c>
+      <c r="E655" t="s">
+        <v>19</v>
+      </c>
+      <c r="F655" t="s">
+        <v>21</v>
+      </c>
+      <c r="G655" t="s">
         <v>47</v>
       </c>
-      <c r="H653" t="s">
+      <c r="H655" t="s">
         <v>38</v>
       </c>
-      <c r="I653" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="654" spans="2:9">
-      <c r="B654" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="C654" t="s">
-        <v>10</v>
-      </c>
-      <c r="D654" t="s">
+      <c r="I655" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="656" spans="2:9">
+      <c r="B656" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="C656" t="s">
+        <v>10</v>
+      </c>
+      <c r="D656" t="s">
         <v>18</v>
       </c>
-      <c r="E654" t="s">
+      <c r="E656" t="s">
         <v>12</v>
       </c>
-      <c r="F654" t="s">
+      <c r="F656" t="s">
         <v>52</v>
       </c>
-      <c r="G654" t="s">
+      <c r="G656" t="s">
         <v>28</v>
-      </c>
-      <c r="H654" t="s">
-        <v>57</v>
-      </c>
-      <c r="I654" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="655" spans="2:9">
-      <c r="B655" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="C655" t="s">
-        <v>36</v>
-      </c>
-      <c r="D655" t="s">
-        <v>11</v>
-      </c>
-      <c r="E655" t="s">
-        <v>12</v>
-      </c>
-      <c r="F655" t="s">
-        <v>52</v>
-      </c>
-      <c r="G655" t="s">
-        <v>28</v>
-      </c>
-      <c r="H655" t="s">
-        <v>53</v>
-      </c>
-      <c r="I655" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="656" spans="2:9">
-      <c r="B656" s="6" t="s">
-        <v>614</v>
-      </c>
-      <c r="C656" t="s">
-        <v>36</v>
-      </c>
-      <c r="D656" t="s">
-        <v>27</v>
-      </c>
-      <c r="E656" t="s">
-        <v>19</v>
-      </c>
-      <c r="F656" t="s">
-        <v>21</v>
-      </c>
-      <c r="G656" t="s">
-        <v>22</v>
       </c>
       <c r="H656" t="s">
         <v>57</v>
@@ -21546,34 +21596,34 @@
       </c>
     </row>
     <row r="657" spans="2:9">
-      <c r="B657" s="4" t="s">
+      <c r="B657" s="5" t="s">
         <v>614</v>
       </c>
       <c r="C657" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D657" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E657" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F657" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G657" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H657" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="I657" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
     </row>
     <row r="658" spans="2:9">
-      <c r="B658" s="4" t="s">
-        <v>614</v>
+      <c r="B658" s="7" t="s">
+        <v>615</v>
       </c>
       <c r="C658" t="s">
         <v>36</v>
@@ -21585,10 +21635,10 @@
         <v>19</v>
       </c>
       <c r="F658" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G658" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H658" t="s">
         <v>57</v>
@@ -21598,8 +21648,8 @@
       </c>
     </row>
     <row r="659" spans="2:9">
-      <c r="B659" s="4" t="s">
-        <v>614</v>
+      <c r="B659" s="5" t="s">
+        <v>615</v>
       </c>
       <c r="C659" t="s">
         <v>10</v>
@@ -21611,88 +21661,88 @@
         <v>19</v>
       </c>
       <c r="F659" t="s">
+        <v>21</v>
+      </c>
+      <c r="G659" t="s">
+        <v>22</v>
+      </c>
+      <c r="H659" t="s">
+        <v>38</v>
+      </c>
+      <c r="I659" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="660" spans="2:9">
+      <c r="B660" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="C660" t="s">
+        <v>36</v>
+      </c>
+      <c r="D660" t="s">
+        <v>27</v>
+      </c>
+      <c r="E660" t="s">
+        <v>19</v>
+      </c>
+      <c r="F660" t="s">
+        <v>52</v>
+      </c>
+      <c r="G660" t="s">
+        <v>28</v>
+      </c>
+      <c r="H660" t="s">
+        <v>57</v>
+      </c>
+      <c r="I660" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="661" spans="2:9">
+      <c r="B661" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="C661" t="s">
+        <v>10</v>
+      </c>
+      <c r="D661" t="s">
+        <v>27</v>
+      </c>
+      <c r="E661" t="s">
+        <v>19</v>
+      </c>
+      <c r="F661" t="s">
         <v>13</v>
       </c>
-      <c r="G659" t="s">
-        <v>22</v>
-      </c>
-      <c r="H659" t="s">
+      <c r="G661" t="s">
+        <v>22</v>
+      </c>
+      <c r="H661" t="s">
         <v>15</v>
       </c>
-      <c r="I659" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="660" spans="2:9">
-      <c r="B660" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="C660" t="s">
+      <c r="I661" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="662" spans="2:9">
+      <c r="B662" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="C662" t="s">
         <v>48</v>
       </c>
-      <c r="D660" t="s">
-        <v>27</v>
-      </c>
-      <c r="E660" t="s">
-        <v>19</v>
-      </c>
-      <c r="F660" t="s">
-        <v>21</v>
-      </c>
-      <c r="G660" t="s">
+      <c r="D662" t="s">
+        <v>27</v>
+      </c>
+      <c r="E662" t="s">
+        <v>19</v>
+      </c>
+      <c r="F662" t="s">
+        <v>21</v>
+      </c>
+      <c r="G662" t="s">
         <v>47</v>
-      </c>
-      <c r="H660" t="s">
-        <v>38</v>
-      </c>
-      <c r="I660" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="661" spans="2:9">
-      <c r="B661" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="C661" t="s">
-        <v>10</v>
-      </c>
-      <c r="D661" t="s">
-        <v>27</v>
-      </c>
-      <c r="E661" t="s">
-        <v>19</v>
-      </c>
-      <c r="F661" t="s">
-        <v>52</v>
-      </c>
-      <c r="G661" t="s">
-        <v>37</v>
-      </c>
-      <c r="H661" t="s">
-        <v>57</v>
-      </c>
-      <c r="I661" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="662" spans="2:9">
-      <c r="B662" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="C662" t="s">
-        <v>10</v>
-      </c>
-      <c r="D662" t="s">
-        <v>27</v>
-      </c>
-      <c r="E662" t="s">
-        <v>12</v>
-      </c>
-      <c r="F662" t="s">
-        <v>21</v>
-      </c>
-      <c r="G662" t="s">
-        <v>28</v>
       </c>
       <c r="H662" t="s">
         <v>38</v>
@@ -21702,8 +21752,8 @@
       </c>
     </row>
     <row r="663" spans="2:9">
-      <c r="B663" s="4" t="s">
-        <v>614</v>
+      <c r="B663" s="5" t="s">
+        <v>615</v>
       </c>
       <c r="C663" t="s">
         <v>10</v>
@@ -21712,53 +21762,599 @@
         <v>27</v>
       </c>
       <c r="E663" t="s">
+        <v>19</v>
+      </c>
+      <c r="F663" t="s">
+        <v>52</v>
+      </c>
+      <c r="G663" t="s">
+        <v>37</v>
+      </c>
+      <c r="H663" t="s">
+        <v>57</v>
+      </c>
+      <c r="I663" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="664" spans="2:9">
+      <c r="B664" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="C664" t="s">
+        <v>10</v>
+      </c>
+      <c r="D664" t="s">
+        <v>27</v>
+      </c>
+      <c r="E664" t="s">
         <v>12</v>
       </c>
-      <c r="F663" t="s">
-        <v>21</v>
-      </c>
-      <c r="G663" t="s">
-        <v>22</v>
-      </c>
-      <c r="H663" t="s">
+      <c r="F664" t="s">
+        <v>21</v>
+      </c>
+      <c r="G664" t="s">
+        <v>28</v>
+      </c>
+      <c r="H664" t="s">
         <v>38</v>
       </c>
-      <c r="I663" t="s">
+      <c r="I664" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="665" spans="2:9">
+      <c r="B665" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="C665" t="s">
+        <v>10</v>
+      </c>
+      <c r="D665" t="s">
+        <v>27</v>
+      </c>
+      <c r="E665" t="s">
+        <v>12</v>
+      </c>
+      <c r="F665" t="s">
+        <v>21</v>
+      </c>
+      <c r="G665" t="s">
+        <v>22</v>
+      </c>
+      <c r="H665" t="s">
+        <v>38</v>
+      </c>
+      <c r="I665" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="666" spans="2:9">
+      <c r="B666" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="C666" t="s">
+        <v>10</v>
+      </c>
+      <c r="D666" t="s">
+        <v>27</v>
+      </c>
+      <c r="E666" t="s">
+        <v>19</v>
+      </c>
+      <c r="F666" t="s">
+        <v>21</v>
+      </c>
+      <c r="G666" t="s">
+        <v>65</v>
+      </c>
+      <c r="H666" t="s">
+        <v>25</v>
+      </c>
+      <c r="I666" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="667" spans="2:9">
+      <c r="B667" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="C667" t="s">
+        <v>10</v>
+      </c>
+      <c r="D667" t="s">
+        <v>27</v>
+      </c>
+      <c r="E667" t="s">
+        <v>19</v>
+      </c>
+      <c r="F667" t="s">
+        <v>21</v>
+      </c>
+      <c r="G667" t="s">
+        <v>65</v>
+      </c>
+      <c r="H667" t="s">
+        <v>25</v>
+      </c>
+      <c r="I667" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="668" spans="2:9">
+      <c r="B668" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="C668" t="s">
+        <v>24</v>
+      </c>
+      <c r="D668" t="s">
+        <v>27</v>
+      </c>
+      <c r="E668" t="s">
+        <v>12</v>
+      </c>
+      <c r="F668" t="s">
+        <v>21</v>
+      </c>
+      <c r="G668" t="s">
+        <v>47</v>
+      </c>
+      <c r="H668" t="s">
+        <v>57</v>
+      </c>
+      <c r="I668" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="669" spans="2:9">
+      <c r="B669" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="C669" t="s">
+        <v>10</v>
+      </c>
+      <c r="D669" t="s">
+        <v>27</v>
+      </c>
+      <c r="E669" t="s">
+        <v>12</v>
+      </c>
+      <c r="F669" t="s">
+        <v>33</v>
+      </c>
+      <c r="G669" t="s">
+        <v>37</v>
+      </c>
+      <c r="H669" t="s">
+        <v>15</v>
+      </c>
+      <c r="I669" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="670" spans="2:9">
+      <c r="B670" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="C670" t="s">
+        <v>10</v>
+      </c>
+      <c r="D670" t="s">
+        <v>27</v>
+      </c>
+      <c r="E670" t="s">
+        <v>12</v>
+      </c>
+      <c r="F670" t="s">
+        <v>13</v>
+      </c>
+      <c r="G670" t="s">
+        <v>37</v>
+      </c>
+      <c r="H670" t="s">
+        <v>25</v>
+      </c>
+      <c r="I670" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="671" spans="2:9">
+      <c r="B671" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="C671" t="s">
+        <v>24</v>
+      </c>
+      <c r="D671" t="s">
+        <v>11</v>
+      </c>
+      <c r="E671" t="s">
+        <v>12</v>
+      </c>
+      <c r="F671" t="s">
+        <v>13</v>
+      </c>
+      <c r="G671" t="s">
+        <v>28</v>
+      </c>
+      <c r="H671" t="s">
+        <v>38</v>
+      </c>
+      <c r="I671" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="672" spans="2:9">
+      <c r="B672" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="C672" t="s">
+        <v>31</v>
+      </c>
+      <c r="D672" t="s">
+        <v>27</v>
+      </c>
+      <c r="E672" t="s">
+        <v>19</v>
+      </c>
+      <c r="F672" t="s">
+        <v>13</v>
+      </c>
+      <c r="G672" t="s">
+        <v>28</v>
+      </c>
+      <c r="H672" t="s">
+        <v>38</v>
+      </c>
+      <c r="I672" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="673" spans="2:9">
+      <c r="B673" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="C673" t="s">
+        <v>31</v>
+      </c>
+      <c r="D673" t="s">
+        <v>27</v>
+      </c>
+      <c r="E673" t="s">
+        <v>12</v>
+      </c>
+      <c r="F673" t="s">
+        <v>13</v>
+      </c>
+      <c r="G673" t="s">
+        <v>28</v>
+      </c>
+      <c r="H673" t="s">
+        <v>38</v>
+      </c>
+      <c r="I673" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="674" spans="2:9">
+      <c r="B674" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="C674" t="s">
+        <v>10</v>
+      </c>
+      <c r="D674" t="s">
+        <v>27</v>
+      </c>
+      <c r="E674" t="s">
+        <v>19</v>
+      </c>
+      <c r="F674" t="s">
+        <v>13</v>
+      </c>
+      <c r="G674" t="s">
+        <v>37</v>
+      </c>
+      <c r="H674" t="s">
+        <v>38</v>
+      </c>
+      <c r="I674" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="675" spans="2:9">
+      <c r="B675" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="C675" t="s">
+        <v>10</v>
+      </c>
+      <c r="D675" t="s">
+        <v>27</v>
+      </c>
+      <c r="E675" t="s">
+        <v>19</v>
+      </c>
+      <c r="F675" t="s">
+        <v>21</v>
+      </c>
+      <c r="G675" t="s">
+        <v>65</v>
+      </c>
+      <c r="H675" t="s">
+        <v>38</v>
+      </c>
+      <c r="I675" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="676" spans="2:9">
+      <c r="B676" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="C676" t="s">
+        <v>10</v>
+      </c>
+      <c r="D676" t="s">
+        <v>27</v>
+      </c>
+      <c r="E676" t="s">
+        <v>19</v>
+      </c>
+      <c r="F676" t="s">
+        <v>21</v>
+      </c>
+      <c r="G676" t="s">
+        <v>47</v>
+      </c>
+      <c r="H676" t="s">
+        <v>38</v>
+      </c>
+      <c r="I676" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="677" spans="2:9">
+      <c r="B677" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="C677" t="s">
+        <v>10</v>
+      </c>
+      <c r="D677" t="s">
+        <v>27</v>
+      </c>
+      <c r="E677" t="s">
+        <v>19</v>
+      </c>
+      <c r="F677" t="s">
+        <v>52</v>
+      </c>
+      <c r="G677" t="s">
+        <v>37</v>
+      </c>
+      <c r="H677" t="s">
+        <v>25</v>
+      </c>
+      <c r="I677" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="678" spans="2:9">
+      <c r="B678" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="C678" t="s">
+        <v>24</v>
+      </c>
+      <c r="D678" t="s">
+        <v>27</v>
+      </c>
+      <c r="E678" t="s">
+        <v>12</v>
+      </c>
+      <c r="F678" t="s">
+        <v>13</v>
+      </c>
+      <c r="G678" t="s">
+        <v>37</v>
+      </c>
+      <c r="H678" t="s">
+        <v>38</v>
+      </c>
+      <c r="I678" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="679" spans="2:9">
+      <c r="B679" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="C679" t="s">
+        <v>10</v>
+      </c>
+      <c r="D679" t="s">
+        <v>11</v>
+      </c>
+      <c r="E679" t="s">
+        <v>19</v>
+      </c>
+      <c r="F679" t="s">
+        <v>21</v>
+      </c>
+      <c r="G679" t="s">
+        <v>28</v>
+      </c>
+      <c r="H679" t="s">
+        <v>57</v>
+      </c>
+      <c r="I679" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="680" spans="2:9">
+      <c r="B680" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="C680" t="s">
+        <v>10</v>
+      </c>
+      <c r="D680" t="s">
+        <v>27</v>
+      </c>
+      <c r="E680" t="s">
+        <v>19</v>
+      </c>
+      <c r="F680" t="s">
+        <v>21</v>
+      </c>
+      <c r="G680" t="s">
+        <v>28</v>
+      </c>
+      <c r="H680" t="s">
+        <v>38</v>
+      </c>
+      <c r="I680" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="681" spans="2:9">
+      <c r="B681" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="C681" t="s">
+        <v>10</v>
+      </c>
+      <c r="D681" t="s">
+        <v>27</v>
+      </c>
+      <c r="E681" t="s">
+        <v>19</v>
+      </c>
+      <c r="F681" t="s">
+        <v>13</v>
+      </c>
+      <c r="G681" t="s">
+        <v>22</v>
+      </c>
+      <c r="H681" t="s">
+        <v>15</v>
+      </c>
+      <c r="I681" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="682" spans="2:9">
+      <c r="B682" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="C682" t="s">
+        <v>10</v>
+      </c>
+      <c r="D682" t="s">
+        <v>27</v>
+      </c>
+      <c r="E682" t="s">
+        <v>19</v>
+      </c>
+      <c r="F682" t="s">
+        <v>13</v>
+      </c>
+      <c r="G682" t="s">
+        <v>22</v>
+      </c>
+      <c r="H682" t="s">
+        <v>15</v>
+      </c>
+      <c r="I682" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="683" spans="2:9">
+      <c r="B683" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="C683" t="s">
+        <v>24</v>
+      </c>
+      <c r="D683" t="s">
+        <v>27</v>
+      </c>
+      <c r="E683" t="s">
+        <v>12</v>
+      </c>
+      <c r="F683" t="s">
+        <v>13</v>
+      </c>
+      <c r="G683" t="s">
+        <v>22</v>
+      </c>
+      <c r="H683" t="s">
+        <v>57</v>
+      </c>
+      <c r="I683" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="684" spans="2:9">
+      <c r="B684" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="C684" t="s">
+        <v>36</v>
+      </c>
+      <c r="D684" t="s">
+        <v>27</v>
+      </c>
+      <c r="E684" t="s">
+        <v>19</v>
+      </c>
+      <c r="F684" t="s">
+        <v>33</v>
+      </c>
+      <c r="G684" t="s">
+        <v>22</v>
+      </c>
+      <c r="H684" t="s">
+        <v>57</v>
+      </c>
+      <c r="I684" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I568"/>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1400">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F579 F582 F1:F578 F580:F581 F583:F1402">
       <formula1>$O$59:$O$63</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H345 H484">
       <formula1>$O$34:$O$41</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H344 H346:H483 H485:H1484">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H579 H582 H2:H344 H346:H483 H485:H578 H580:H581 H583:H1486">
       <formula1>$O$34:$O$42</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1111">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C579 C582 C2:C578 C580:C581 C583:C1113">
       <formula1>$O$8:$O$14</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E579 E582 E2:E578 E580:E581 E583:E1429">
+      <formula1>$O$17:$O$21</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D579 D582 D2:D578 D580:D581 D583:D1402">
+      <formula1>$O$50:$O$52</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I579 I582 I2:I578 I580:I581 I583:I1402">
+      <formula1>$O$45:$O$47</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G579 G582 G123:G578 G580:G581 G583:G1402">
+      <formula1>$O$23:$O$30</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1114:C1166">
+      <formula1>$L$9:$L$15</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G122">
       <formula1>$O$23:$O$31</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1112:C1164">
-      <formula1>$L$9:$L$15</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1427">
-      <formula1>$O$17:$O$21</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1400">
-      <formula1>$O$50:$O$52</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G123:G1400">
-      <formula1>$O$23:$O$30</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1400">
-      <formula1>$O$45:$O$47</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/毕业论文/内容分析 (自动保存的) (自动保存的).xlsx
+++ b/毕业论文/内容分析 (自动保存的) (自动保存的).xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView windowWidth="19290" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26500" windowHeight="14880"/>
   </bookViews>
   <sheets>
     <sheet name="内容分析" sheetId="1" r:id="rId1"/>
@@ -15,11 +15,16 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">内容分析!$A$1:$I$568</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5504" uniqueCount="631">
   <si>
     <t>编码</t>
   </si>
@@ -1917,14 +1922,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1967,345 +1966,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2313,322 +1988,34 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="11"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="11" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="普通" xfId="11"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="汇总" xfId="31" builtinId="25"/>
-    <cellStyle name="好" xfId="32" builtinId="26"/>
-    <cellStyle name="适中" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+  <cellStyles count="2">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="普通 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -2918,28 +2305,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O684"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A667" workbookViewId="0">
-      <selection activeCell="C693" sqref="C693"/>
+    <sheetView tabSelected="1" topLeftCell="A657" workbookViewId="0">
+      <selection activeCell="G583" sqref="G583"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="11.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="20.1666666666667" customWidth="1"/>
-    <col min="7" max="7" width="29.1666666666667" customWidth="1"/>
-    <col min="8" max="8" width="22.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="13.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" customWidth="1"/>
+    <col min="7" max="7" width="29.1640625" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
     <col min="15" max="15" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2968,7 +2354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2997,7 +2383,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3026,7 +2412,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3055,7 +2441,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3084,7 +2470,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3113,7 +2499,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3366,7 +2752,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3395,7 +2781,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3584,7 +2970,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3869,7 +3255,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3898,7 +3284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3927,7 +3313,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4212,7 +3598,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4241,7 +3627,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4270,7 +3656,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4395,7 +3781,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:15">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4424,7 +3810,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:15">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4549,7 +3935,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:15">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4578,7 +3964,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:15">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4607,7 +3993,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:15">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4636,7 +4022,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:15">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4665,7 +4051,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:15">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4694,7 +4080,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:15">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4883,7 +4269,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:15">
       <c r="A64">
         <v>63</v>
       </c>
@@ -17643,7 +17029,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="504" spans="2:9">
+    <row r="504" spans="1:9">
       <c r="B504" s="3" t="s">
         <v>482</v>
       </c>
@@ -17669,7 +17055,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="505" spans="2:9">
+    <row r="505" spans="1:9">
       <c r="B505" s="3" t="s">
         <v>483</v>
       </c>
@@ -17695,7 +17081,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="506" spans="2:9">
+    <row r="506" spans="1:9">
       <c r="B506" s="3" t="s">
         <v>483</v>
       </c>
@@ -17721,7 +17107,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="507" spans="2:9">
+    <row r="507" spans="1:9">
       <c r="B507" s="3" t="s">
         <v>484</v>
       </c>
@@ -17747,7 +17133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="508" spans="2:9">
+    <row r="508" spans="1:9">
       <c r="B508" s="3" t="s">
         <v>485</v>
       </c>
@@ -17773,7 +17159,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="509" spans="2:9">
+    <row r="509" spans="1:9">
       <c r="B509" s="3" t="s">
         <v>486</v>
       </c>
@@ -17799,7 +17185,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="510" spans="2:9">
+    <row r="510" spans="1:9">
       <c r="B510" s="3" t="s">
         <v>487</v>
       </c>
@@ -17825,7 +17211,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="511" spans="2:9">
+    <row r="511" spans="1:9">
       <c r="B511" s="3" t="s">
         <v>487</v>
       </c>
@@ -17851,7 +17237,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="512" spans="2:9">
+    <row r="512" spans="1:9">
       <c r="B512" s="3" t="s">
         <v>487</v>
       </c>
@@ -19685,7 +19071,7 @@
         <v>12</v>
       </c>
       <c r="F583" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="G583" t="s">
         <v>65</v>
@@ -22325,6 +21711,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I568"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="10">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F579 F582 F1:F578 F580:F581 F583:F1402">
       <formula1>$O$59:$O$63</formula1>
@@ -22357,41 +21744,51 @@
       <formula1>$O$23:$O$31</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/毕业论文/内容分析 (自动保存的) (自动保存的).xlsx
+++ b/毕业论文/内容分析 (自动保存的) (自动保存的).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26500" windowHeight="14880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26220" windowHeight="14960"/>
   </bookViews>
   <sheets>
     <sheet name="内容分析" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">内容分析!$A$1:$I$568</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5504" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5856" uniqueCount="672">
   <si>
     <t>编码</t>
   </si>
@@ -1917,13 +1917,172 @@
   </si>
   <si>
     <t>2004.12.17</t>
+  </si>
+  <si>
+    <t>2005.01.05</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005.01.06</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005.01.08</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005.01.08</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005.02.08</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005.03.08</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005.03.27</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>各地计生工作情况</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005.04.08</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005.05.17</t>
+  </si>
+  <si>
+    <t>2005.05.28</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005.06.04</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005.06.10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005.06.20</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005.07.03</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005.07.04</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005.07.10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005.08.07</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005.08.25</t>
+  </si>
+  <si>
+    <t>2005.08.25</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005.08.31</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005.09.02</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005.09.08</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005.09.18</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005.10.13</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005.10.21</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005.11.15</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业人士或机构</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005.11.20</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006.01.07</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006.01.09</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006.01.12</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006.01.20</t>
+  </si>
+  <si>
+    <t>2006.01.27</t>
+  </si>
+  <si>
+    <t>2006.02.27</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006.03.24</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006.04.15</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006.04.25</t>
+  </si>
+  <si>
+    <t>2006.05.24</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006.06.23</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006.07.07</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1971,6 +2130,11 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Courier"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1995,7 +2159,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -2009,6 +2173,9 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -2306,10 +2473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O684"/>
+  <dimension ref="A1:O728"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A657" workbookViewId="0">
-      <selection activeCell="G583" sqref="G583"/>
+    <sheetView tabSelected="1" topLeftCell="A724" workbookViewId="0">
+      <selection activeCell="B739" sqref="B739"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -21709,35 +21876,1179 @@
         <v>16</v>
       </c>
     </row>
+    <row r="685" spans="2:9">
+      <c r="B685" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="C685" t="s">
+        <v>10</v>
+      </c>
+      <c r="D685" t="s">
+        <v>27</v>
+      </c>
+      <c r="E685" t="s">
+        <v>55</v>
+      </c>
+      <c r="F685" t="s">
+        <v>21</v>
+      </c>
+      <c r="G685" t="s">
+        <v>28</v>
+      </c>
+      <c r="H685" t="s">
+        <v>53</v>
+      </c>
+      <c r="I685" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="686" spans="2:9">
+      <c r="B686" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="C686" t="s">
+        <v>10</v>
+      </c>
+      <c r="D686" t="s">
+        <v>11</v>
+      </c>
+      <c r="E686" t="s">
+        <v>12</v>
+      </c>
+      <c r="F686" t="s">
+        <v>21</v>
+      </c>
+      <c r="G686" t="s">
+        <v>28</v>
+      </c>
+      <c r="H686" t="s">
+        <v>53</v>
+      </c>
+      <c r="I686" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="687" spans="2:9">
+      <c r="B687" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="C687" t="s">
+        <v>10</v>
+      </c>
+      <c r="D687" t="s">
+        <v>27</v>
+      </c>
+      <c r="E687" t="s">
+        <v>12</v>
+      </c>
+      <c r="F687" t="s">
+        <v>13</v>
+      </c>
+      <c r="G687" t="s">
+        <v>28</v>
+      </c>
+      <c r="H687" t="s">
+        <v>53</v>
+      </c>
+      <c r="I687" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="688" spans="2:9">
+      <c r="B688" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="C688" t="s">
+        <v>10</v>
+      </c>
+      <c r="D688" t="s">
+        <v>18</v>
+      </c>
+      <c r="E688" t="s">
+        <v>19</v>
+      </c>
+      <c r="F688" t="s">
+        <v>33</v>
+      </c>
+      <c r="G688" t="s">
+        <v>28</v>
+      </c>
+      <c r="H688" t="s">
+        <v>53</v>
+      </c>
+      <c r="I688" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="689" spans="2:9">
+      <c r="B689" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="C689" t="s">
+        <v>25</v>
+      </c>
+      <c r="D689" t="s">
+        <v>11</v>
+      </c>
+      <c r="E689" t="s">
+        <v>32</v>
+      </c>
+      <c r="F689" t="s">
+        <v>21</v>
+      </c>
+      <c r="G689" t="s">
+        <v>70</v>
+      </c>
+      <c r="H689" t="s">
+        <v>25</v>
+      </c>
+      <c r="I689" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="690" spans="2:9">
+      <c r="B690" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="C690" t="s">
+        <v>36</v>
+      </c>
+      <c r="D690" t="s">
+        <v>27</v>
+      </c>
+      <c r="E690" t="s">
+        <v>19</v>
+      </c>
+      <c r="F690" t="s">
+        <v>21</v>
+      </c>
+      <c r="G690" t="s">
+        <v>28</v>
+      </c>
+      <c r="H690" t="s">
+        <v>25</v>
+      </c>
+      <c r="I690" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="691" spans="2:9">
+      <c r="B691" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="C691" t="s">
+        <v>10</v>
+      </c>
+      <c r="D691" t="s">
+        <v>27</v>
+      </c>
+      <c r="E691" t="s">
+        <v>19</v>
+      </c>
+      <c r="F691" t="s">
+        <v>21</v>
+      </c>
+      <c r="G691" t="s">
+        <v>28</v>
+      </c>
+      <c r="H691" t="s">
+        <v>53</v>
+      </c>
+      <c r="I691" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="692" spans="2:9">
+      <c r="B692" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="C692" t="s">
+        <v>36</v>
+      </c>
+      <c r="D692" t="s">
+        <v>27</v>
+      </c>
+      <c r="E692" t="s">
+        <v>19</v>
+      </c>
+      <c r="F692" t="s">
+        <v>13</v>
+      </c>
+      <c r="G692" t="s">
+        <v>638</v>
+      </c>
+      <c r="H692" t="s">
+        <v>15</v>
+      </c>
+      <c r="I692" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="693" spans="2:9">
+      <c r="B693" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="C693" t="s">
+        <v>10</v>
+      </c>
+      <c r="D693" t="s">
+        <v>18</v>
+      </c>
+      <c r="E693" t="s">
+        <v>12</v>
+      </c>
+      <c r="F693" t="s">
+        <v>21</v>
+      </c>
+      <c r="G693" t="s">
+        <v>70</v>
+      </c>
+      <c r="H693" t="s">
+        <v>25</v>
+      </c>
+      <c r="I693" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="694" spans="2:9">
+      <c r="B694" s="11" t="s">
+        <v>640</v>
+      </c>
+      <c r="C694" t="s">
+        <v>10</v>
+      </c>
+      <c r="D694" t="s">
+        <v>11</v>
+      </c>
+      <c r="E694" t="s">
+        <v>55</v>
+      </c>
+      <c r="F694" t="s">
+        <v>13</v>
+      </c>
+      <c r="G694" t="s">
+        <v>22</v>
+      </c>
+      <c r="H694" t="s">
+        <v>38</v>
+      </c>
+      <c r="I694" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="695" spans="2:9">
+      <c r="B695" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="C695" t="s">
+        <v>10</v>
+      </c>
+      <c r="D695" t="s">
+        <v>27</v>
+      </c>
+      <c r="E695" t="s">
+        <v>19</v>
+      </c>
+      <c r="F695" t="s">
+        <v>13</v>
+      </c>
+      <c r="G695" t="s">
+        <v>28</v>
+      </c>
+      <c r="H695" t="s">
+        <v>43</v>
+      </c>
+      <c r="I695" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="696" spans="2:9">
+      <c r="B696" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="C696" t="s">
+        <v>10</v>
+      </c>
+      <c r="D696" t="s">
+        <v>11</v>
+      </c>
+      <c r="E696" t="s">
+        <v>19</v>
+      </c>
+      <c r="F696" t="s">
+        <v>21</v>
+      </c>
+      <c r="G696" t="s">
+        <v>22</v>
+      </c>
+      <c r="H696" t="s">
+        <v>57</v>
+      </c>
+      <c r="I696" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="697" spans="2:9">
+      <c r="B697" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="C697" t="s">
+        <v>10</v>
+      </c>
+      <c r="D697" t="s">
+        <v>11</v>
+      </c>
+      <c r="E697" t="s">
+        <v>12</v>
+      </c>
+      <c r="F697" t="s">
+        <v>21</v>
+      </c>
+      <c r="G697" t="s">
+        <v>65</v>
+      </c>
+      <c r="H697" t="s">
+        <v>38</v>
+      </c>
+      <c r="I697" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="698" spans="2:9">
+      <c r="B698" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="C698" t="s">
+        <v>10</v>
+      </c>
+      <c r="D698" t="s">
+        <v>18</v>
+      </c>
+      <c r="E698" t="s">
+        <v>19</v>
+      </c>
+      <c r="F698" t="s">
+        <v>21</v>
+      </c>
+      <c r="G698" t="s">
+        <v>67</v>
+      </c>
+      <c r="H698" t="s">
+        <v>38</v>
+      </c>
+      <c r="I698" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="699" spans="2:9">
+      <c r="B699" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="C699" t="s">
+        <v>24</v>
+      </c>
+      <c r="D699" t="s">
+        <v>27</v>
+      </c>
+      <c r="E699" t="s">
+        <v>12</v>
+      </c>
+      <c r="F699" t="s">
+        <v>13</v>
+      </c>
+      <c r="G699" t="s">
+        <v>22</v>
+      </c>
+      <c r="H699" t="s">
+        <v>38</v>
+      </c>
+      <c r="I699" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="700" spans="2:9">
+      <c r="B700" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="C700" t="s">
+        <v>10</v>
+      </c>
+      <c r="D700" t="s">
+        <v>11</v>
+      </c>
+      <c r="E700" t="s">
+        <v>19</v>
+      </c>
+      <c r="F700" t="s">
+        <v>21</v>
+      </c>
+      <c r="G700" t="s">
+        <v>70</v>
+      </c>
+      <c r="H700" t="s">
+        <v>57</v>
+      </c>
+      <c r="I700" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="701" spans="2:9">
+      <c r="B701" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="C701" t="s">
+        <v>10</v>
+      </c>
+      <c r="D701" t="s">
+        <v>11</v>
+      </c>
+      <c r="E701" t="s">
+        <v>12</v>
+      </c>
+      <c r="F701" t="s">
+        <v>21</v>
+      </c>
+      <c r="G701" t="s">
+        <v>47</v>
+      </c>
+      <c r="H701" t="s">
+        <v>38</v>
+      </c>
+      <c r="I701" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="702" spans="2:9">
+      <c r="B702" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="C702" t="s">
+        <v>10</v>
+      </c>
+      <c r="D702" t="s">
+        <v>11</v>
+      </c>
+      <c r="E702" t="s">
+        <v>19</v>
+      </c>
+      <c r="F702" t="s">
+        <v>21</v>
+      </c>
+      <c r="G702" t="s">
+        <v>47</v>
+      </c>
+      <c r="H702" t="s">
+        <v>57</v>
+      </c>
+      <c r="I702" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="703" spans="2:9">
+      <c r="B703" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="C703" t="s">
+        <v>44</v>
+      </c>
+      <c r="D703" t="s">
+        <v>27</v>
+      </c>
+      <c r="E703" t="s">
+        <v>60</v>
+      </c>
+      <c r="F703" t="s">
+        <v>21</v>
+      </c>
+      <c r="G703" t="s">
+        <v>65</v>
+      </c>
+      <c r="H703" t="s">
+        <v>38</v>
+      </c>
+      <c r="I703" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="704" spans="2:9">
+      <c r="B704" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="C704" t="s">
+        <v>10</v>
+      </c>
+      <c r="D704" t="s">
+        <v>27</v>
+      </c>
+      <c r="E704" t="s">
+        <v>19</v>
+      </c>
+      <c r="F704" t="s">
+        <v>21</v>
+      </c>
+      <c r="G704" t="s">
+        <v>65</v>
+      </c>
+      <c r="H704" t="s">
+        <v>53</v>
+      </c>
+      <c r="I704" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="705" spans="2:9">
+      <c r="B705" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="C705" t="s">
+        <v>36</v>
+      </c>
+      <c r="D705" t="s">
+        <v>27</v>
+      </c>
+      <c r="E705" t="s">
+        <v>19</v>
+      </c>
+      <c r="F705" t="s">
+        <v>21</v>
+      </c>
+      <c r="G705" t="s">
+        <v>28</v>
+      </c>
+      <c r="H705" t="s">
+        <v>15</v>
+      </c>
+      <c r="I705" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="706" spans="2:9">
+      <c r="B706" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="C706" t="s">
+        <v>24</v>
+      </c>
+      <c r="D706" t="s">
+        <v>27</v>
+      </c>
+      <c r="E706" t="s">
+        <v>12</v>
+      </c>
+      <c r="F706" t="s">
+        <v>33</v>
+      </c>
+      <c r="G706" t="s">
+        <v>37</v>
+      </c>
+      <c r="H706" t="s">
+        <v>38</v>
+      </c>
+      <c r="I706" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="707" spans="2:9">
+      <c r="B707" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="C707" t="s">
+        <v>10</v>
+      </c>
+      <c r="D707" t="s">
+        <v>18</v>
+      </c>
+      <c r="E707" t="s">
+        <v>19</v>
+      </c>
+      <c r="F707" t="s">
+        <v>13</v>
+      </c>
+      <c r="G707" t="s">
+        <v>22</v>
+      </c>
+      <c r="H707" t="s">
+        <v>57</v>
+      </c>
+      <c r="I707" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="708" spans="2:9">
+      <c r="B708" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="C708" t="s">
+        <v>10</v>
+      </c>
+      <c r="D708" t="s">
+        <v>11</v>
+      </c>
+      <c r="E708" t="s">
+        <v>19</v>
+      </c>
+      <c r="F708" t="s">
+        <v>21</v>
+      </c>
+      <c r="G708" t="s">
+        <v>47</v>
+      </c>
+      <c r="H708" t="s">
+        <v>38</v>
+      </c>
+      <c r="I708" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="709" spans="2:9">
+      <c r="B709" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="C709" t="s">
+        <v>10</v>
+      </c>
+      <c r="D709" t="s">
+        <v>27</v>
+      </c>
+      <c r="E709" t="s">
+        <v>19</v>
+      </c>
+      <c r="F709" t="s">
+        <v>21</v>
+      </c>
+      <c r="G709" t="s">
+        <v>47</v>
+      </c>
+      <c r="H709" t="s">
+        <v>53</v>
+      </c>
+      <c r="I709" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="710" spans="2:9">
+      <c r="B710" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="C710" t="s">
+        <v>10</v>
+      </c>
+      <c r="D710" t="s">
+        <v>27</v>
+      </c>
+      <c r="E710" t="s">
+        <v>32</v>
+      </c>
+      <c r="F710" t="s">
+        <v>21</v>
+      </c>
+      <c r="G710" t="s">
+        <v>22</v>
+      </c>
+      <c r="H710" t="s">
+        <v>57</v>
+      </c>
+      <c r="I710" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="711" spans="2:9">
+      <c r="B711" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="C711" t="s">
+        <v>24</v>
+      </c>
+      <c r="D711" t="s">
+        <v>27</v>
+      </c>
+      <c r="E711" t="s">
+        <v>19</v>
+      </c>
+      <c r="F711" t="s">
+        <v>21</v>
+      </c>
+      <c r="G711" t="s">
+        <v>22</v>
+      </c>
+      <c r="H711" t="s">
+        <v>57</v>
+      </c>
+      <c r="I711" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="712" spans="2:9">
+      <c r="B712" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="C712" t="s">
+        <v>36</v>
+      </c>
+      <c r="D712" t="s">
+        <v>27</v>
+      </c>
+      <c r="E712" t="s">
+        <v>19</v>
+      </c>
+      <c r="F712" t="s">
+        <v>21</v>
+      </c>
+      <c r="G712" t="s">
+        <v>22</v>
+      </c>
+      <c r="H712" t="s">
+        <v>38</v>
+      </c>
+      <c r="I712" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="713" spans="2:9">
+      <c r="B713" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="C713" t="s">
+        <v>48</v>
+      </c>
+      <c r="D713" t="s">
+        <v>11</v>
+      </c>
+      <c r="E713" t="s">
+        <v>19</v>
+      </c>
+      <c r="F713" t="s">
+        <v>21</v>
+      </c>
+      <c r="G713" t="s">
+        <v>47</v>
+      </c>
+      <c r="H713" t="s">
+        <v>57</v>
+      </c>
+      <c r="I713" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="714" spans="2:9">
+      <c r="B714" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="C714" t="s">
+        <v>24</v>
+      </c>
+      <c r="D714" t="s">
+        <v>27</v>
+      </c>
+      <c r="E714" t="s">
+        <v>19</v>
+      </c>
+      <c r="F714" t="s">
+        <v>658</v>
+      </c>
+      <c r="G714" t="s">
+        <v>37</v>
+      </c>
+      <c r="H714" t="s">
+        <v>25</v>
+      </c>
+      <c r="I714" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="715" spans="2:9">
+      <c r="B715" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="C715" t="s">
+        <v>10</v>
+      </c>
+      <c r="D715" t="s">
+        <v>27</v>
+      </c>
+      <c r="E715" t="s">
+        <v>19</v>
+      </c>
+      <c r="F715" t="s">
+        <v>21</v>
+      </c>
+      <c r="G715" t="s">
+        <v>28</v>
+      </c>
+      <c r="H715" t="s">
+        <v>53</v>
+      </c>
+      <c r="I715" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="716" spans="2:9">
+      <c r="B716" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="C716" t="s">
+        <v>10</v>
+      </c>
+      <c r="D716" t="s">
+        <v>11</v>
+      </c>
+      <c r="E716" t="s">
+        <v>19</v>
+      </c>
+      <c r="F716" t="s">
+        <v>21</v>
+      </c>
+      <c r="G716" t="s">
+        <v>28</v>
+      </c>
+      <c r="H716" t="s">
+        <v>38</v>
+      </c>
+      <c r="I716" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="717" spans="2:9">
+      <c r="B717" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="C717" t="s">
+        <v>10</v>
+      </c>
+      <c r="D717" t="s">
+        <v>11</v>
+      </c>
+      <c r="E717" t="s">
+        <v>19</v>
+      </c>
+      <c r="F717" t="s">
+        <v>21</v>
+      </c>
+      <c r="G717" t="s">
+        <v>47</v>
+      </c>
+      <c r="H717" t="s">
+        <v>53</v>
+      </c>
+      <c r="I717" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="718" spans="2:9">
+      <c r="B718" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="C718" t="s">
+        <v>10</v>
+      </c>
+      <c r="D718" t="s">
+        <v>27</v>
+      </c>
+      <c r="E718" t="s">
+        <v>19</v>
+      </c>
+      <c r="F718" t="s">
+        <v>21</v>
+      </c>
+      <c r="G718" t="s">
+        <v>28</v>
+      </c>
+      <c r="H718" t="s">
+        <v>53</v>
+      </c>
+      <c r="I718" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="719" spans="2:9">
+      <c r="B719" s="10" t="s">
+        <v>662</v>
+      </c>
+      <c r="C719" t="s">
+        <v>10</v>
+      </c>
+      <c r="D719" t="s">
+        <v>11</v>
+      </c>
+      <c r="E719" t="s">
+        <v>19</v>
+      </c>
+      <c r="F719" t="s">
+        <v>21</v>
+      </c>
+      <c r="G719" t="s">
+        <v>47</v>
+      </c>
+      <c r="H719" t="s">
+        <v>38</v>
+      </c>
+      <c r="I719" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="720" spans="2:9">
+      <c r="B720" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="C720" t="s">
+        <v>36</v>
+      </c>
+      <c r="D720" t="s">
+        <v>27</v>
+      </c>
+      <c r="E720" t="s">
+        <v>12</v>
+      </c>
+      <c r="F720" t="s">
+        <v>21</v>
+      </c>
+      <c r="G720" t="s">
+        <v>28</v>
+      </c>
+      <c r="H720" t="s">
+        <v>53</v>
+      </c>
+      <c r="I720" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="721" spans="2:9">
+      <c r="B721" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="C721" t="s">
+        <v>10</v>
+      </c>
+      <c r="D721" t="s">
+        <v>11</v>
+      </c>
+      <c r="E721" t="s">
+        <v>19</v>
+      </c>
+      <c r="F721" t="s">
+        <v>21</v>
+      </c>
+      <c r="G721" t="s">
+        <v>22</v>
+      </c>
+      <c r="H721" t="s">
+        <v>38</v>
+      </c>
+      <c r="I721" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="722" spans="2:9">
+      <c r="B722" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="C722" t="s">
+        <v>36</v>
+      </c>
+      <c r="D722" t="s">
+        <v>27</v>
+      </c>
+      <c r="E722" t="s">
+        <v>12</v>
+      </c>
+      <c r="F722" t="s">
+        <v>33</v>
+      </c>
+      <c r="G722" t="s">
+        <v>28</v>
+      </c>
+      <c r="H722" t="s">
+        <v>38</v>
+      </c>
+      <c r="I722" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="723" spans="2:9">
+      <c r="B723" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="C723" t="s">
+        <v>10</v>
+      </c>
+      <c r="D723" t="s">
+        <v>27</v>
+      </c>
+      <c r="E723" t="s">
+        <v>19</v>
+      </c>
+      <c r="F723" t="s">
+        <v>13</v>
+      </c>
+      <c r="G723" t="s">
+        <v>37</v>
+      </c>
+      <c r="H723" t="s">
+        <v>25</v>
+      </c>
+      <c r="I723" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="724" spans="2:9">
+      <c r="B724" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="C724" t="s">
+        <v>10</v>
+      </c>
+      <c r="D724" t="s">
+        <v>11</v>
+      </c>
+      <c r="E724" t="s">
+        <v>19</v>
+      </c>
+      <c r="F724" t="s">
+        <v>21</v>
+      </c>
+      <c r="G724" t="s">
+        <v>47</v>
+      </c>
+      <c r="H724" t="s">
+        <v>38</v>
+      </c>
+      <c r="I724" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="725" spans="2:9">
+      <c r="B725" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="C725" t="s">
+        <v>24</v>
+      </c>
+      <c r="D725" t="s">
+        <v>27</v>
+      </c>
+      <c r="E725" t="s">
+        <v>12</v>
+      </c>
+      <c r="F725" t="s">
+        <v>13</v>
+      </c>
+      <c r="G725" t="s">
+        <v>28</v>
+      </c>
+      <c r="H725" t="s">
+        <v>38</v>
+      </c>
+      <c r="I725" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="726" spans="2:9">
+      <c r="B726" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="C726" t="s">
+        <v>36</v>
+      </c>
+      <c r="D726" t="s">
+        <v>27</v>
+      </c>
+      <c r="E726" t="s">
+        <v>19</v>
+      </c>
+      <c r="F726" t="s">
+        <v>52</v>
+      </c>
+      <c r="G726" t="s">
+        <v>37</v>
+      </c>
+      <c r="H726" t="s">
+        <v>25</v>
+      </c>
+      <c r="I726" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="727" spans="2:9">
+      <c r="B727" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="C727" t="s">
+        <v>10</v>
+      </c>
+      <c r="D727" t="s">
+        <v>11</v>
+      </c>
+      <c r="E727" t="s">
+        <v>19</v>
+      </c>
+      <c r="F727" t="s">
+        <v>21</v>
+      </c>
+      <c r="G727" t="s">
+        <v>37</v>
+      </c>
+      <c r="H727" t="s">
+        <v>57</v>
+      </c>
+      <c r="I727" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="728" spans="2:9">
+      <c r="B728" s="10" t="s">
+        <v>671</v>
+      </c>
+      <c r="C728" t="s">
+        <v>10</v>
+      </c>
+      <c r="D728" t="s">
+        <v>27</v>
+      </c>
+      <c r="E728" t="s">
+        <v>19</v>
+      </c>
+      <c r="F728" t="s">
+        <v>21</v>
+      </c>
+      <c r="G728" t="s">
+        <v>28</v>
+      </c>
+      <c r="H728" t="s">
+        <v>38</v>
+      </c>
+      <c r="I728" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I568"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F579 F582 F1:F578 F580:F581 F583:F1402">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1401">
       <formula1>$O$59:$O$63</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H345 H484">
       <formula1>$O$34:$O$41</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H579 H582 H2:H344 H346:H483 H485:H578 H580:H581 H583:H1486">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H344 H346:H483 H485:H1485">
       <formula1>$O$34:$O$42</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C579 C582 C2:C578 C580:C581 C583:C1113">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1112">
       <formula1>$O$8:$O$14</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E579 E582 E2:E578 E580:E581 E583:E1429">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1428">
       <formula1>$O$17:$O$21</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D579 D582 D2:D578 D580:D581 D583:D1402">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1401">
       <formula1>$O$50:$O$52</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I579 I582 I2:I578 I580:I581 I583:I1402">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1401">
       <formula1>$O$45:$O$47</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G579 G582 G123:G578 G580:G581 G583:G1402">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G123:G1401">
       <formula1>$O$23:$O$30</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1114:C1166">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1113:C1165">
       <formula1>$L$9:$L$15</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G122">

--- a/毕业论文/内容分析 (自动保存的) (自动保存的).xlsx
+++ b/毕业论文/内容分析 (自动保存的) (自动保存的).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26220" windowHeight="14960"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25660" windowHeight="14960"/>
   </bookViews>
   <sheets>
     <sheet name="内容分析" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5856" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6056" uniqueCount="696">
   <si>
     <t>编码</t>
   </si>
@@ -2075,6 +2075,99 @@
   </si>
   <si>
     <t>2006.07.07</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006.07.08</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006.07.31</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006.08.23</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006.08.29</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006.08.30</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006.09.05</t>
+  </si>
+  <si>
+    <t>2006.10.08</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006.10.11</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006.10.15</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006.10.16</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006.10.19</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006.11.09</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006.11.24</t>
+  </si>
+  <si>
+    <t>2006.12.01</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2006.12.14 </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006.12.22</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006.12.24</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006.12.25</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006.12.28</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000-2500字</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007.01.08</t>
+  </si>
+  <si>
+    <t>2007.01.11</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007.01.12</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>人口问题</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2082,7 +2175,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2135,6 +2228,14 @@
       <color theme="1"/>
       <name val="Courier"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2159,7 +2260,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -2176,6 +2277,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -2473,10 +2575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O728"/>
+  <dimension ref="A1:O753"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A724" workbookViewId="0">
-      <selection activeCell="B739" sqref="B739"/>
+    <sheetView tabSelected="1" topLeftCell="A632" workbookViewId="0">
+      <selection activeCell="D753" sqref="D753"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -23018,6 +23120,656 @@
       </c>
       <c r="I728" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="729" spans="2:9">
+      <c r="B729" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="C729" t="s">
+        <v>31</v>
+      </c>
+      <c r="D729" t="s">
+        <v>27</v>
+      </c>
+      <c r="E729" t="s">
+        <v>12</v>
+      </c>
+      <c r="F729" t="s">
+        <v>13</v>
+      </c>
+      <c r="G729" t="s">
+        <v>37</v>
+      </c>
+      <c r="H729" t="s">
+        <v>25</v>
+      </c>
+      <c r="I729" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="730" spans="2:9">
+      <c r="B730" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="C730" t="s">
+        <v>10</v>
+      </c>
+      <c r="D730" t="s">
+        <v>27</v>
+      </c>
+      <c r="E730" t="s">
+        <v>19</v>
+      </c>
+      <c r="F730" t="s">
+        <v>21</v>
+      </c>
+      <c r="G730" t="s">
+        <v>37</v>
+      </c>
+      <c r="H730" t="s">
+        <v>25</v>
+      </c>
+      <c r="I730" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="731" spans="2:9">
+      <c r="B731" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="C731" t="s">
+        <v>36</v>
+      </c>
+      <c r="D731" t="s">
+        <v>27</v>
+      </c>
+      <c r="E731" t="s">
+        <v>19</v>
+      </c>
+      <c r="F731" t="s">
+        <v>21</v>
+      </c>
+      <c r="G731" t="s">
+        <v>37</v>
+      </c>
+      <c r="H731" t="s">
+        <v>25</v>
+      </c>
+      <c r="I731" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="732" spans="2:9">
+      <c r="B732" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="C732" t="s">
+        <v>36</v>
+      </c>
+      <c r="D732" t="s">
+        <v>27</v>
+      </c>
+      <c r="E732" t="s">
+        <v>19</v>
+      </c>
+      <c r="F732" t="s">
+        <v>52</v>
+      </c>
+      <c r="G732" t="s">
+        <v>37</v>
+      </c>
+      <c r="H732" t="s">
+        <v>25</v>
+      </c>
+      <c r="I732" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="733" spans="2:9">
+      <c r="B733" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="C733" t="s">
+        <v>10</v>
+      </c>
+      <c r="D733" t="s">
+        <v>27</v>
+      </c>
+      <c r="E733" t="s">
+        <v>19</v>
+      </c>
+      <c r="F733" t="s">
+        <v>21</v>
+      </c>
+      <c r="G733" t="s">
+        <v>28</v>
+      </c>
+      <c r="H733" t="s">
+        <v>26</v>
+      </c>
+      <c r="I733" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="734" spans="2:9">
+      <c r="B734" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="C734" t="s">
+        <v>10</v>
+      </c>
+      <c r="D734" t="s">
+        <v>27</v>
+      </c>
+      <c r="E734" t="s">
+        <v>19</v>
+      </c>
+      <c r="F734" t="s">
+        <v>21</v>
+      </c>
+      <c r="G734" t="s">
+        <v>65</v>
+      </c>
+      <c r="H734" t="s">
+        <v>53</v>
+      </c>
+      <c r="I734" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="735" spans="2:9">
+      <c r="B735" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="C735" t="s">
+        <v>36</v>
+      </c>
+      <c r="D735" t="s">
+        <v>27</v>
+      </c>
+      <c r="E735" t="s">
+        <v>19</v>
+      </c>
+      <c r="F735" t="s">
+        <v>33</v>
+      </c>
+      <c r="G735" t="s">
+        <v>65</v>
+      </c>
+      <c r="H735" t="s">
+        <v>53</v>
+      </c>
+      <c r="I735" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="736" spans="2:9">
+      <c r="B736" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="C736" t="s">
+        <v>10</v>
+      </c>
+      <c r="D736" t="s">
+        <v>18</v>
+      </c>
+      <c r="E736" t="s">
+        <v>19</v>
+      </c>
+      <c r="F736" t="s">
+        <v>13</v>
+      </c>
+      <c r="G736" t="s">
+        <v>28</v>
+      </c>
+      <c r="H736" t="s">
+        <v>53</v>
+      </c>
+      <c r="I736" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="737" spans="2:9">
+      <c r="B737" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="C737" t="s">
+        <v>10</v>
+      </c>
+      <c r="D737" t="s">
+        <v>27</v>
+      </c>
+      <c r="E737" t="s">
+        <v>12</v>
+      </c>
+      <c r="F737" t="s">
+        <v>13</v>
+      </c>
+      <c r="G737" t="s">
+        <v>70</v>
+      </c>
+      <c r="H737" t="s">
+        <v>57</v>
+      </c>
+      <c r="I737" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="738" spans="2:9">
+      <c r="B738" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="C738" t="s">
+        <v>10</v>
+      </c>
+      <c r="D738" t="s">
+        <v>27</v>
+      </c>
+      <c r="E738" t="s">
+        <v>19</v>
+      </c>
+      <c r="F738" t="s">
+        <v>21</v>
+      </c>
+      <c r="G738" t="s">
+        <v>28</v>
+      </c>
+      <c r="H738" t="s">
+        <v>38</v>
+      </c>
+      <c r="I738" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="739" spans="2:9">
+      <c r="B739" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="C739" t="s">
+        <v>10</v>
+      </c>
+      <c r="D739" t="s">
+        <v>27</v>
+      </c>
+      <c r="E739" t="s">
+        <v>19</v>
+      </c>
+      <c r="F739" t="s">
+        <v>21</v>
+      </c>
+      <c r="G739" t="s">
+        <v>65</v>
+      </c>
+      <c r="H739" t="s">
+        <v>57</v>
+      </c>
+      <c r="I739" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="740" spans="2:9">
+      <c r="B740" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="C740" t="s">
+        <v>10</v>
+      </c>
+      <c r="D740" t="s">
+        <v>11</v>
+      </c>
+      <c r="E740" t="s">
+        <v>19</v>
+      </c>
+      <c r="F740" t="s">
+        <v>21</v>
+      </c>
+      <c r="G740" t="s">
+        <v>47</v>
+      </c>
+      <c r="H740" t="s">
+        <v>38</v>
+      </c>
+      <c r="I740" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="741" spans="2:9">
+      <c r="B741" s="11" t="s">
+        <v>684</v>
+      </c>
+      <c r="C741" t="s">
+        <v>10</v>
+      </c>
+      <c r="D741" t="s">
+        <v>27</v>
+      </c>
+      <c r="E741" t="s">
+        <v>19</v>
+      </c>
+      <c r="F741" t="s">
+        <v>21</v>
+      </c>
+      <c r="G741" t="s">
+        <v>22</v>
+      </c>
+      <c r="H741" t="s">
+        <v>53</v>
+      </c>
+      <c r="I741" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="742" spans="2:9">
+      <c r="B742" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="C742" t="s">
+        <v>10</v>
+      </c>
+      <c r="D742" t="s">
+        <v>18</v>
+      </c>
+      <c r="E742" t="s">
+        <v>12</v>
+      </c>
+      <c r="F742" t="s">
+        <v>21</v>
+      </c>
+      <c r="G742" t="s">
+        <v>47</v>
+      </c>
+      <c r="H742" t="s">
+        <v>38</v>
+      </c>
+      <c r="I742" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="743" spans="2:9">
+      <c r="B743" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="C743" t="s">
+        <v>10</v>
+      </c>
+      <c r="D743" t="s">
+        <v>27</v>
+      </c>
+      <c r="E743" t="s">
+        <v>32</v>
+      </c>
+      <c r="F743" t="s">
+        <v>13</v>
+      </c>
+      <c r="G743" t="s">
+        <v>28</v>
+      </c>
+      <c r="H743" t="s">
+        <v>53</v>
+      </c>
+      <c r="I743" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="744" spans="2:9">
+      <c r="B744" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="C744" t="s">
+        <v>25</v>
+      </c>
+      <c r="D744" t="s">
+        <v>27</v>
+      </c>
+      <c r="E744" t="s">
+        <v>19</v>
+      </c>
+      <c r="F744" t="s">
+        <v>21</v>
+      </c>
+      <c r="G744" t="s">
+        <v>14</v>
+      </c>
+      <c r="H744" t="s">
+        <v>25</v>
+      </c>
+      <c r="I744" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="745" spans="2:9">
+      <c r="B745" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="C745" t="s">
+        <v>36</v>
+      </c>
+      <c r="D745" t="s">
+        <v>27</v>
+      </c>
+      <c r="E745" t="s">
+        <v>32</v>
+      </c>
+      <c r="F745" t="s">
+        <v>33</v>
+      </c>
+      <c r="G745" t="s">
+        <v>37</v>
+      </c>
+      <c r="H745" t="s">
+        <v>38</v>
+      </c>
+      <c r="I745" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="746" spans="2:9">
+      <c r="B746" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="C746" t="s">
+        <v>10</v>
+      </c>
+      <c r="D746" t="s">
+        <v>27</v>
+      </c>
+      <c r="E746" t="s">
+        <v>12</v>
+      </c>
+      <c r="F746" t="s">
+        <v>13</v>
+      </c>
+      <c r="G746" t="s">
+        <v>37</v>
+      </c>
+      <c r="H746" t="s">
+        <v>25</v>
+      </c>
+      <c r="I746" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="747" spans="2:9">
+      <c r="B747" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="C747" t="s">
+        <v>10</v>
+      </c>
+      <c r="D747" t="s">
+        <v>27</v>
+      </c>
+      <c r="E747" t="s">
+        <v>19</v>
+      </c>
+      <c r="F747" t="s">
+        <v>21</v>
+      </c>
+      <c r="G747" t="s">
+        <v>28</v>
+      </c>
+      <c r="H747" t="s">
+        <v>53</v>
+      </c>
+      <c r="I747" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="748" spans="2:9">
+      <c r="B748" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="C748" t="s">
+        <v>10</v>
+      </c>
+      <c r="D748" t="s">
+        <v>18</v>
+      </c>
+      <c r="E748" t="s">
+        <v>12</v>
+      </c>
+      <c r="F748" t="s">
+        <v>21</v>
+      </c>
+      <c r="G748" t="s">
+        <v>47</v>
+      </c>
+      <c r="H748" t="s">
+        <v>53</v>
+      </c>
+      <c r="I748" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="749" spans="2:9">
+      <c r="B749" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="C749" t="s">
+        <v>24</v>
+      </c>
+      <c r="D749" t="s">
+        <v>11</v>
+      </c>
+      <c r="E749" t="s">
+        <v>691</v>
+      </c>
+      <c r="F749" t="s">
+        <v>13</v>
+      </c>
+      <c r="G749" t="s">
+        <v>28</v>
+      </c>
+      <c r="H749" t="s">
+        <v>38</v>
+      </c>
+      <c r="I749" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="750" spans="2:9">
+      <c r="B750" s="12" t="s">
+        <v>692</v>
+      </c>
+      <c r="C750" t="s">
+        <v>10</v>
+      </c>
+      <c r="D750" t="s">
+        <v>11</v>
+      </c>
+      <c r="E750" t="s">
+        <v>19</v>
+      </c>
+      <c r="F750" t="s">
+        <v>13</v>
+      </c>
+      <c r="G750" t="s">
+        <v>70</v>
+      </c>
+      <c r="H750" t="s">
+        <v>25</v>
+      </c>
+      <c r="I750" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="751" spans="2:9">
+      <c r="B751" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="C751" t="s">
+        <v>10</v>
+      </c>
+      <c r="D751" t="s">
+        <v>27</v>
+      </c>
+      <c r="E751" t="s">
+        <v>19</v>
+      </c>
+      <c r="F751" t="s">
+        <v>21</v>
+      </c>
+      <c r="G751" t="s">
+        <v>37</v>
+      </c>
+      <c r="H751" t="s">
+        <v>25</v>
+      </c>
+      <c r="I751" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="752" spans="2:9">
+      <c r="B752" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="C752" t="s">
+        <v>10</v>
+      </c>
+      <c r="D752" t="s">
+        <v>18</v>
+      </c>
+      <c r="E752" t="s">
+        <v>19</v>
+      </c>
+      <c r="F752" t="s">
+        <v>21</v>
+      </c>
+      <c r="G752" t="s">
+        <v>47</v>
+      </c>
+      <c r="H752" t="s">
+        <v>57</v>
+      </c>
+      <c r="I752" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="753" spans="2:9">
+      <c r="B753" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="C753" t="s">
+        <v>44</v>
+      </c>
+      <c r="D753" t="s">
+        <v>27</v>
+      </c>
+      <c r="E753" t="s">
+        <v>12</v>
+      </c>
+      <c r="F753" t="s">
+        <v>21</v>
+      </c>
+      <c r="G753" t="s">
+        <v>695</v>
+      </c>
+      <c r="H753" t="s">
+        <v>38</v>
+      </c>
+      <c r="I753" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/毕业论文/内容分析 (自动保存的) (自动保存的).xlsx
+++ b/毕业论文/内容分析 (自动保存的) (自动保存的).xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25660" windowHeight="14960"/>
+    <workbookView windowWidth="21345" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="内容分析" sheetId="1" r:id="rId1"/>
@@ -14,17 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">内容分析!$A$1:$I$568</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6056" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890">
   <si>
     <t>编码</t>
   </si>
@@ -1920,129 +1915,87 @@
   </si>
   <si>
     <t>2005.01.05</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2005.01.06</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2005.01.08</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2005.01.08</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2005.02.08</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2005.03.08</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2005.03.27</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>各地计生工作情况</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2005.04.08</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2005.05.17</t>
   </si>
   <si>
     <t>2005.05.28</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2005.06.04</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2005.06.10</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2005.06.20</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2005.07.03</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2005.07.04</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2005.07.10</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2005.08.07</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2005.08.25</t>
   </si>
   <si>
-    <t>2005.08.25</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>2005.08.31</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2005.09.02</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2005.09.08</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2005.09.18</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2005.10.13</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2005.10.21</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2005.11.15</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>专业人士或机构</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2005.11.20</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2006.01.07</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2006.01.09</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2006.01.12</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2006.01.20</t>
@@ -2052,139 +2005,705 @@
   </si>
   <si>
     <t>2006.02.27</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2006.03.24</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2006.04.15</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2006.04.25</t>
   </si>
   <si>
     <t>2006.05.24</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2006.06.23</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2006.07.07</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2006.07.08</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2006.07.31</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2006.08.23</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2006.08.29</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2006.08.30</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2006.09.05</t>
   </si>
   <si>
     <t>2006.10.08</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2006.10.11</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2006.10.15</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2006.10.16</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2006.10.19</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2006.11.09</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2006.11.24</t>
   </si>
   <si>
     <t>2006.12.01</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">2006.12.14 </t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2006.12.22</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2006.12.24</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2006.12.25</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2006.12.28</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000-2500字</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2007.01.08</t>
   </si>
   <si>
     <t>2007.01.11</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2007.01.12</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>人口问题</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007.01.18</t>
+  </si>
+  <si>
+    <t>2007.01.23</t>
+  </si>
+  <si>
+    <t>2007.01.24</t>
+  </si>
+  <si>
+    <t>2007.01.25</t>
+  </si>
+  <si>
+    <t>2007.01.26</t>
+  </si>
+  <si>
+    <t>2007.01.27</t>
+  </si>
+  <si>
+    <t>2007.01.29</t>
+  </si>
+  <si>
+    <t>2007.01.30</t>
+  </si>
+  <si>
+    <t>2007.02.03</t>
+  </si>
+  <si>
+    <t>2007.02.07</t>
+  </si>
+  <si>
+    <t>2007.02.08</t>
+  </si>
+  <si>
+    <t>2007.02.20</t>
+  </si>
+  <si>
+    <t>2007.03.02</t>
+  </si>
+  <si>
+    <t>2007.03.11</t>
+  </si>
+  <si>
+    <t>2007.04.04</t>
+  </si>
+  <si>
+    <t>2007.04.07</t>
+  </si>
+  <si>
+    <t>2007.04.09</t>
+  </si>
+  <si>
+    <t>2007.05.08</t>
+  </si>
+  <si>
+    <t>2007.06.03</t>
+  </si>
+  <si>
+    <t>2007.07.06</t>
+  </si>
+  <si>
+    <t>2007.07.09</t>
+  </si>
+  <si>
+    <t>2007.07.11</t>
+  </si>
+  <si>
+    <t>2007.07.12</t>
+  </si>
+  <si>
+    <t>2007.07.16</t>
+  </si>
+  <si>
+    <t>2007.08.04</t>
+  </si>
+  <si>
+    <t>2007.08.09</t>
+  </si>
+  <si>
+    <t>2007.08.16</t>
+  </si>
+  <si>
+    <t>2007.08.21</t>
+  </si>
+  <si>
+    <t>2007.08.22</t>
+  </si>
+  <si>
+    <t>2007.08.25</t>
+  </si>
+  <si>
+    <t>2007.10.08</t>
+  </si>
+  <si>
+    <t>2007.10.17</t>
+  </si>
+  <si>
+    <t>2007.11.01</t>
+  </si>
+  <si>
+    <t>2007.11.13</t>
+  </si>
+  <si>
+    <t>2007.11.14</t>
+  </si>
+  <si>
+    <t>2007.11.22</t>
+  </si>
+  <si>
+    <t>2007.12.05</t>
+  </si>
+  <si>
+    <t>2007.12.09</t>
+  </si>
+  <si>
+    <t>2007.12.17</t>
+  </si>
+  <si>
+    <t>2007.12.18</t>
+  </si>
+  <si>
+    <t>2007.12.29</t>
+  </si>
+  <si>
+    <t>2008.02.03</t>
+  </si>
+  <si>
+    <t>2008.03.15</t>
+  </si>
+  <si>
+    <t>2008.04.09</t>
+  </si>
+  <si>
+    <t>2008.05.10</t>
+  </si>
+  <si>
+    <t>2008.06.03</t>
+  </si>
+  <si>
+    <t>2008.06.18</t>
+  </si>
+  <si>
+    <t>2008.07.09</t>
+  </si>
+  <si>
+    <t>2008.07.11</t>
+  </si>
+  <si>
+    <t>2008.07.12</t>
+  </si>
+  <si>
+    <t>2008.08.29</t>
+  </si>
+  <si>
+    <t>2008.09.12</t>
+  </si>
+  <si>
+    <t>2008.09.19</t>
+  </si>
+  <si>
+    <t>2008.10.10</t>
+  </si>
+  <si>
+    <t>2008.10.15</t>
+  </si>
+  <si>
+    <t>2008.10.17</t>
+  </si>
+  <si>
+    <t>2008.10.20</t>
+  </si>
+  <si>
+    <t>2008.10.23</t>
+  </si>
+  <si>
+    <t>2008.10.24</t>
+  </si>
+  <si>
+    <t>2008.11.04</t>
+  </si>
+  <si>
+    <t>2008.11.22</t>
+  </si>
+  <si>
+    <t>2008.12.16</t>
+  </si>
+  <si>
+    <t>2008.12.27</t>
+  </si>
+  <si>
+    <t>2008.12.29</t>
+  </si>
+  <si>
+    <t>2009.01.01</t>
+  </si>
+  <si>
+    <t>2009.01.12</t>
+  </si>
+  <si>
+    <t>2009.01.16</t>
+  </si>
+  <si>
+    <t>2009.01.17</t>
+  </si>
+  <si>
+    <t>2009.02.02</t>
+  </si>
+  <si>
+    <t>2009.02.10</t>
+  </si>
+  <si>
+    <t>2009.03.19</t>
+  </si>
+  <si>
+    <t>2009.04.24</t>
+  </si>
+  <si>
+    <t>2009.04.26</t>
+  </si>
+  <si>
+    <t>2009.04.30</t>
+  </si>
+  <si>
+    <t>2009.05.09</t>
+  </si>
+  <si>
+    <t>2009.05.21</t>
+  </si>
+  <si>
+    <t>2009.06.16</t>
+  </si>
+  <si>
+    <t>2009.07.12</t>
+  </si>
+  <si>
+    <t>2009.07.19</t>
+  </si>
+  <si>
+    <t>2009.07.24</t>
+  </si>
+  <si>
+    <t>2009.07.30</t>
+  </si>
+  <si>
+    <t>2009.08.14</t>
+  </si>
+  <si>
+    <t>2009.08.23</t>
+  </si>
+  <si>
+    <t>2009.09.03</t>
+  </si>
+  <si>
+    <t>2009.09.09</t>
+  </si>
+  <si>
+    <t>2009.09.13</t>
+  </si>
+  <si>
+    <t>2009.09.18</t>
+  </si>
+  <si>
+    <t>2009.09.19</t>
+  </si>
+  <si>
+    <t>2009.10.19</t>
+  </si>
+  <si>
+    <t>2009.12.04</t>
+  </si>
+  <si>
+    <t>2009.12.13</t>
+  </si>
+  <si>
+    <t>2010.01.05</t>
+  </si>
+  <si>
+    <t>2010.01.12</t>
+  </si>
+  <si>
+    <t>2010.01.14</t>
+  </si>
+  <si>
+    <t>2010.01.20</t>
+  </si>
+  <si>
+    <t>2010.03.06</t>
+  </si>
+  <si>
+    <t>2010.03.12</t>
+  </si>
+  <si>
+    <t>2010.03.17</t>
+  </si>
+  <si>
+    <t>2010.03.29</t>
+  </si>
+  <si>
+    <t>2010.04.01</t>
+  </si>
+  <si>
+    <t>2010.04.02</t>
+  </si>
+  <si>
+    <t>2010.05.23</t>
+  </si>
+  <si>
+    <t>2010.05.28</t>
+  </si>
+  <si>
+    <t>2010.05.30</t>
+  </si>
+  <si>
+    <t>2010.06.06</t>
+  </si>
+  <si>
+    <t>2010.08.10</t>
+  </si>
+  <si>
+    <t>2010.08.15</t>
+  </si>
+  <si>
+    <t>2010.08.23</t>
+  </si>
+  <si>
+    <t>2010.09.12</t>
+  </si>
+  <si>
+    <t>2010.09.22</t>
+  </si>
+  <si>
+    <t>2010.09.25</t>
+  </si>
+  <si>
+    <t>2010.09.27</t>
+  </si>
+  <si>
+    <t>2010.10.16</t>
+  </si>
+  <si>
+    <t>2010.10.18</t>
+  </si>
+  <si>
+    <t>2010.10.21</t>
+  </si>
+  <si>
+    <t>2010.10.27</t>
+  </si>
+  <si>
+    <t>2010.12.16</t>
+  </si>
+  <si>
+    <t>2010.12.17</t>
+  </si>
+  <si>
+    <t>2010.12.18</t>
+  </si>
+  <si>
+    <t>2010.12.20</t>
+  </si>
+  <si>
+    <t>2010.12.21</t>
+  </si>
+  <si>
+    <t>2011.01.07</t>
+  </si>
+  <si>
+    <t>2011.01.12</t>
+  </si>
+  <si>
+    <t>2011.01.18</t>
+  </si>
+  <si>
+    <t>2011.01.28</t>
+  </si>
+  <si>
+    <t>2011.02.17</t>
+  </si>
+  <si>
+    <t>2011.02.20</t>
+  </si>
+  <si>
+    <t>2011.03.02</t>
+  </si>
+  <si>
+    <t>2011.04.07</t>
+  </si>
+  <si>
+    <t>2011.04.28</t>
+  </si>
+  <si>
+    <t>2011.04.29</t>
+  </si>
+  <si>
+    <t>2011.05.14</t>
+  </si>
+  <si>
+    <t>2011.05.17</t>
+  </si>
+  <si>
+    <t>2011.05.18</t>
+  </si>
+  <si>
+    <t>2011.05.26</t>
+  </si>
+  <si>
+    <t>2011.06.01</t>
+  </si>
+  <si>
+    <t>2011.06.08</t>
+  </si>
+  <si>
+    <t>2011.06.12</t>
+  </si>
+  <si>
+    <t>2011.06.13</t>
+  </si>
+  <si>
+    <t>2011.06.23</t>
+  </si>
+  <si>
+    <t>2011.07.12</t>
+  </si>
+  <si>
+    <t>2011.07.13</t>
+  </si>
+  <si>
+    <t>2011.08.03</t>
+  </si>
+  <si>
+    <t>2011.08.17</t>
+  </si>
+  <si>
+    <t>2011.08.19</t>
+  </si>
+  <si>
+    <t>2011.08.27</t>
+  </si>
+  <si>
+    <t>2011.09.01</t>
+  </si>
+  <si>
+    <t>2011.09.07</t>
+  </si>
+  <si>
+    <t>2011.09.25</t>
+  </si>
+  <si>
+    <t>2011.10.15</t>
+  </si>
+  <si>
+    <t>2011.10.17</t>
+  </si>
+  <si>
+    <t>2011.10.24</t>
+  </si>
+  <si>
+    <t>2011.10.27</t>
+  </si>
+  <si>
+    <t>2011.11.02</t>
+  </si>
+  <si>
+    <t>2011.11.22</t>
+  </si>
+  <si>
+    <t>2011.11.30</t>
+  </si>
+  <si>
+    <t>2011.12.05</t>
+  </si>
+  <si>
+    <t>2011.12.08</t>
+  </si>
+  <si>
+    <t>2011.12.11</t>
+  </si>
+  <si>
+    <t>2011.12.22</t>
+  </si>
+  <si>
+    <t>2011.12.28</t>
+  </si>
+  <si>
+    <t>2012.02.19</t>
+  </si>
+  <si>
+    <t>2012.02.24</t>
+  </si>
+  <si>
+    <t>2012.03.05</t>
+  </si>
+  <si>
+    <t>2012.03.15</t>
+  </si>
+  <si>
+    <t>2012.03.29</t>
+  </si>
+  <si>
+    <t>2012.04.11</t>
+  </si>
+  <si>
+    <t>2012.04.16</t>
+  </si>
+  <si>
+    <t>2012.04.17</t>
+  </si>
+  <si>
+    <t>2012.04.18</t>
+  </si>
+  <si>
+    <t>2012.06.21</t>
+  </si>
+  <si>
+    <t>2012.06.22</t>
+  </si>
+  <si>
+    <t>2012.06.27</t>
+  </si>
+  <si>
+    <t>2013.01.14</t>
+  </si>
+  <si>
+    <t>2013.01.28</t>
+  </si>
+  <si>
+    <t>2013.03.18</t>
+  </si>
+  <si>
+    <t>2013.04.14</t>
+  </si>
+  <si>
+    <t>2013.04.19</t>
+  </si>
+  <si>
+    <t>2013.05.31</t>
+  </si>
+  <si>
+    <t>2013.06.04</t>
+  </si>
+  <si>
+    <t>2013.06.14</t>
+  </si>
+  <si>
+    <t>2013.06.19</t>
+  </si>
+  <si>
+    <t>2013.07.17</t>
+  </si>
+  <si>
+    <t>2013.07.26</t>
+  </si>
+  <si>
+    <t>2013.08.03</t>
+  </si>
+  <si>
+    <t>2013.08.07</t>
+  </si>
+  <si>
+    <t>2013.10.25</t>
+  </si>
+  <si>
+    <t>2013.11.12</t>
+  </si>
+  <si>
+    <t>2013.11.16</t>
+  </si>
+  <si>
+    <t>2013.11.17</t>
+  </si>
+  <si>
+    <t>2013.11.18</t>
+  </si>
+  <si>
+    <t>2013.11.19</t>
+  </si>
+  <si>
+    <t>2013.11.21</t>
+  </si>
+  <si>
+    <t>2013.11.29</t>
+  </si>
+  <si>
+    <t>2013.12.07</t>
+  </si>
+  <si>
+    <t>2013.12.11</t>
+  </si>
+  <si>
+    <t>2013.12.23</t>
+  </si>
+  <si>
+    <t>2013.12.24</t>
+  </si>
+  <si>
+    <t>2013.12.29</t>
+  </si>
+  <si>
+    <t>2013.12.31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2211,41 +2730,365 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Courier"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10.5"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Courier"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2253,38 +3096,337 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="11" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="14" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="14" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="14" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="14" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="普通 2" xfId="1"/>
+  <cellStyles count="51">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="普通" xfId="11"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="普通 2" xfId="14"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="22" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="23" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="24" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="25" builtinId="44"/>
+    <cellStyle name="输出" xfId="26" builtinId="21"/>
+    <cellStyle name="计算" xfId="27" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="28" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="29" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="30" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="31" builtinId="24"/>
+    <cellStyle name="汇总" xfId="32" builtinId="25"/>
+    <cellStyle name="好" xfId="33" builtinId="26"/>
+    <cellStyle name="适中" xfId="34" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="36" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="37" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="38" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="39" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="40" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="41" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="42" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="43" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="44" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="45" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="46" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="47" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="48" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="49" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="50" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -2574,27 +3716,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O753"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:O988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A632" workbookViewId="0">
-      <selection activeCell="D753" sqref="D753"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" customWidth="1"/>
-    <col min="7" max="7" width="29.1640625" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.1666666666667" customWidth="1"/>
+    <col min="7" max="7" width="29.1666666666667" customWidth="1"/>
+    <col min="8" max="8" width="22.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="13.6666666666667" customWidth="1"/>
     <col min="15" max="15" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2623,7 +3766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2652,7 +3795,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2681,7 +3824,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2710,7 +3853,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2739,7 +3882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2768,7 +3911,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3021,7 +4164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3050,7 +4193,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3239,7 +4382,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3524,7 +4667,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3553,7 +4696,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3582,7 +4725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3867,7 +5010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3896,7 +5039,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3925,7 +5068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4050,7 +5193,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4079,7 +5222,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4204,7 +5347,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4233,7 +5376,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4262,7 +5405,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4291,7 +5434,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4320,7 +5463,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4349,7 +5492,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:9">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4538,7 +5681,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:9">
       <c r="A64">
         <v>63</v>
       </c>
@@ -17298,7 +18441,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="504" spans="1:9">
+    <row r="504" spans="2:9">
       <c r="B504" s="3" t="s">
         <v>482</v>
       </c>
@@ -17324,7 +18467,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="505" spans="1:9">
+    <row r="505" spans="2:9">
       <c r="B505" s="3" t="s">
         <v>483</v>
       </c>
@@ -17350,7 +18493,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="506" spans="1:9">
+    <row r="506" spans="2:9">
       <c r="B506" s="3" t="s">
         <v>483</v>
       </c>
@@ -17376,7 +18519,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="507" spans="1:9">
+    <row r="507" spans="2:9">
       <c r="B507" s="3" t="s">
         <v>484</v>
       </c>
@@ -17402,7 +18545,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="508" spans="1:9">
+    <row r="508" spans="2:9">
       <c r="B508" s="3" t="s">
         <v>485</v>
       </c>
@@ -17428,7 +18571,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="509" spans="1:9">
+    <row r="509" spans="2:9">
       <c r="B509" s="3" t="s">
         <v>486</v>
       </c>
@@ -17454,7 +18597,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="510" spans="1:9">
+    <row r="510" spans="2:9">
       <c r="B510" s="3" t="s">
         <v>487</v>
       </c>
@@ -17480,7 +18623,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="511" spans="1:9">
+    <row r="511" spans="2:9">
       <c r="B511" s="3" t="s">
         <v>487</v>
       </c>
@@ -17506,7 +18649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="512" spans="1:9">
+    <row r="512" spans="2:9">
       <c r="B512" s="3" t="s">
         <v>487</v>
       </c>
@@ -19223,7 +20366,7 @@
       </c>
     </row>
     <row r="579" spans="2:9">
-      <c r="B579" s="4" t="s">
+      <c r="B579" s="3" t="s">
         <v>546</v>
       </c>
       <c r="C579" t="s">
@@ -19301,7 +20444,7 @@
       </c>
     </row>
     <row r="582" spans="2:9">
-      <c r="B582" s="4" t="s">
+      <c r="B582" s="3" t="s">
         <v>548</v>
       </c>
       <c r="C582" t="s">
@@ -19769,7 +20912,7 @@
       </c>
     </row>
     <row r="600" spans="2:9">
-      <c r="B600" s="5" t="s">
+      <c r="B600" s="4" t="s">
         <v>566</v>
       </c>
       <c r="C600" t="s">
@@ -19795,7 +20938,7 @@
       </c>
     </row>
     <row r="601" spans="2:9">
-      <c r="B601" s="6" t="s">
+      <c r="B601" s="5" t="s">
         <v>567</v>
       </c>
       <c r="C601" t="s">
@@ -19821,7 +20964,7 @@
       </c>
     </row>
     <row r="602" spans="2:9">
-      <c r="B602" s="5" t="s">
+      <c r="B602" s="4" t="s">
         <v>568</v>
       </c>
       <c r="C602" t="s">
@@ -19847,7 +20990,7 @@
       </c>
     </row>
     <row r="603" spans="2:9">
-      <c r="B603" s="5" t="s">
+      <c r="B603" s="4" t="s">
         <v>569</v>
       </c>
       <c r="C603" t="s">
@@ -19873,7 +21016,7 @@
       </c>
     </row>
     <row r="604" spans="2:9">
-      <c r="B604" s="5" t="s">
+      <c r="B604" s="4" t="s">
         <v>570</v>
       </c>
       <c r="C604" t="s">
@@ -19899,7 +21042,7 @@
       </c>
     </row>
     <row r="605" spans="2:9">
-      <c r="B605" s="5" t="s">
+      <c r="B605" s="4" t="s">
         <v>571</v>
       </c>
       <c r="C605" t="s">
@@ -19925,7 +21068,7 @@
       </c>
     </row>
     <row r="606" spans="2:9">
-      <c r="B606" s="5" t="s">
+      <c r="B606" s="4" t="s">
         <v>571</v>
       </c>
       <c r="C606" t="s">
@@ -19951,7 +21094,7 @@
       </c>
     </row>
     <row r="607" spans="2:9">
-      <c r="B607" s="5" t="s">
+      <c r="B607" s="4" t="s">
         <v>572</v>
       </c>
       <c r="C607" t="s">
@@ -19977,7 +21120,7 @@
       </c>
     </row>
     <row r="608" spans="2:9">
-      <c r="B608" s="5" t="s">
+      <c r="B608" s="4" t="s">
         <v>572</v>
       </c>
       <c r="C608" t="s">
@@ -20003,7 +21146,7 @@
       </c>
     </row>
     <row r="609" spans="2:9">
-      <c r="B609" s="5" t="s">
+      <c r="B609" s="4" t="s">
         <v>573</v>
       </c>
       <c r="C609" t="s">
@@ -20029,7 +21172,7 @@
       </c>
     </row>
     <row r="610" spans="2:9">
-      <c r="B610" s="5" t="s">
+      <c r="B610" s="4" t="s">
         <v>574</v>
       </c>
       <c r="C610" t="s">
@@ -20055,7 +21198,7 @@
       </c>
     </row>
     <row r="611" spans="2:9">
-      <c r="B611" s="5" t="s">
+      <c r="B611" s="4" t="s">
         <v>575</v>
       </c>
       <c r="C611" t="s">
@@ -20081,7 +21224,7 @@
       </c>
     </row>
     <row r="612" spans="2:9">
-      <c r="B612" s="5" t="s">
+      <c r="B612" s="4" t="s">
         <v>576</v>
       </c>
       <c r="C612" t="s">
@@ -20107,7 +21250,7 @@
       </c>
     </row>
     <row r="613" spans="2:9">
-      <c r="B613" s="5" t="s">
+      <c r="B613" s="4" t="s">
         <v>577</v>
       </c>
       <c r="C613" t="s">
@@ -20133,7 +21276,7 @@
       </c>
     </row>
     <row r="614" spans="2:9">
-      <c r="B614" s="5" t="s">
+      <c r="B614" s="4" t="s">
         <v>578</v>
       </c>
       <c r="C614" t="s">
@@ -20159,7 +21302,7 @@
       </c>
     </row>
     <row r="615" spans="2:9">
-      <c r="B615" s="5" t="s">
+      <c r="B615" s="4" t="s">
         <v>579</v>
       </c>
       <c r="C615" t="s">
@@ -20185,7 +21328,7 @@
       </c>
     </row>
     <row r="616" spans="2:9">
-      <c r="B616" s="5" t="s">
+      <c r="B616" s="4" t="s">
         <v>580</v>
       </c>
       <c r="C616" t="s">
@@ -20211,7 +21354,7 @@
       </c>
     </row>
     <row r="617" spans="2:9">
-      <c r="B617" s="5" t="s">
+      <c r="B617" s="4" t="s">
         <v>581</v>
       </c>
       <c r="C617" t="s">
@@ -20237,7 +21380,7 @@
       </c>
     </row>
     <row r="618" spans="2:9">
-      <c r="B618" s="5" t="s">
+      <c r="B618" s="4" t="s">
         <v>582</v>
       </c>
       <c r="C618" t="s">
@@ -20263,7 +21406,7 @@
       </c>
     </row>
     <row r="619" spans="2:9">
-      <c r="B619" s="5" t="s">
+      <c r="B619" s="4" t="s">
         <v>583</v>
       </c>
       <c r="C619" t="s">
@@ -20289,7 +21432,7 @@
       </c>
     </row>
     <row r="620" spans="2:9">
-      <c r="B620" s="5" t="s">
+      <c r="B620" s="4" t="s">
         <v>584</v>
       </c>
       <c r="C620" t="s">
@@ -20315,7 +21458,7 @@
       </c>
     </row>
     <row r="621" spans="2:9">
-      <c r="B621" s="5" t="s">
+      <c r="B621" s="4" t="s">
         <v>585</v>
       </c>
       <c r="C621" t="s">
@@ -20341,7 +21484,7 @@
       </c>
     </row>
     <row r="622" spans="2:9">
-      <c r="B622" s="5" t="s">
+      <c r="B622" s="4" t="s">
         <v>586</v>
       </c>
       <c r="C622" t="s">
@@ -20367,7 +21510,7 @@
       </c>
     </row>
     <row r="623" spans="2:9">
-      <c r="B623" s="5" t="s">
+      <c r="B623" s="4" t="s">
         <v>586</v>
       </c>
       <c r="C623" t="s">
@@ -20393,7 +21536,7 @@
       </c>
     </row>
     <row r="624" spans="2:9">
-      <c r="B624" s="5" t="s">
+      <c r="B624" s="4" t="s">
         <v>587</v>
       </c>
       <c r="C624" t="s">
@@ -20419,7 +21562,7 @@
       </c>
     </row>
     <row r="625" spans="2:9">
-      <c r="B625" s="5" t="s">
+      <c r="B625" s="4" t="s">
         <v>588</v>
       </c>
       <c r="C625" t="s">
@@ -20434,7 +21577,7 @@
       <c r="F625" t="s">
         <v>13</v>
       </c>
-      <c r="G625" s="5" t="s">
+      <c r="G625" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H625" t="s">
@@ -20445,7 +21588,7 @@
       </c>
     </row>
     <row r="626" spans="2:9">
-      <c r="B626" s="5" t="s">
+      <c r="B626" s="4" t="s">
         <v>589</v>
       </c>
       <c r="C626" t="s">
@@ -20457,7 +21600,7 @@
       <c r="E626" t="s">
         <v>12</v>
       </c>
-      <c r="F626" s="5" t="s">
+      <c r="F626" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G626" t="s">
@@ -20471,7 +21614,7 @@
       </c>
     </row>
     <row r="627" spans="2:9">
-      <c r="B627" s="5" t="s">
+      <c r="B627" s="4" t="s">
         <v>590</v>
       </c>
       <c r="C627" t="s">
@@ -20497,7 +21640,7 @@
       </c>
     </row>
     <row r="628" spans="2:9">
-      <c r="B628" s="5" t="s">
+      <c r="B628" s="4" t="s">
         <v>591</v>
       </c>
       <c r="C628" t="s">
@@ -20523,7 +21666,7 @@
       </c>
     </row>
     <row r="629" spans="2:9">
-      <c r="B629" s="5" t="s">
+      <c r="B629" s="4" t="s">
         <v>592</v>
       </c>
       <c r="C629" t="s">
@@ -20549,7 +21692,7 @@
       </c>
     </row>
     <row r="630" spans="2:9">
-      <c r="B630" s="5" t="s">
+      <c r="B630" s="4" t="s">
         <v>593</v>
       </c>
       <c r="C630" t="s">
@@ -20575,7 +21718,7 @@
       </c>
     </row>
     <row r="631" spans="2:9">
-      <c r="B631" s="5" t="s">
+      <c r="B631" s="4" t="s">
         <v>594</v>
       </c>
       <c r="C631" t="s">
@@ -20601,7 +21744,7 @@
       </c>
     </row>
     <row r="632" spans="2:9">
-      <c r="B632" s="5" t="s">
+      <c r="B632" s="4" t="s">
         <v>595</v>
       </c>
       <c r="C632" t="s">
@@ -20627,7 +21770,7 @@
       </c>
     </row>
     <row r="633" spans="2:9">
-      <c r="B633" s="5" t="s">
+      <c r="B633" s="4" t="s">
         <v>596</v>
       </c>
       <c r="C633" t="s">
@@ -20653,7 +21796,7 @@
       </c>
     </row>
     <row r="634" spans="2:9">
-      <c r="B634" s="5" t="s">
+      <c r="B634" s="4" t="s">
         <v>597</v>
       </c>
       <c r="C634" t="s">
@@ -20679,7 +21822,7 @@
       </c>
     </row>
     <row r="635" spans="2:9">
-      <c r="B635" s="5" t="s">
+      <c r="B635" s="4" t="s">
         <v>597</v>
       </c>
       <c r="C635" t="s">
@@ -20705,7 +21848,7 @@
       </c>
     </row>
     <row r="636" spans="2:9">
-      <c r="B636" s="5" t="s">
+      <c r="B636" s="4" t="s">
         <v>598</v>
       </c>
       <c r="C636" t="s">
@@ -20731,7 +21874,7 @@
       </c>
     </row>
     <row r="637" spans="2:9">
-      <c r="B637" s="5" t="s">
+      <c r="B637" s="4" t="s">
         <v>599</v>
       </c>
       <c r="C637" t="s">
@@ -20757,7 +21900,7 @@
       </c>
     </row>
     <row r="638" spans="2:9">
-      <c r="B638" s="5" t="s">
+      <c r="B638" s="4" t="s">
         <v>600</v>
       </c>
       <c r="C638" t="s">
@@ -20783,7 +21926,7 @@
       </c>
     </row>
     <row r="639" spans="2:9">
-      <c r="B639" s="5" t="s">
+      <c r="B639" s="4" t="s">
         <v>601</v>
       </c>
       <c r="C639" t="s">
@@ -20809,7 +21952,7 @@
       </c>
     </row>
     <row r="640" spans="2:9">
-      <c r="B640" s="5" t="s">
+      <c r="B640" s="4" t="s">
         <v>602</v>
       </c>
       <c r="C640" t="s">
@@ -20835,7 +21978,7 @@
       </c>
     </row>
     <row r="641" spans="2:9">
-      <c r="B641" s="5" t="s">
+      <c r="B641" s="4" t="s">
         <v>603</v>
       </c>
       <c r="C641" t="s">
@@ -20861,7 +22004,7 @@
       </c>
     </row>
     <row r="642" spans="2:9">
-      <c r="B642" s="5" t="s">
+      <c r="B642" s="4" t="s">
         <v>604</v>
       </c>
       <c r="C642" t="s">
@@ -20887,7 +22030,7 @@
       </c>
     </row>
     <row r="643" spans="2:9">
-      <c r="B643" s="5" t="s">
+      <c r="B643" s="4" t="s">
         <v>605</v>
       </c>
       <c r="C643" t="s">
@@ -20913,7 +22056,7 @@
       </c>
     </row>
     <row r="644" spans="2:9">
-      <c r="B644" s="5" t="s">
+      <c r="B644" s="4" t="s">
         <v>605</v>
       </c>
       <c r="C644" t="s">
@@ -20939,7 +22082,7 @@
       </c>
     </row>
     <row r="645" spans="2:9">
-      <c r="B645" s="5" t="s">
+      <c r="B645" s="4" t="s">
         <v>606</v>
       </c>
       <c r="C645" t="s">
@@ -20965,7 +22108,7 @@
       </c>
     </row>
     <row r="646" spans="2:9">
-      <c r="B646" s="5" t="s">
+      <c r="B646" s="4" t="s">
         <v>606</v>
       </c>
       <c r="C646" t="s">
@@ -20991,7 +22134,7 @@
       </c>
     </row>
     <row r="647" spans="2:9">
-      <c r="B647" s="5" t="s">
+      <c r="B647" s="4" t="s">
         <v>606</v>
       </c>
       <c r="C647" t="s">
@@ -21017,7 +22160,7 @@
       </c>
     </row>
     <row r="648" spans="2:9">
-      <c r="B648" s="5" t="s">
+      <c r="B648" s="4" t="s">
         <v>606</v>
       </c>
       <c r="C648" t="s">
@@ -21043,7 +22186,7 @@
       </c>
     </row>
     <row r="649" spans="2:9">
-      <c r="B649" s="5" t="s">
+      <c r="B649" s="4" t="s">
         <v>607</v>
       </c>
       <c r="C649" t="s">
@@ -21069,7 +22212,7 @@
       </c>
     </row>
     <row r="650" spans="2:9">
-      <c r="B650" s="5" t="s">
+      <c r="B650" s="4" t="s">
         <v>608</v>
       </c>
       <c r="C650" t="s">
@@ -21095,7 +22238,7 @@
       </c>
     </row>
     <row r="651" spans="2:9">
-      <c r="B651" s="5" t="s">
+      <c r="B651" s="4" t="s">
         <v>609</v>
       </c>
       <c r="C651" t="s">
@@ -21121,7 +22264,7 @@
       </c>
     </row>
     <row r="652" spans="2:9">
-      <c r="B652" s="5" t="s">
+      <c r="B652" s="4" t="s">
         <v>610</v>
       </c>
       <c r="C652" t="s">
@@ -21147,7 +22290,7 @@
       </c>
     </row>
     <row r="653" spans="2:9">
-      <c r="B653" s="5" t="s">
+      <c r="B653" s="4" t="s">
         <v>611</v>
       </c>
       <c r="C653" t="s">
@@ -21173,7 +22316,7 @@
       </c>
     </row>
     <row r="654" spans="2:9">
-      <c r="B654" s="5" t="s">
+      <c r="B654" s="4" t="s">
         <v>612</v>
       </c>
       <c r="C654" t="s">
@@ -21199,7 +22342,7 @@
       </c>
     </row>
     <row r="655" spans="2:9">
-      <c r="B655" s="5" t="s">
+      <c r="B655" s="4" t="s">
         <v>612</v>
       </c>
       <c r="C655" t="s">
@@ -21225,7 +22368,7 @@
       </c>
     </row>
     <row r="656" spans="2:9">
-      <c r="B656" s="5" t="s">
+      <c r="B656" s="4" t="s">
         <v>613</v>
       </c>
       <c r="C656" t="s">
@@ -21251,7 +22394,7 @@
       </c>
     </row>
     <row r="657" spans="2:9">
-      <c r="B657" s="5" t="s">
+      <c r="B657" s="4" t="s">
         <v>614</v>
       </c>
       <c r="C657" t="s">
@@ -21277,7 +22420,7 @@
       </c>
     </row>
     <row r="658" spans="2:9">
-      <c r="B658" s="7" t="s">
+      <c r="B658" s="6" t="s">
         <v>615</v>
       </c>
       <c r="C658" t="s">
@@ -21303,7 +22446,7 @@
       </c>
     </row>
     <row r="659" spans="2:9">
-      <c r="B659" s="5" t="s">
+      <c r="B659" s="4" t="s">
         <v>615</v>
       </c>
       <c r="C659" t="s">
@@ -21329,7 +22472,7 @@
       </c>
     </row>
     <row r="660" spans="2:9">
-      <c r="B660" s="5" t="s">
+      <c r="B660" s="4" t="s">
         <v>615</v>
       </c>
       <c r="C660" t="s">
@@ -21355,7 +22498,7 @@
       </c>
     </row>
     <row r="661" spans="2:9">
-      <c r="B661" s="5" t="s">
+      <c r="B661" s="4" t="s">
         <v>615</v>
       </c>
       <c r="C661" t="s">
@@ -21381,7 +22524,7 @@
       </c>
     </row>
     <row r="662" spans="2:9">
-      <c r="B662" s="5" t="s">
+      <c r="B662" s="4" t="s">
         <v>615</v>
       </c>
       <c r="C662" t="s">
@@ -21407,7 +22550,7 @@
       </c>
     </row>
     <row r="663" spans="2:9">
-      <c r="B663" s="5" t="s">
+      <c r="B663" s="4" t="s">
         <v>615</v>
       </c>
       <c r="C663" t="s">
@@ -21433,7 +22576,7 @@
       </c>
     </row>
     <row r="664" spans="2:9">
-      <c r="B664" s="5" t="s">
+      <c r="B664" s="4" t="s">
         <v>615</v>
       </c>
       <c r="C664" t="s">
@@ -21459,7 +22602,7 @@
       </c>
     </row>
     <row r="665" spans="2:9">
-      <c r="B665" s="5" t="s">
+      <c r="B665" s="4" t="s">
         <v>615</v>
       </c>
       <c r="C665" t="s">
@@ -21485,7 +22628,7 @@
       </c>
     </row>
     <row r="666" spans="2:9">
-      <c r="B666" s="8" t="s">
+      <c r="B666" s="4" t="s">
         <v>616</v>
       </c>
       <c r="C666" t="s">
@@ -21511,7 +22654,7 @@
       </c>
     </row>
     <row r="667" spans="2:9">
-      <c r="B667" s="8" t="s">
+      <c r="B667" s="4" t="s">
         <v>617</v>
       </c>
       <c r="C667" t="s">
@@ -21537,7 +22680,7 @@
       </c>
     </row>
     <row r="668" spans="2:9">
-      <c r="B668" s="8" t="s">
+      <c r="B668" s="4" t="s">
         <v>618</v>
       </c>
       <c r="C668" t="s">
@@ -21563,7 +22706,7 @@
       </c>
     </row>
     <row r="669" spans="2:9">
-      <c r="B669" s="8" t="s">
+      <c r="B669" s="4" t="s">
         <v>619</v>
       </c>
       <c r="C669" t="s">
@@ -21589,7 +22732,7 @@
       </c>
     </row>
     <row r="670" spans="2:9">
-      <c r="B670" s="8" t="s">
+      <c r="B670" s="4" t="s">
         <v>620</v>
       </c>
       <c r="C670" t="s">
@@ -21615,7 +22758,7 @@
       </c>
     </row>
     <row r="671" spans="2:9">
-      <c r="B671" s="8" t="s">
+      <c r="B671" s="4" t="s">
         <v>621</v>
       </c>
       <c r="C671" t="s">
@@ -21641,7 +22784,7 @@
       </c>
     </row>
     <row r="672" spans="2:9">
-      <c r="B672" s="8" t="s">
+      <c r="B672" s="4" t="s">
         <v>621</v>
       </c>
       <c r="C672" t="s">
@@ -21667,7 +22810,7 @@
       </c>
     </row>
     <row r="673" spans="2:9">
-      <c r="B673" s="8" t="s">
+      <c r="B673" s="4" t="s">
         <v>621</v>
       </c>
       <c r="C673" t="s">
@@ -21693,7 +22836,7 @@
       </c>
     </row>
     <row r="674" spans="2:9">
-      <c r="B674" s="8" t="s">
+      <c r="B674" s="4" t="s">
         <v>621</v>
       </c>
       <c r="C674" t="s">
@@ -21719,7 +22862,7 @@
       </c>
     </row>
     <row r="675" spans="2:9">
-      <c r="B675" s="8" t="s">
+      <c r="B675" s="4" t="s">
         <v>622</v>
       </c>
       <c r="C675" t="s">
@@ -21745,7 +22888,7 @@
       </c>
     </row>
     <row r="676" spans="2:9">
-      <c r="B676" s="8" t="s">
+      <c r="B676" s="4" t="s">
         <v>623</v>
       </c>
       <c r="C676" t="s">
@@ -21771,7 +22914,7 @@
       </c>
     </row>
     <row r="677" spans="2:9">
-      <c r="B677" s="8" t="s">
+      <c r="B677" s="4" t="s">
         <v>624</v>
       </c>
       <c r="C677" t="s">
@@ -21797,7 +22940,7 @@
       </c>
     </row>
     <row r="678" spans="2:9">
-      <c r="B678" s="8" t="s">
+      <c r="B678" s="4" t="s">
         <v>625</v>
       </c>
       <c r="C678" t="s">
@@ -21823,7 +22966,7 @@
       </c>
     </row>
     <row r="679" spans="2:9">
-      <c r="B679" s="8" t="s">
+      <c r="B679" s="4" t="s">
         <v>626</v>
       </c>
       <c r="C679" t="s">
@@ -21849,7 +22992,7 @@
       </c>
     </row>
     <row r="680" spans="2:9">
-      <c r="B680" s="8" t="s">
+      <c r="B680" s="4" t="s">
         <v>627</v>
       </c>
       <c r="C680" t="s">
@@ -21875,7 +23018,7 @@
       </c>
     </row>
     <row r="681" spans="2:9">
-      <c r="B681" s="8" t="s">
+      <c r="B681" s="4" t="s">
         <v>628</v>
       </c>
       <c r="C681" t="s">
@@ -21901,7 +23044,7 @@
       </c>
     </row>
     <row r="682" spans="2:9">
-      <c r="B682" s="8" t="s">
+      <c r="B682" s="4" t="s">
         <v>628</v>
       </c>
       <c r="C682" t="s">
@@ -21927,7 +23070,7 @@
       </c>
     </row>
     <row r="683" spans="2:9">
-      <c r="B683" s="8" t="s">
+      <c r="B683" s="4" t="s">
         <v>629</v>
       </c>
       <c r="C683" t="s">
@@ -21953,7 +23096,7 @@
       </c>
     </row>
     <row r="684" spans="2:9">
-      <c r="B684" s="8" t="s">
+      <c r="B684" s="4" t="s">
         <v>630</v>
       </c>
       <c r="C684" t="s">
@@ -21979,7 +23122,7 @@
       </c>
     </row>
     <row r="685" spans="2:9">
-      <c r="B685" s="9" t="s">
+      <c r="B685" s="7" t="s">
         <v>631</v>
       </c>
       <c r="C685" t="s">
@@ -22005,7 +23148,7 @@
       </c>
     </row>
     <row r="686" spans="2:9">
-      <c r="B686" s="9" t="s">
+      <c r="B686" s="7" t="s">
         <v>632</v>
       </c>
       <c r="C686" t="s">
@@ -22031,7 +23174,7 @@
       </c>
     </row>
     <row r="687" spans="2:9">
-      <c r="B687" s="9" t="s">
+      <c r="B687" s="7" t="s">
         <v>632</v>
       </c>
       <c r="C687" t="s">
@@ -22057,7 +23200,7 @@
       </c>
     </row>
     <row r="688" spans="2:9">
-      <c r="B688" s="9" t="s">
+      <c r="B688" s="7" t="s">
         <v>633</v>
       </c>
       <c r="C688" t="s">
@@ -22083,8 +23226,8 @@
       </c>
     </row>
     <row r="689" spans="2:9">
-      <c r="B689" s="9" t="s">
-        <v>634</v>
+      <c r="B689" s="7" t="s">
+        <v>633</v>
       </c>
       <c r="C689" t="s">
         <v>25</v>
@@ -22109,8 +23252,8 @@
       </c>
     </row>
     <row r="690" spans="2:9">
-      <c r="B690" s="10" t="s">
-        <v>635</v>
+      <c r="B690" s="7" t="s">
+        <v>634</v>
       </c>
       <c r="C690" t="s">
         <v>36</v>
@@ -22135,8 +23278,8 @@
       </c>
     </row>
     <row r="691" spans="2:9">
-      <c r="B691" s="10" t="s">
-        <v>636</v>
+      <c r="B691" s="7" t="s">
+        <v>635</v>
       </c>
       <c r="C691" t="s">
         <v>10</v>
@@ -22161,8 +23304,8 @@
       </c>
     </row>
     <row r="692" spans="2:9">
-      <c r="B692" s="10" t="s">
-        <v>637</v>
+      <c r="B692" s="7" t="s">
+        <v>636</v>
       </c>
       <c r="C692" t="s">
         <v>36</v>
@@ -22177,7 +23320,7 @@
         <v>13</v>
       </c>
       <c r="G692" t="s">
-        <v>638</v>
+        <v>22</v>
       </c>
       <c r="H692" t="s">
         <v>15</v>
@@ -22187,8 +23330,8 @@
       </c>
     </row>
     <row r="693" spans="2:9">
-      <c r="B693" s="10" t="s">
-        <v>639</v>
+      <c r="B693" s="7" t="s">
+        <v>637</v>
       </c>
       <c r="C693" t="s">
         <v>10</v>
@@ -22212,9 +23355,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="694" spans="2:9">
-      <c r="B694" s="11" t="s">
-        <v>640</v>
+    <row r="694" ht="15" spans="2:9">
+      <c r="B694" s="8" t="s">
+        <v>638</v>
       </c>
       <c r="C694" t="s">
         <v>10</v>
@@ -22239,8 +23382,8 @@
       </c>
     </row>
     <row r="695" spans="2:9">
-      <c r="B695" s="10" t="s">
-        <v>641</v>
+      <c r="B695" s="7" t="s">
+        <v>639</v>
       </c>
       <c r="C695" t="s">
         <v>10</v>
@@ -22265,8 +23408,8 @@
       </c>
     </row>
     <row r="696" spans="2:9">
-      <c r="B696" s="10" t="s">
-        <v>642</v>
+      <c r="B696" s="7" t="s">
+        <v>640</v>
       </c>
       <c r="C696" t="s">
         <v>10</v>
@@ -22291,8 +23434,8 @@
       </c>
     </row>
     <row r="697" spans="2:9">
-      <c r="B697" s="10" t="s">
-        <v>643</v>
+      <c r="B697" s="7" t="s">
+        <v>641</v>
       </c>
       <c r="C697" t="s">
         <v>10</v>
@@ -22317,8 +23460,8 @@
       </c>
     </row>
     <row r="698" spans="2:9">
-      <c r="B698" s="10" t="s">
-        <v>644</v>
+      <c r="B698" s="7" t="s">
+        <v>642</v>
       </c>
       <c r="C698" t="s">
         <v>10</v>
@@ -22343,8 +23486,8 @@
       </c>
     </row>
     <row r="699" spans="2:9">
-      <c r="B699" s="10" t="s">
-        <v>645</v>
+      <c r="B699" s="7" t="s">
+        <v>643</v>
       </c>
       <c r="C699" t="s">
         <v>24</v>
@@ -22369,8 +23512,8 @@
       </c>
     </row>
     <row r="700" spans="2:9">
-      <c r="B700" s="10" t="s">
-        <v>646</v>
+      <c r="B700" s="7" t="s">
+        <v>644</v>
       </c>
       <c r="C700" t="s">
         <v>10</v>
@@ -22395,8 +23538,8 @@
       </c>
     </row>
     <row r="701" spans="2:9">
-      <c r="B701" s="10" t="s">
-        <v>647</v>
+      <c r="B701" s="7" t="s">
+        <v>645</v>
       </c>
       <c r="C701" t="s">
         <v>10</v>
@@ -22421,8 +23564,8 @@
       </c>
     </row>
     <row r="702" spans="2:9">
-      <c r="B702" s="10" t="s">
-        <v>648</v>
+      <c r="B702" s="7" t="s">
+        <v>646</v>
       </c>
       <c r="C702" t="s">
         <v>10</v>
@@ -22446,9 +23589,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="703" spans="2:9">
-      <c r="B703" s="11" t="s">
-        <v>649</v>
+    <row r="703" ht="15" spans="2:9">
+      <c r="B703" s="8" t="s">
+        <v>647</v>
       </c>
       <c r="C703" t="s">
         <v>44</v>
@@ -22473,8 +23616,8 @@
       </c>
     </row>
     <row r="704" spans="2:9">
-      <c r="B704" s="10" t="s">
-        <v>650</v>
+      <c r="B704" s="7" t="s">
+        <v>647</v>
       </c>
       <c r="C704" t="s">
         <v>10</v>
@@ -22499,8 +23642,8 @@
       </c>
     </row>
     <row r="705" spans="2:9">
-      <c r="B705" s="10" t="s">
-        <v>651</v>
+      <c r="B705" s="7" t="s">
+        <v>648</v>
       </c>
       <c r="C705" t="s">
         <v>36</v>
@@ -22525,8 +23668,8 @@
       </c>
     </row>
     <row r="706" spans="2:9">
-      <c r="B706" s="10" t="s">
-        <v>652</v>
+      <c r="B706" s="7" t="s">
+        <v>649</v>
       </c>
       <c r="C706" t="s">
         <v>24</v>
@@ -22551,8 +23694,8 @@
       </c>
     </row>
     <row r="707" spans="2:9">
-      <c r="B707" s="10" t="s">
-        <v>653</v>
+      <c r="B707" s="7" t="s">
+        <v>650</v>
       </c>
       <c r="C707" t="s">
         <v>10</v>
@@ -22577,8 +23720,8 @@
       </c>
     </row>
     <row r="708" spans="2:9">
-      <c r="B708" s="10" t="s">
-        <v>654</v>
+      <c r="B708" s="7" t="s">
+        <v>651</v>
       </c>
       <c r="C708" t="s">
         <v>10</v>
@@ -22603,8 +23746,8 @@
       </c>
     </row>
     <row r="709" spans="2:9">
-      <c r="B709" s="10" t="s">
-        <v>655</v>
+      <c r="B709" s="7" t="s">
+        <v>652</v>
       </c>
       <c r="C709" t="s">
         <v>10</v>
@@ -22629,8 +23772,8 @@
       </c>
     </row>
     <row r="710" spans="2:9">
-      <c r="B710" s="10" t="s">
-        <v>656</v>
+      <c r="B710" s="7" t="s">
+        <v>653</v>
       </c>
       <c r="C710" t="s">
         <v>10</v>
@@ -22655,8 +23798,8 @@
       </c>
     </row>
     <row r="711" spans="2:9">
-      <c r="B711" s="10" t="s">
-        <v>656</v>
+      <c r="B711" s="7" t="s">
+        <v>653</v>
       </c>
       <c r="C711" t="s">
         <v>24</v>
@@ -22681,8 +23824,8 @@
       </c>
     </row>
     <row r="712" spans="2:9">
-      <c r="B712" s="10" t="s">
-        <v>656</v>
+      <c r="B712" s="7" t="s">
+        <v>653</v>
       </c>
       <c r="C712" t="s">
         <v>36</v>
@@ -22707,8 +23850,8 @@
       </c>
     </row>
     <row r="713" spans="2:9">
-      <c r="B713" s="10" t="s">
-        <v>657</v>
+      <c r="B713" s="7" t="s">
+        <v>654</v>
       </c>
       <c r="C713" t="s">
         <v>48</v>
@@ -22733,8 +23876,8 @@
       </c>
     </row>
     <row r="714" spans="2:9">
-      <c r="B714" s="10" t="s">
-        <v>657</v>
+      <c r="B714" s="7" t="s">
+        <v>654</v>
       </c>
       <c r="C714" t="s">
         <v>24</v>
@@ -22746,7 +23889,7 @@
         <v>19</v>
       </c>
       <c r="F714" t="s">
-        <v>658</v>
+        <v>33</v>
       </c>
       <c r="G714" t="s">
         <v>37</v>
@@ -22759,8 +23902,8 @@
       </c>
     </row>
     <row r="715" spans="2:9">
-      <c r="B715" s="10" t="s">
-        <v>657</v>
+      <c r="B715" s="7" t="s">
+        <v>654</v>
       </c>
       <c r="C715" t="s">
         <v>10</v>
@@ -22785,8 +23928,8 @@
       </c>
     </row>
     <row r="716" spans="2:9">
-      <c r="B716" s="10" t="s">
-        <v>659</v>
+      <c r="B716" s="7" t="s">
+        <v>655</v>
       </c>
       <c r="C716" t="s">
         <v>10</v>
@@ -22811,8 +23954,8 @@
       </c>
     </row>
     <row r="717" spans="2:9">
-      <c r="B717" s="10" t="s">
-        <v>660</v>
+      <c r="B717" s="7" t="s">
+        <v>656</v>
       </c>
       <c r="C717" t="s">
         <v>10</v>
@@ -22837,8 +23980,8 @@
       </c>
     </row>
     <row r="718" spans="2:9">
-      <c r="B718" s="10" t="s">
-        <v>661</v>
+      <c r="B718" s="7" t="s">
+        <v>657</v>
       </c>
       <c r="C718" t="s">
         <v>10</v>
@@ -22863,8 +24006,8 @@
       </c>
     </row>
     <row r="719" spans="2:9">
-      <c r="B719" s="10" t="s">
-        <v>662</v>
+      <c r="B719" s="7" t="s">
+        <v>658</v>
       </c>
       <c r="C719" t="s">
         <v>10</v>
@@ -22888,9 +24031,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="720" spans="2:9">
-      <c r="B720" s="11" t="s">
-        <v>663</v>
+    <row r="720" ht="15" spans="2:9">
+      <c r="B720" s="8" t="s">
+        <v>659</v>
       </c>
       <c r="C720" t="s">
         <v>36</v>
@@ -22914,9 +24057,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="721" spans="2:9">
-      <c r="B721" s="11" t="s">
-        <v>664</v>
+    <row r="721" ht="15" spans="2:9">
+      <c r="B721" s="8" t="s">
+        <v>660</v>
       </c>
       <c r="C721" t="s">
         <v>10</v>
@@ -22941,8 +24084,8 @@
       </c>
     </row>
     <row r="722" spans="2:9">
-      <c r="B722" s="10" t="s">
-        <v>665</v>
+      <c r="B722" s="7" t="s">
+        <v>661</v>
       </c>
       <c r="C722" t="s">
         <v>36</v>
@@ -22967,8 +24110,8 @@
       </c>
     </row>
     <row r="723" spans="2:9">
-      <c r="B723" s="10" t="s">
-        <v>666</v>
+      <c r="B723" s="7" t="s">
+        <v>662</v>
       </c>
       <c r="C723" t="s">
         <v>10</v>
@@ -22993,8 +24136,8 @@
       </c>
     </row>
     <row r="724" spans="2:9">
-      <c r="B724" s="10" t="s">
-        <v>667</v>
+      <c r="B724" s="7" t="s">
+        <v>663</v>
       </c>
       <c r="C724" t="s">
         <v>10</v>
@@ -23018,9 +24161,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="725" spans="2:9">
-      <c r="B725" s="11" t="s">
-        <v>668</v>
+    <row r="725" ht="15" spans="2:9">
+      <c r="B725" s="8" t="s">
+        <v>664</v>
       </c>
       <c r="C725" t="s">
         <v>24</v>
@@ -23045,8 +24188,8 @@
       </c>
     </row>
     <row r="726" spans="2:9">
-      <c r="B726" s="10" t="s">
-        <v>669</v>
+      <c r="B726" s="7" t="s">
+        <v>665</v>
       </c>
       <c r="C726" t="s">
         <v>36</v>
@@ -23071,8 +24214,8 @@
       </c>
     </row>
     <row r="727" spans="2:9">
-      <c r="B727" s="10" t="s">
-        <v>670</v>
+      <c r="B727" s="7" t="s">
+        <v>666</v>
       </c>
       <c r="C727" t="s">
         <v>10</v>
@@ -23097,8 +24240,8 @@
       </c>
     </row>
     <row r="728" spans="2:9">
-      <c r="B728" s="10" t="s">
-        <v>671</v>
+      <c r="B728" s="7" t="s">
+        <v>667</v>
       </c>
       <c r="C728" t="s">
         <v>10</v>
@@ -23123,8 +24266,8 @@
       </c>
     </row>
     <row r="729" spans="2:9">
-      <c r="B729" s="10" t="s">
-        <v>672</v>
+      <c r="B729" s="7" t="s">
+        <v>668</v>
       </c>
       <c r="C729" t="s">
         <v>31</v>
@@ -23149,8 +24292,8 @@
       </c>
     </row>
     <row r="730" spans="2:9">
-      <c r="B730" s="10" t="s">
-        <v>673</v>
+      <c r="B730" s="7" t="s">
+        <v>669</v>
       </c>
       <c r="C730" t="s">
         <v>10</v>
@@ -23175,8 +24318,8 @@
       </c>
     </row>
     <row r="731" spans="2:9">
-      <c r="B731" s="10" t="s">
-        <v>674</v>
+      <c r="B731" s="7" t="s">
+        <v>670</v>
       </c>
       <c r="C731" t="s">
         <v>36</v>
@@ -23201,8 +24344,8 @@
       </c>
     </row>
     <row r="732" spans="2:9">
-      <c r="B732" s="10" t="s">
-        <v>675</v>
+      <c r="B732" s="7" t="s">
+        <v>671</v>
       </c>
       <c r="C732" t="s">
         <v>36</v>
@@ -23227,8 +24370,8 @@
       </c>
     </row>
     <row r="733" spans="2:9">
-      <c r="B733" s="10" t="s">
-        <v>676</v>
+      <c r="B733" s="7" t="s">
+        <v>672</v>
       </c>
       <c r="C733" t="s">
         <v>10</v>
@@ -23252,9 +24395,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="734" spans="2:9">
-      <c r="B734" s="11" t="s">
-        <v>677</v>
+    <row r="734" ht="15" spans="2:9">
+      <c r="B734" s="8" t="s">
+        <v>673</v>
       </c>
       <c r="C734" t="s">
         <v>10</v>
@@ -23279,8 +24422,8 @@
       </c>
     </row>
     <row r="735" spans="2:9">
-      <c r="B735" s="10" t="s">
-        <v>678</v>
+      <c r="B735" s="7" t="s">
+        <v>674</v>
       </c>
       <c r="C735" t="s">
         <v>36</v>
@@ -23305,8 +24448,8 @@
       </c>
     </row>
     <row r="736" spans="2:9">
-      <c r="B736" s="10" t="s">
-        <v>679</v>
+      <c r="B736" s="7" t="s">
+        <v>675</v>
       </c>
       <c r="C736" t="s">
         <v>10</v>
@@ -23331,8 +24474,8 @@
       </c>
     </row>
     <row r="737" spans="2:9">
-      <c r="B737" s="10" t="s">
-        <v>680</v>
+      <c r="B737" s="7" t="s">
+        <v>676</v>
       </c>
       <c r="C737" t="s">
         <v>10</v>
@@ -23357,8 +24500,8 @@
       </c>
     </row>
     <row r="738" spans="2:9">
-      <c r="B738" s="10" t="s">
-        <v>681</v>
+      <c r="B738" s="7" t="s">
+        <v>677</v>
       </c>
       <c r="C738" t="s">
         <v>10</v>
@@ -23383,8 +24526,8 @@
       </c>
     </row>
     <row r="739" spans="2:9">
-      <c r="B739" s="10" t="s">
-        <v>682</v>
+      <c r="B739" s="7" t="s">
+        <v>678</v>
       </c>
       <c r="C739" t="s">
         <v>10</v>
@@ -23409,8 +24552,8 @@
       </c>
     </row>
     <row r="740" spans="2:9">
-      <c r="B740" s="10" t="s">
-        <v>683</v>
+      <c r="B740" s="7" t="s">
+        <v>679</v>
       </c>
       <c r="C740" t="s">
         <v>10</v>
@@ -23434,9 +24577,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="741" spans="2:9">
-      <c r="B741" s="11" t="s">
-        <v>684</v>
+    <row r="741" ht="15" spans="2:9">
+      <c r="B741" s="8" t="s">
+        <v>680</v>
       </c>
       <c r="C741" t="s">
         <v>10</v>
@@ -23461,8 +24604,8 @@
       </c>
     </row>
     <row r="742" spans="2:9">
-      <c r="B742" s="10" t="s">
-        <v>685</v>
+      <c r="B742" s="7" t="s">
+        <v>681</v>
       </c>
       <c r="C742" t="s">
         <v>10</v>
@@ -23487,8 +24630,8 @@
       </c>
     </row>
     <row r="743" spans="2:9">
-      <c r="B743" s="10" t="s">
-        <v>686</v>
+      <c r="B743" s="7" t="s">
+        <v>682</v>
       </c>
       <c r="C743" t="s">
         <v>10</v>
@@ -23513,8 +24656,8 @@
       </c>
     </row>
     <row r="744" spans="2:9">
-      <c r="B744" s="10" t="s">
-        <v>687</v>
+      <c r="B744" s="7" t="s">
+        <v>683</v>
       </c>
       <c r="C744" t="s">
         <v>25</v>
@@ -23539,8 +24682,8 @@
       </c>
     </row>
     <row r="745" spans="2:9">
-      <c r="B745" s="10" t="s">
-        <v>687</v>
+      <c r="B745" s="7" t="s">
+        <v>683</v>
       </c>
       <c r="C745" t="s">
         <v>36</v>
@@ -23565,8 +24708,8 @@
       </c>
     </row>
     <row r="746" spans="2:9">
-      <c r="B746" s="10" t="s">
-        <v>688</v>
+      <c r="B746" s="7" t="s">
+        <v>684</v>
       </c>
       <c r="C746" t="s">
         <v>10</v>
@@ -23591,8 +24734,8 @@
       </c>
     </row>
     <row r="747" spans="2:9">
-      <c r="B747" s="10" t="s">
-        <v>689</v>
+      <c r="B747" s="7" t="s">
+        <v>685</v>
       </c>
       <c r="C747" t="s">
         <v>10</v>
@@ -23617,8 +24760,8 @@
       </c>
     </row>
     <row r="748" spans="2:9">
-      <c r="B748" s="10" t="s">
-        <v>690</v>
+      <c r="B748" s="7" t="s">
+        <v>686</v>
       </c>
       <c r="C748" t="s">
         <v>10</v>
@@ -23643,8 +24786,8 @@
       </c>
     </row>
     <row r="749" spans="2:9">
-      <c r="B749" s="10" t="s">
-        <v>690</v>
+      <c r="B749" s="7" t="s">
+        <v>686</v>
       </c>
       <c r="C749" t="s">
         <v>24</v>
@@ -23653,7 +24796,7 @@
         <v>11</v>
       </c>
       <c r="E749" t="s">
-        <v>691</v>
+        <v>12</v>
       </c>
       <c r="F749" t="s">
         <v>13</v>
@@ -23669,8 +24812,8 @@
       </c>
     </row>
     <row r="750" spans="2:9">
-      <c r="B750" s="12" t="s">
-        <v>692</v>
+      <c r="B750" s="9" t="s">
+        <v>687</v>
       </c>
       <c r="C750" t="s">
         <v>10</v>
@@ -23695,8 +24838,8 @@
       </c>
     </row>
     <row r="751" spans="2:9">
-      <c r="B751" s="10" t="s">
-        <v>693</v>
+      <c r="B751" s="7" t="s">
+        <v>688</v>
       </c>
       <c r="C751" t="s">
         <v>10</v>
@@ -23721,8 +24864,8 @@
       </c>
     </row>
     <row r="752" spans="2:9">
-      <c r="B752" s="10" t="s">
-        <v>694</v>
+      <c r="B752" s="7" t="s">
+        <v>689</v>
       </c>
       <c r="C752" t="s">
         <v>10</v>
@@ -23747,8 +24890,8 @@
       </c>
     </row>
     <row r="753" spans="2:9">
-      <c r="B753" s="10" t="s">
-        <v>694</v>
+      <c r="B753" s="7" t="s">
+        <v>689</v>
       </c>
       <c r="C753" t="s">
         <v>44</v>
@@ -23763,7 +24906,7 @@
         <v>21</v>
       </c>
       <c r="G753" t="s">
-        <v>695</v>
+        <v>28</v>
       </c>
       <c r="H753" t="s">
         <v>38</v>
@@ -23772,9 +24915,6118 @@
         <v>29</v>
       </c>
     </row>
+    <row r="754" spans="2:9">
+      <c r="B754" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="C754" t="s">
+        <v>24</v>
+      </c>
+      <c r="D754" t="s">
+        <v>27</v>
+      </c>
+      <c r="E754" t="s">
+        <v>12</v>
+      </c>
+      <c r="F754" t="s">
+        <v>21</v>
+      </c>
+      <c r="G754" t="s">
+        <v>28</v>
+      </c>
+      <c r="H754" t="s">
+        <v>38</v>
+      </c>
+      <c r="I754" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="755" spans="2:9">
+      <c r="B755" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="C755" t="s">
+        <v>36</v>
+      </c>
+      <c r="D755" t="s">
+        <v>27</v>
+      </c>
+      <c r="E755" t="s">
+        <v>19</v>
+      </c>
+      <c r="F755" t="s">
+        <v>21</v>
+      </c>
+      <c r="G755" t="s">
+        <v>37</v>
+      </c>
+      <c r="H755" t="s">
+        <v>25</v>
+      </c>
+      <c r="I755" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="756" spans="2:9">
+      <c r="B756" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="C756" t="s">
+        <v>36</v>
+      </c>
+      <c r="D756" t="s">
+        <v>27</v>
+      </c>
+      <c r="E756" t="s">
+        <v>19</v>
+      </c>
+      <c r="F756" t="s">
+        <v>21</v>
+      </c>
+      <c r="G756" t="s">
+        <v>37</v>
+      </c>
+      <c r="H756" t="s">
+        <v>25</v>
+      </c>
+      <c r="I756" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="757" spans="2:9">
+      <c r="B757" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="C757" t="s">
+        <v>36</v>
+      </c>
+      <c r="D757" t="s">
+        <v>27</v>
+      </c>
+      <c r="E757" t="s">
+        <v>19</v>
+      </c>
+      <c r="F757" t="s">
+        <v>21</v>
+      </c>
+      <c r="G757" t="s">
+        <v>28</v>
+      </c>
+      <c r="H757" t="s">
+        <v>53</v>
+      </c>
+      <c r="I757" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="758" spans="2:9">
+      <c r="B758" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="C758" t="s">
+        <v>44</v>
+      </c>
+      <c r="D758" t="s">
+        <v>18</v>
+      </c>
+      <c r="E758" t="s">
+        <v>60</v>
+      </c>
+      <c r="F758" t="s">
+        <v>21</v>
+      </c>
+      <c r="G758" t="s">
+        <v>65</v>
+      </c>
+      <c r="H758" t="s">
+        <v>38</v>
+      </c>
+      <c r="I758" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="759" spans="2:9">
+      <c r="B759" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="C759" t="s">
+        <v>24</v>
+      </c>
+      <c r="D759" t="s">
+        <v>11</v>
+      </c>
+      <c r="E759" t="s">
+        <v>12</v>
+      </c>
+      <c r="F759" t="s">
+        <v>21</v>
+      </c>
+      <c r="G759" t="s">
+        <v>65</v>
+      </c>
+      <c r="H759" t="s">
+        <v>38</v>
+      </c>
+      <c r="I759" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="760" spans="2:9">
+      <c r="B760" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="C760" t="s">
+        <v>24</v>
+      </c>
+      <c r="D760" t="s">
+        <v>11</v>
+      </c>
+      <c r="E760" t="s">
+        <v>12</v>
+      </c>
+      <c r="F760" t="s">
+        <v>21</v>
+      </c>
+      <c r="G760" t="s">
+        <v>37</v>
+      </c>
+      <c r="H760" t="s">
+        <v>38</v>
+      </c>
+      <c r="I760" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="761" spans="2:9">
+      <c r="B761" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="C761" t="s">
+        <v>10</v>
+      </c>
+      <c r="D761" t="s">
+        <v>27</v>
+      </c>
+      <c r="E761" t="s">
+        <v>19</v>
+      </c>
+      <c r="F761" t="s">
+        <v>21</v>
+      </c>
+      <c r="G761" t="s">
+        <v>22</v>
+      </c>
+      <c r="H761" t="s">
+        <v>53</v>
+      </c>
+      <c r="I761" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="762" spans="2:9">
+      <c r="B762" s="11" t="s">
+        <v>694</v>
+      </c>
+      <c r="C762" t="s">
+        <v>36</v>
+      </c>
+      <c r="D762" t="s">
+        <v>27</v>
+      </c>
+      <c r="E762" t="s">
+        <v>19</v>
+      </c>
+      <c r="F762" t="s">
+        <v>21</v>
+      </c>
+      <c r="G762" t="s">
+        <v>28</v>
+      </c>
+      <c r="H762" t="s">
+        <v>53</v>
+      </c>
+      <c r="I762" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="763" spans="2:9">
+      <c r="B763" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="C763" t="s">
+        <v>10</v>
+      </c>
+      <c r="D763" t="s">
+        <v>11</v>
+      </c>
+      <c r="E763" t="s">
+        <v>19</v>
+      </c>
+      <c r="F763" t="s">
+        <v>13</v>
+      </c>
+      <c r="G763" t="s">
+        <v>22</v>
+      </c>
+      <c r="H763" t="s">
+        <v>57</v>
+      </c>
+      <c r="I763" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="764" spans="2:9">
+      <c r="B764" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="C764" t="s">
+        <v>10</v>
+      </c>
+      <c r="D764" t="s">
+        <v>27</v>
+      </c>
+      <c r="E764" t="s">
+        <v>19</v>
+      </c>
+      <c r="F764" t="s">
+        <v>21</v>
+      </c>
+      <c r="G764" t="s">
+        <v>65</v>
+      </c>
+      <c r="H764" t="s">
+        <v>38</v>
+      </c>
+      <c r="I764" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="765" spans="2:9">
+      <c r="B765" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="C765" t="s">
+        <v>10</v>
+      </c>
+      <c r="D765" t="s">
+        <v>27</v>
+      </c>
+      <c r="E765" t="s">
+        <v>19</v>
+      </c>
+      <c r="F765" t="s">
+        <v>21</v>
+      </c>
+      <c r="G765" t="s">
+        <v>65</v>
+      </c>
+      <c r="H765" t="s">
+        <v>38</v>
+      </c>
+      <c r="I765" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="766" spans="2:9">
+      <c r="B766" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="C766" t="s">
+        <v>10</v>
+      </c>
+      <c r="D766" t="s">
+        <v>27</v>
+      </c>
+      <c r="E766" t="s">
+        <v>19</v>
+      </c>
+      <c r="F766" t="s">
+        <v>21</v>
+      </c>
+      <c r="G766" t="s">
+        <v>65</v>
+      </c>
+      <c r="H766" t="s">
+        <v>38</v>
+      </c>
+      <c r="I766" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="767" spans="2:9">
+      <c r="B767" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="C767" t="s">
+        <v>48</v>
+      </c>
+      <c r="D767" t="s">
+        <v>27</v>
+      </c>
+      <c r="E767" t="s">
+        <v>32</v>
+      </c>
+      <c r="F767" t="s">
+        <v>21</v>
+      </c>
+      <c r="G767" t="s">
+        <v>28</v>
+      </c>
+      <c r="H767" t="s">
+        <v>38</v>
+      </c>
+      <c r="I767" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="768" spans="2:9">
+      <c r="B768" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="C768" t="s">
+        <v>10</v>
+      </c>
+      <c r="D768" t="s">
+        <v>11</v>
+      </c>
+      <c r="E768" t="s">
+        <v>19</v>
+      </c>
+      <c r="F768" t="s">
+        <v>21</v>
+      </c>
+      <c r="G768" t="s">
+        <v>65</v>
+      </c>
+      <c r="H768" t="s">
+        <v>53</v>
+      </c>
+      <c r="I768" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="769" spans="2:9">
+      <c r="B769" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="C769" t="s">
+        <v>10</v>
+      </c>
+      <c r="D769" t="s">
+        <v>27</v>
+      </c>
+      <c r="E769" t="s">
+        <v>19</v>
+      </c>
+      <c r="F769" t="s">
+        <v>21</v>
+      </c>
+      <c r="G769" t="s">
+        <v>22</v>
+      </c>
+      <c r="H769" t="s">
+        <v>53</v>
+      </c>
+      <c r="I769" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="770" spans="2:9">
+      <c r="B770" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="C770" t="s">
+        <v>10</v>
+      </c>
+      <c r="D770" t="s">
+        <v>11</v>
+      </c>
+      <c r="E770" t="s">
+        <v>12</v>
+      </c>
+      <c r="F770" t="s">
+        <v>21</v>
+      </c>
+      <c r="G770" t="s">
+        <v>22</v>
+      </c>
+      <c r="H770" t="s">
+        <v>53</v>
+      </c>
+      <c r="I770" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="771" spans="2:9">
+      <c r="B771" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="C771" t="s">
+        <v>10</v>
+      </c>
+      <c r="D771" t="s">
+        <v>27</v>
+      </c>
+      <c r="E771" t="s">
+        <v>55</v>
+      </c>
+      <c r="F771" t="s">
+        <v>13</v>
+      </c>
+      <c r="G771" t="s">
+        <v>22</v>
+      </c>
+      <c r="H771" t="s">
+        <v>57</v>
+      </c>
+      <c r="I771" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="772" spans="2:9">
+      <c r="B772" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="C772" t="s">
+        <v>10</v>
+      </c>
+      <c r="D772" t="s">
+        <v>27</v>
+      </c>
+      <c r="E772" t="s">
+        <v>19</v>
+      </c>
+      <c r="F772" t="s">
+        <v>21</v>
+      </c>
+      <c r="G772" t="s">
+        <v>65</v>
+      </c>
+      <c r="H772" t="s">
+        <v>53</v>
+      </c>
+      <c r="I772" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="773" spans="2:9">
+      <c r="B773" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="C773" t="s">
+        <v>25</v>
+      </c>
+      <c r="D773" t="s">
+        <v>27</v>
+      </c>
+      <c r="E773" t="s">
+        <v>19</v>
+      </c>
+      <c r="F773" t="s">
+        <v>33</v>
+      </c>
+      <c r="G773" t="s">
+        <v>28</v>
+      </c>
+      <c r="H773" t="s">
+        <v>38</v>
+      </c>
+      <c r="I773" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="774" spans="2:9">
+      <c r="B774" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="C774" t="s">
+        <v>10</v>
+      </c>
+      <c r="D774" t="s">
+        <v>11</v>
+      </c>
+      <c r="E774" t="s">
+        <v>12</v>
+      </c>
+      <c r="F774" t="s">
+        <v>21</v>
+      </c>
+      <c r="G774" t="s">
+        <v>28</v>
+      </c>
+      <c r="H774" t="s">
+        <v>38</v>
+      </c>
+      <c r="I774" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="775" spans="2:9">
+      <c r="B775" s="10" t="s">
+        <v>704</v>
+      </c>
+      <c r="C775" t="s">
+        <v>10</v>
+      </c>
+      <c r="D775" t="s">
+        <v>11</v>
+      </c>
+      <c r="E775" t="s">
+        <v>19</v>
+      </c>
+      <c r="F775" t="s">
+        <v>21</v>
+      </c>
+      <c r="G775" t="s">
+        <v>22</v>
+      </c>
+      <c r="H775" t="s">
+        <v>57</v>
+      </c>
+      <c r="I775" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="776" spans="2:9">
+      <c r="B776" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="C776" t="s">
+        <v>10</v>
+      </c>
+      <c r="D776" t="s">
+        <v>11</v>
+      </c>
+      <c r="E776" t="s">
+        <v>12</v>
+      </c>
+      <c r="F776" t="s">
+        <v>21</v>
+      </c>
+      <c r="G776" t="s">
+        <v>37</v>
+      </c>
+      <c r="H776" t="s">
+        <v>25</v>
+      </c>
+      <c r="I776" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="777" spans="2:9">
+      <c r="B777" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="C777" t="s">
+        <v>10</v>
+      </c>
+      <c r="D777" t="s">
+        <v>18</v>
+      </c>
+      <c r="E777" t="s">
+        <v>19</v>
+      </c>
+      <c r="F777" t="s">
+        <v>21</v>
+      </c>
+      <c r="G777" t="s">
+        <v>22</v>
+      </c>
+      <c r="H777" t="s">
+        <v>53</v>
+      </c>
+      <c r="I777" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="778" spans="2:9">
+      <c r="B778" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="C778" t="s">
+        <v>10</v>
+      </c>
+      <c r="D778" t="s">
+        <v>27</v>
+      </c>
+      <c r="E778" t="s">
+        <v>19</v>
+      </c>
+      <c r="F778" t="s">
+        <v>21</v>
+      </c>
+      <c r="G778" t="s">
+        <v>65</v>
+      </c>
+      <c r="H778" t="s">
+        <v>53</v>
+      </c>
+      <c r="I778" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="779" spans="2:9">
+      <c r="B779" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="C779" t="s">
+        <v>10</v>
+      </c>
+      <c r="D779" t="s">
+        <v>27</v>
+      </c>
+      <c r="E779" t="s">
+        <v>19</v>
+      </c>
+      <c r="F779" t="s">
+        <v>52</v>
+      </c>
+      <c r="G779" t="s">
+        <v>22</v>
+      </c>
+      <c r="H779" t="s">
+        <v>15</v>
+      </c>
+      <c r="I779" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="780" spans="2:9">
+      <c r="B780" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C780" t="s">
+        <v>10</v>
+      </c>
+      <c r="D780" t="s">
+        <v>27</v>
+      </c>
+      <c r="E780" t="s">
+        <v>12</v>
+      </c>
+      <c r="F780" t="s">
+        <v>21</v>
+      </c>
+      <c r="G780" t="s">
+        <v>28</v>
+      </c>
+      <c r="H780" t="s">
+        <v>38</v>
+      </c>
+      <c r="I780" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="781" spans="2:9">
+      <c r="B781" s="10" t="s">
+        <v>710</v>
+      </c>
+      <c r="C781" t="s">
+        <v>10</v>
+      </c>
+      <c r="D781" t="s">
+        <v>27</v>
+      </c>
+      <c r="E781" t="s">
+        <v>19</v>
+      </c>
+      <c r="F781" t="s">
+        <v>21</v>
+      </c>
+      <c r="G781" t="s">
+        <v>65</v>
+      </c>
+      <c r="H781" t="s">
+        <v>53</v>
+      </c>
+      <c r="I781" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="782" spans="2:9">
+      <c r="B782" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="C782" t="s">
+        <v>10</v>
+      </c>
+      <c r="D782" t="s">
+        <v>27</v>
+      </c>
+      <c r="E782" t="s">
+        <v>12</v>
+      </c>
+      <c r="F782" t="s">
+        <v>21</v>
+      </c>
+      <c r="G782" t="s">
+        <v>28</v>
+      </c>
+      <c r="H782" t="s">
+        <v>53</v>
+      </c>
+      <c r="I782" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="783" spans="2:9">
+      <c r="B783" s="10" t="s">
+        <v>712</v>
+      </c>
+      <c r="C783" t="s">
+        <v>10</v>
+      </c>
+      <c r="D783" t="s">
+        <v>11</v>
+      </c>
+      <c r="E783" t="s">
+        <v>19</v>
+      </c>
+      <c r="F783" t="s">
+        <v>21</v>
+      </c>
+      <c r="G783" t="s">
+        <v>37</v>
+      </c>
+      <c r="H783" t="s">
+        <v>25</v>
+      </c>
+      <c r="I783" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="784" spans="2:9">
+      <c r="B784" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="C784" t="s">
+        <v>24</v>
+      </c>
+      <c r="D784" t="s">
+        <v>11</v>
+      </c>
+      <c r="E784" t="s">
+        <v>12</v>
+      </c>
+      <c r="F784" t="s">
+        <v>21</v>
+      </c>
+      <c r="G784" t="s">
+        <v>65</v>
+      </c>
+      <c r="H784" t="s">
+        <v>53</v>
+      </c>
+      <c r="I784" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="785" spans="2:9">
+      <c r="B785" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="C785" t="s">
+        <v>24</v>
+      </c>
+      <c r="D785" t="s">
+        <v>11</v>
+      </c>
+      <c r="E785" t="s">
+        <v>32</v>
+      </c>
+      <c r="F785" t="s">
+        <v>13</v>
+      </c>
+      <c r="G785" t="s">
+        <v>47</v>
+      </c>
+      <c r="H785" t="s">
+        <v>53</v>
+      </c>
+      <c r="I785" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="786" spans="2:9">
+      <c r="B786" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="C786" t="s">
+        <v>10</v>
+      </c>
+      <c r="D786" t="s">
+        <v>27</v>
+      </c>
+      <c r="E786" t="s">
+        <v>12</v>
+      </c>
+      <c r="F786" t="s">
+        <v>21</v>
+      </c>
+      <c r="G786" t="s">
+        <v>37</v>
+      </c>
+      <c r="H786" t="s">
+        <v>25</v>
+      </c>
+      <c r="I786" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="787" spans="2:9">
+      <c r="B787" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="C787" t="s">
+        <v>10</v>
+      </c>
+      <c r="D787" t="s">
+        <v>27</v>
+      </c>
+      <c r="E787" t="s">
+        <v>12</v>
+      </c>
+      <c r="F787" t="s">
+        <v>21</v>
+      </c>
+      <c r="G787" t="s">
+        <v>37</v>
+      </c>
+      <c r="H787" t="s">
+        <v>25</v>
+      </c>
+      <c r="I787" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="788" spans="2:9">
+      <c r="B788" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="C788" t="s">
+        <v>10</v>
+      </c>
+      <c r="D788" t="s">
+        <v>11</v>
+      </c>
+      <c r="E788" t="s">
+        <v>19</v>
+      </c>
+      <c r="F788" t="s">
+        <v>21</v>
+      </c>
+      <c r="G788" t="s">
+        <v>47</v>
+      </c>
+      <c r="H788" t="s">
+        <v>57</v>
+      </c>
+      <c r="I788" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="789" spans="2:9">
+      <c r="B789" s="11" t="s">
+        <v>718</v>
+      </c>
+      <c r="C789" t="s">
+        <v>10</v>
+      </c>
+      <c r="D789" t="s">
+        <v>27</v>
+      </c>
+      <c r="E789" t="s">
+        <v>19</v>
+      </c>
+      <c r="F789" t="s">
+        <v>21</v>
+      </c>
+      <c r="G789" t="s">
+        <v>28</v>
+      </c>
+      <c r="H789" t="s">
+        <v>53</v>
+      </c>
+      <c r="I789" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="790" spans="2:9">
+      <c r="B790" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="C790" t="s">
+        <v>10</v>
+      </c>
+      <c r="D790" t="s">
+        <v>27</v>
+      </c>
+      <c r="E790" t="s">
+        <v>19</v>
+      </c>
+      <c r="F790" t="s">
+        <v>21</v>
+      </c>
+      <c r="G790" t="s">
+        <v>47</v>
+      </c>
+      <c r="H790" t="s">
+        <v>57</v>
+      </c>
+      <c r="I790" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="791" spans="2:9">
+      <c r="B791" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="C791" t="s">
+        <v>24</v>
+      </c>
+      <c r="D791" t="s">
+        <v>27</v>
+      </c>
+      <c r="E791" t="s">
+        <v>19</v>
+      </c>
+      <c r="F791" t="s">
+        <v>33</v>
+      </c>
+      <c r="G791" t="s">
+        <v>37</v>
+      </c>
+      <c r="H791" t="s">
+        <v>38</v>
+      </c>
+      <c r="I791" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="792" spans="2:9">
+      <c r="B792" s="10" t="s">
+        <v>721</v>
+      </c>
+      <c r="C792" t="s">
+        <v>10</v>
+      </c>
+      <c r="D792" t="s">
+        <v>27</v>
+      </c>
+      <c r="E792" t="s">
+        <v>19</v>
+      </c>
+      <c r="F792" t="s">
+        <v>13</v>
+      </c>
+      <c r="G792" t="s">
+        <v>37</v>
+      </c>
+      <c r="H792" t="s">
+        <v>25</v>
+      </c>
+      <c r="I792" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="793" spans="2:9">
+      <c r="B793" s="10" t="s">
+        <v>722</v>
+      </c>
+      <c r="C793" t="s">
+        <v>10</v>
+      </c>
+      <c r="D793" t="s">
+        <v>27</v>
+      </c>
+      <c r="E793" t="s">
+        <v>19</v>
+      </c>
+      <c r="F793" t="s">
+        <v>52</v>
+      </c>
+      <c r="G793" t="s">
+        <v>70</v>
+      </c>
+      <c r="H793" t="s">
+        <v>43</v>
+      </c>
+      <c r="I793" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="794" spans="2:9">
+      <c r="B794" s="10" t="s">
+        <v>723</v>
+      </c>
+      <c r="C794" t="s">
+        <v>48</v>
+      </c>
+      <c r="D794" t="s">
+        <v>11</v>
+      </c>
+      <c r="E794" t="s">
+        <v>19</v>
+      </c>
+      <c r="F794" t="s">
+        <v>21</v>
+      </c>
+      <c r="G794" t="s">
+        <v>47</v>
+      </c>
+      <c r="H794" t="s">
+        <v>53</v>
+      </c>
+      <c r="I794" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="795" spans="2:9">
+      <c r="B795" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="C795" t="s">
+        <v>10</v>
+      </c>
+      <c r="D795" t="s">
+        <v>27</v>
+      </c>
+      <c r="E795" t="s">
+        <v>19</v>
+      </c>
+      <c r="F795" t="s">
+        <v>21</v>
+      </c>
+      <c r="G795" t="s">
+        <v>47</v>
+      </c>
+      <c r="H795" t="s">
+        <v>38</v>
+      </c>
+      <c r="I795" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="796" spans="2:9">
+      <c r="B796" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="C796" t="s">
+        <v>10</v>
+      </c>
+      <c r="D796" t="s">
+        <v>11</v>
+      </c>
+      <c r="E796" t="s">
+        <v>19</v>
+      </c>
+      <c r="F796" t="s">
+        <v>52</v>
+      </c>
+      <c r="G796" t="s">
+        <v>22</v>
+      </c>
+      <c r="H796" t="s">
+        <v>57</v>
+      </c>
+      <c r="I796" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="797" spans="2:9">
+      <c r="B797" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="C797" t="s">
+        <v>10</v>
+      </c>
+      <c r="D797" t="s">
+        <v>11</v>
+      </c>
+      <c r="E797" t="s">
+        <v>19</v>
+      </c>
+      <c r="F797" t="s">
+        <v>52</v>
+      </c>
+      <c r="G797" t="s">
+        <v>22</v>
+      </c>
+      <c r="H797" t="s">
+        <v>57</v>
+      </c>
+      <c r="I797" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="798" spans="2:9">
+      <c r="B798" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C798" t="s">
+        <v>10</v>
+      </c>
+      <c r="D798" t="s">
+        <v>11</v>
+      </c>
+      <c r="E798" t="s">
+        <v>19</v>
+      </c>
+      <c r="F798" t="s">
+        <v>21</v>
+      </c>
+      <c r="G798" t="s">
+        <v>14</v>
+      </c>
+      <c r="H798" t="s">
+        <v>53</v>
+      </c>
+      <c r="I798" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="799" spans="2:9">
+      <c r="B799" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="C799" t="s">
+        <v>10</v>
+      </c>
+      <c r="D799" t="s">
+        <v>27</v>
+      </c>
+      <c r="E799" t="s">
+        <v>19</v>
+      </c>
+      <c r="F799" t="s">
+        <v>21</v>
+      </c>
+      <c r="G799" t="s">
+        <v>22</v>
+      </c>
+      <c r="H799" t="s">
+        <v>38</v>
+      </c>
+      <c r="I799" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="800" spans="2:9">
+      <c r="B800" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="C800" t="s">
+        <v>10</v>
+      </c>
+      <c r="D800" t="s">
+        <v>27</v>
+      </c>
+      <c r="E800" t="s">
+        <v>19</v>
+      </c>
+      <c r="F800" t="s">
+        <v>21</v>
+      </c>
+      <c r="G800" t="s">
+        <v>65</v>
+      </c>
+      <c r="H800" t="s">
+        <v>43</v>
+      </c>
+      <c r="I800" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="801" spans="2:9">
+      <c r="B801" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="C801" t="s">
+        <v>10</v>
+      </c>
+      <c r="D801" t="s">
+        <v>27</v>
+      </c>
+      <c r="E801" t="s">
+        <v>19</v>
+      </c>
+      <c r="F801" t="s">
+        <v>13</v>
+      </c>
+      <c r="G801" t="s">
+        <v>22</v>
+      </c>
+      <c r="H801" t="s">
+        <v>57</v>
+      </c>
+      <c r="I801" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="802" spans="2:9">
+      <c r="B802" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="C802" t="s">
+        <v>31</v>
+      </c>
+      <c r="D802" t="s">
+        <v>27</v>
+      </c>
+      <c r="E802" t="s">
+        <v>12</v>
+      </c>
+      <c r="F802" t="s">
+        <v>52</v>
+      </c>
+      <c r="G802" t="s">
+        <v>28</v>
+      </c>
+      <c r="H802" t="s">
+        <v>15</v>
+      </c>
+      <c r="I802" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="803" spans="2:9">
+      <c r="B803" s="10" t="s">
+        <v>732</v>
+      </c>
+      <c r="C803" t="s">
+        <v>25</v>
+      </c>
+      <c r="D803" t="s">
+        <v>27</v>
+      </c>
+      <c r="E803" t="s">
+        <v>19</v>
+      </c>
+      <c r="F803" t="s">
+        <v>52</v>
+      </c>
+      <c r="G803" t="s">
+        <v>28</v>
+      </c>
+      <c r="H803" t="s">
+        <v>38</v>
+      </c>
+      <c r="I803" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="804" spans="2:9">
+      <c r="B804" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="C804" t="s">
+        <v>10</v>
+      </c>
+      <c r="D804" t="s">
+        <v>27</v>
+      </c>
+      <c r="E804" t="s">
+        <v>19</v>
+      </c>
+      <c r="F804" t="s">
+        <v>21</v>
+      </c>
+      <c r="G804" t="s">
+        <v>22</v>
+      </c>
+      <c r="H804" t="s">
+        <v>15</v>
+      </c>
+      <c r="I804" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="805" spans="2:9">
+      <c r="B805" s="10" t="s">
+        <v>734</v>
+      </c>
+      <c r="C805" t="s">
+        <v>10</v>
+      </c>
+      <c r="D805" t="s">
+        <v>27</v>
+      </c>
+      <c r="E805" t="s">
+        <v>19</v>
+      </c>
+      <c r="F805" t="s">
+        <v>13</v>
+      </c>
+      <c r="G805" t="s">
+        <v>22</v>
+      </c>
+      <c r="H805" t="s">
+        <v>57</v>
+      </c>
+      <c r="I805" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="806" spans="2:9">
+      <c r="B806" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="C806" t="s">
+        <v>10</v>
+      </c>
+      <c r="D806" t="s">
+        <v>11</v>
+      </c>
+      <c r="E806" t="s">
+        <v>19</v>
+      </c>
+      <c r="F806" t="s">
+        <v>13</v>
+      </c>
+      <c r="G806" t="s">
+        <v>65</v>
+      </c>
+      <c r="H806" t="s">
+        <v>38</v>
+      </c>
+      <c r="I806" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="807" spans="2:9">
+      <c r="B807" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="C807" t="s">
+        <v>10</v>
+      </c>
+      <c r="D807" t="s">
+        <v>11</v>
+      </c>
+      <c r="E807" t="s">
+        <v>12</v>
+      </c>
+      <c r="F807" t="s">
+        <v>21</v>
+      </c>
+      <c r="G807" t="s">
+        <v>28</v>
+      </c>
+      <c r="H807" t="s">
+        <v>25</v>
+      </c>
+      <c r="I807" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="808" spans="2:9">
+      <c r="B808" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="C808" t="s">
+        <v>10</v>
+      </c>
+      <c r="D808" t="s">
+        <v>27</v>
+      </c>
+      <c r="E808" t="s">
+        <v>19</v>
+      </c>
+      <c r="F808" t="s">
+        <v>21</v>
+      </c>
+      <c r="G808" t="s">
+        <v>65</v>
+      </c>
+      <c r="H808" t="s">
+        <v>38</v>
+      </c>
+      <c r="I808" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="809" spans="2:9">
+      <c r="B809" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="C809" t="s">
+        <v>10</v>
+      </c>
+      <c r="D809" t="s">
+        <v>27</v>
+      </c>
+      <c r="E809" t="s">
+        <v>19</v>
+      </c>
+      <c r="F809" t="s">
+        <v>21</v>
+      </c>
+      <c r="G809" t="s">
+        <v>28</v>
+      </c>
+      <c r="H809" t="s">
+        <v>38</v>
+      </c>
+      <c r="I809" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="810" spans="2:9">
+      <c r="B810" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="C810" t="s">
+        <v>10</v>
+      </c>
+      <c r="D810" t="s">
+        <v>11</v>
+      </c>
+      <c r="E810" t="s">
+        <v>19</v>
+      </c>
+      <c r="F810" t="s">
+        <v>13</v>
+      </c>
+      <c r="G810" t="s">
+        <v>28</v>
+      </c>
+      <c r="H810" t="s">
+        <v>25</v>
+      </c>
+      <c r="I810" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="811" spans="2:9">
+      <c r="B811" s="10" t="s">
+        <v>740</v>
+      </c>
+      <c r="C811" t="s">
+        <v>10</v>
+      </c>
+      <c r="D811" t="s">
+        <v>27</v>
+      </c>
+      <c r="E811" t="s">
+        <v>19</v>
+      </c>
+      <c r="F811" t="s">
+        <v>21</v>
+      </c>
+      <c r="G811" t="s">
+        <v>47</v>
+      </c>
+      <c r="H811" t="s">
+        <v>53</v>
+      </c>
+      <c r="I811" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="812" spans="2:9">
+      <c r="B812" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="C812" t="s">
+        <v>10</v>
+      </c>
+      <c r="D812" t="s">
+        <v>18</v>
+      </c>
+      <c r="E812" t="s">
+        <v>12</v>
+      </c>
+      <c r="F812" t="s">
+        <v>21</v>
+      </c>
+      <c r="G812" t="s">
+        <v>47</v>
+      </c>
+      <c r="H812" t="s">
+        <v>38</v>
+      </c>
+      <c r="I812" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="813" spans="2:9">
+      <c r="B813" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="C813" t="s">
+        <v>10</v>
+      </c>
+      <c r="D813" t="s">
+        <v>11</v>
+      </c>
+      <c r="E813" t="s">
+        <v>19</v>
+      </c>
+      <c r="F813" t="s">
+        <v>21</v>
+      </c>
+      <c r="G813" t="s">
+        <v>47</v>
+      </c>
+      <c r="H813" t="s">
+        <v>38</v>
+      </c>
+      <c r="I813" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="814" spans="2:9">
+      <c r="B814" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="C814" t="s">
+        <v>36</v>
+      </c>
+      <c r="D814" t="s">
+        <v>27</v>
+      </c>
+      <c r="E814" t="s">
+        <v>19</v>
+      </c>
+      <c r="F814" t="s">
+        <v>52</v>
+      </c>
+      <c r="G814" t="s">
+        <v>28</v>
+      </c>
+      <c r="H814" t="s">
+        <v>53</v>
+      </c>
+      <c r="I814" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="815" spans="2:9">
+      <c r="B815" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="C815" t="s">
+        <v>10</v>
+      </c>
+      <c r="D815" t="s">
+        <v>27</v>
+      </c>
+      <c r="E815" t="s">
+        <v>12</v>
+      </c>
+      <c r="F815" t="s">
+        <v>21</v>
+      </c>
+      <c r="G815" t="s">
+        <v>28</v>
+      </c>
+      <c r="H815" t="s">
+        <v>38</v>
+      </c>
+      <c r="I815" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="816" spans="2:9">
+      <c r="B816" s="10" t="s">
+        <v>745</v>
+      </c>
+      <c r="C816" t="s">
+        <v>36</v>
+      </c>
+      <c r="D816" t="s">
+        <v>27</v>
+      </c>
+      <c r="E816" t="s">
+        <v>12</v>
+      </c>
+      <c r="F816" t="s">
+        <v>21</v>
+      </c>
+      <c r="G816" t="s">
+        <v>22</v>
+      </c>
+      <c r="H816" t="s">
+        <v>57</v>
+      </c>
+      <c r="I816" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="817" spans="2:9">
+      <c r="B817" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="C817" t="s">
+        <v>36</v>
+      </c>
+      <c r="D817" t="s">
+        <v>27</v>
+      </c>
+      <c r="E817" t="s">
+        <v>12</v>
+      </c>
+      <c r="F817" t="s">
+        <v>52</v>
+      </c>
+      <c r="G817" t="s">
+        <v>22</v>
+      </c>
+      <c r="H817" t="s">
+        <v>15</v>
+      </c>
+      <c r="I817" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="818" spans="2:9">
+      <c r="B818" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="C818" t="s">
+        <v>10</v>
+      </c>
+      <c r="D818" t="s">
+        <v>27</v>
+      </c>
+      <c r="E818" t="s">
+        <v>19</v>
+      </c>
+      <c r="F818" t="s">
+        <v>21</v>
+      </c>
+      <c r="G818" t="s">
+        <v>28</v>
+      </c>
+      <c r="H818" t="s">
+        <v>53</v>
+      </c>
+      <c r="I818" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="819" spans="2:9">
+      <c r="B819" s="11" t="s">
+        <v>747</v>
+      </c>
+      <c r="C819" t="s">
+        <v>36</v>
+      </c>
+      <c r="D819" t="s">
+        <v>27</v>
+      </c>
+      <c r="E819" t="s">
+        <v>12</v>
+      </c>
+      <c r="F819" t="s">
+        <v>21</v>
+      </c>
+      <c r="G819" t="s">
+        <v>28</v>
+      </c>
+      <c r="H819" t="s">
+        <v>38</v>
+      </c>
+      <c r="I819" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="820" spans="2:9">
+      <c r="B820" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="C820" t="s">
+        <v>36</v>
+      </c>
+      <c r="D820" t="s">
+        <v>27</v>
+      </c>
+      <c r="E820" t="s">
+        <v>19</v>
+      </c>
+      <c r="F820" t="s">
+        <v>21</v>
+      </c>
+      <c r="G820" t="s">
+        <v>28</v>
+      </c>
+      <c r="H820" t="s">
+        <v>38</v>
+      </c>
+      <c r="I820" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="821" spans="2:9">
+      <c r="B821" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="C821" t="s">
+        <v>36</v>
+      </c>
+      <c r="D821" t="s">
+        <v>27</v>
+      </c>
+      <c r="E821" t="s">
+        <v>19</v>
+      </c>
+      <c r="F821" t="s">
+        <v>21</v>
+      </c>
+      <c r="G821" t="s">
+        <v>28</v>
+      </c>
+      <c r="H821" t="s">
+        <v>38</v>
+      </c>
+      <c r="I821" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="822" spans="2:9">
+      <c r="B822" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="C822" t="s">
+        <v>10</v>
+      </c>
+      <c r="D822" t="s">
+        <v>27</v>
+      </c>
+      <c r="E822" t="s">
+        <v>19</v>
+      </c>
+      <c r="F822" t="s">
+        <v>21</v>
+      </c>
+      <c r="G822" t="s">
+        <v>28</v>
+      </c>
+      <c r="H822" t="s">
+        <v>57</v>
+      </c>
+      <c r="I822" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="823" spans="2:9">
+      <c r="B823" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="C823" t="s">
+        <v>10</v>
+      </c>
+      <c r="D823" t="s">
+        <v>27</v>
+      </c>
+      <c r="E823" t="s">
+        <v>19</v>
+      </c>
+      <c r="F823" t="s">
+        <v>21</v>
+      </c>
+      <c r="G823" t="s">
+        <v>28</v>
+      </c>
+      <c r="H823" t="s">
+        <v>57</v>
+      </c>
+      <c r="I823" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="824" spans="2:9">
+      <c r="B824" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="C824" t="s">
+        <v>31</v>
+      </c>
+      <c r="D824" t="s">
+        <v>27</v>
+      </c>
+      <c r="E824" t="s">
+        <v>32</v>
+      </c>
+      <c r="F824" t="s">
+        <v>33</v>
+      </c>
+      <c r="G824" t="s">
+        <v>28</v>
+      </c>
+      <c r="H824" t="s">
+        <v>38</v>
+      </c>
+      <c r="I824" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="825" spans="2:9">
+      <c r="B825" s="10" t="s">
+        <v>751</v>
+      </c>
+      <c r="C825" t="s">
+        <v>10</v>
+      </c>
+      <c r="D825" t="s">
+        <v>27</v>
+      </c>
+      <c r="E825" t="s">
+        <v>19</v>
+      </c>
+      <c r="F825" t="s">
+        <v>21</v>
+      </c>
+      <c r="G825" t="s">
+        <v>65</v>
+      </c>
+      <c r="H825" t="s">
+        <v>38</v>
+      </c>
+      <c r="I825" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="826" spans="2:9">
+      <c r="B826" s="10" t="s">
+        <v>752</v>
+      </c>
+      <c r="C826" t="s">
+        <v>10</v>
+      </c>
+      <c r="D826" t="s">
+        <v>27</v>
+      </c>
+      <c r="E826" t="s">
+        <v>19</v>
+      </c>
+      <c r="F826" t="s">
+        <v>21</v>
+      </c>
+      <c r="G826" t="s">
+        <v>28</v>
+      </c>
+      <c r="H826" t="s">
+        <v>57</v>
+      </c>
+      <c r="I826" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="827" spans="2:9">
+      <c r="B827" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="C827" t="s">
+        <v>10</v>
+      </c>
+      <c r="D827" t="s">
+        <v>11</v>
+      </c>
+      <c r="E827" t="s">
+        <v>19</v>
+      </c>
+      <c r="F827" t="s">
+        <v>21</v>
+      </c>
+      <c r="G827" t="s">
+        <v>28</v>
+      </c>
+      <c r="H827" t="s">
+        <v>57</v>
+      </c>
+      <c r="I827" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="828" spans="2:9">
+      <c r="B828" s="12" t="s">
+        <v>754</v>
+      </c>
+      <c r="C828" t="s">
+        <v>10</v>
+      </c>
+      <c r="D828" t="s">
+        <v>11</v>
+      </c>
+      <c r="E828" t="s">
+        <v>12</v>
+      </c>
+      <c r="F828" t="s">
+        <v>21</v>
+      </c>
+      <c r="G828" t="s">
+        <v>47</v>
+      </c>
+      <c r="H828" t="s">
+        <v>53</v>
+      </c>
+      <c r="I828" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="829" spans="2:9">
+      <c r="B829" s="12" t="s">
+        <v>755</v>
+      </c>
+      <c r="C829" t="s">
+        <v>10</v>
+      </c>
+      <c r="D829" t="s">
+        <v>11</v>
+      </c>
+      <c r="E829" t="s">
+        <v>19</v>
+      </c>
+      <c r="F829" t="s">
+        <v>21</v>
+      </c>
+      <c r="G829" t="s">
+        <v>28</v>
+      </c>
+      <c r="H829" t="s">
+        <v>53</v>
+      </c>
+      <c r="I829" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="830" spans="2:9">
+      <c r="B830" s="12" t="s">
+        <v>756</v>
+      </c>
+      <c r="C830" t="s">
+        <v>10</v>
+      </c>
+      <c r="D830" t="s">
+        <v>27</v>
+      </c>
+      <c r="E830" t="s">
+        <v>19</v>
+      </c>
+      <c r="F830" t="s">
+        <v>21</v>
+      </c>
+      <c r="G830" t="s">
+        <v>28</v>
+      </c>
+      <c r="H830" t="s">
+        <v>53</v>
+      </c>
+      <c r="I830" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="831" spans="2:9">
+      <c r="B831" s="12" t="s">
+        <v>757</v>
+      </c>
+      <c r="C831" t="s">
+        <v>10</v>
+      </c>
+      <c r="D831" t="s">
+        <v>11</v>
+      </c>
+      <c r="E831" t="s">
+        <v>19</v>
+      </c>
+      <c r="F831" t="s">
+        <v>21</v>
+      </c>
+      <c r="G831" t="s">
+        <v>70</v>
+      </c>
+      <c r="H831" t="s">
+        <v>25</v>
+      </c>
+      <c r="I831" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="832" spans="2:9">
+      <c r="B832" s="12" t="s">
+        <v>758</v>
+      </c>
+      <c r="C832" t="s">
+        <v>10</v>
+      </c>
+      <c r="D832" t="s">
+        <v>27</v>
+      </c>
+      <c r="E832" t="s">
+        <v>19</v>
+      </c>
+      <c r="F832" t="s">
+        <v>21</v>
+      </c>
+      <c r="G832" t="s">
+        <v>22</v>
+      </c>
+      <c r="H832" t="s">
+        <v>53</v>
+      </c>
+      <c r="I832" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="833" spans="2:9">
+      <c r="B833" s="12" t="s">
+        <v>759</v>
+      </c>
+      <c r="C833" t="s">
+        <v>24</v>
+      </c>
+      <c r="D833" t="s">
+        <v>27</v>
+      </c>
+      <c r="E833" t="s">
+        <v>12</v>
+      </c>
+      <c r="F833" t="s">
+        <v>21</v>
+      </c>
+      <c r="G833" t="s">
+        <v>22</v>
+      </c>
+      <c r="H833" t="s">
+        <v>38</v>
+      </c>
+      <c r="I833" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="834" spans="2:9">
+      <c r="B834" s="12" t="s">
+        <v>760</v>
+      </c>
+      <c r="C834" t="s">
+        <v>10</v>
+      </c>
+      <c r="D834" t="s">
+        <v>11</v>
+      </c>
+      <c r="E834" t="s">
+        <v>12</v>
+      </c>
+      <c r="F834" t="s">
+        <v>21</v>
+      </c>
+      <c r="G834" t="s">
+        <v>28</v>
+      </c>
+      <c r="H834" t="s">
+        <v>57</v>
+      </c>
+      <c r="I834" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="835" spans="2:9">
+      <c r="B835" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="C835" t="s">
+        <v>10</v>
+      </c>
+      <c r="D835" t="s">
+        <v>27</v>
+      </c>
+      <c r="E835" t="s">
+        <v>19</v>
+      </c>
+      <c r="F835" t="s">
+        <v>21</v>
+      </c>
+      <c r="G835" t="s">
+        <v>67</v>
+      </c>
+      <c r="H835" t="s">
+        <v>38</v>
+      </c>
+      <c r="I835" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="836" spans="2:9">
+      <c r="B836" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="C836" t="s">
+        <v>10</v>
+      </c>
+      <c r="D836" t="s">
+        <v>27</v>
+      </c>
+      <c r="E836" t="s">
+        <v>19</v>
+      </c>
+      <c r="F836" t="s">
+        <v>21</v>
+      </c>
+      <c r="G836" t="s">
+        <v>22</v>
+      </c>
+      <c r="H836" t="s">
+        <v>57</v>
+      </c>
+      <c r="I836" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="837" spans="2:9">
+      <c r="B837" s="12" t="s">
+        <v>763</v>
+      </c>
+      <c r="C837" t="s">
+        <v>31</v>
+      </c>
+      <c r="D837" t="s">
+        <v>18</v>
+      </c>
+      <c r="E837" t="s">
+        <v>12</v>
+      </c>
+      <c r="F837" t="s">
+        <v>21</v>
+      </c>
+      <c r="G837" t="s">
+        <v>47</v>
+      </c>
+      <c r="H837" t="s">
+        <v>38</v>
+      </c>
+      <c r="I837" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="838" spans="2:9">
+      <c r="B838" s="12" t="s">
+        <v>764</v>
+      </c>
+      <c r="C838" t="s">
+        <v>10</v>
+      </c>
+      <c r="D838" t="s">
+        <v>27</v>
+      </c>
+      <c r="E838" t="s">
+        <v>19</v>
+      </c>
+      <c r="F838" t="s">
+        <v>21</v>
+      </c>
+      <c r="G838" t="s">
+        <v>22</v>
+      </c>
+      <c r="H838" t="s">
+        <v>57</v>
+      </c>
+      <c r="I838" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="839" spans="2:9">
+      <c r="B839" s="12" t="s">
+        <v>765</v>
+      </c>
+      <c r="C839" t="s">
+        <v>10</v>
+      </c>
+      <c r="D839" t="s">
+        <v>27</v>
+      </c>
+      <c r="E839" t="s">
+        <v>19</v>
+      </c>
+      <c r="F839" t="s">
+        <v>13</v>
+      </c>
+      <c r="G839" t="s">
+        <v>22</v>
+      </c>
+      <c r="H839" t="s">
+        <v>15</v>
+      </c>
+      <c r="I839" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="840" spans="2:9">
+      <c r="B840" s="12" t="s">
+        <v>765</v>
+      </c>
+      <c r="C840" t="s">
+        <v>10</v>
+      </c>
+      <c r="D840" t="s">
+        <v>27</v>
+      </c>
+      <c r="E840" t="s">
+        <v>12</v>
+      </c>
+      <c r="F840" t="s">
+        <v>52</v>
+      </c>
+      <c r="G840" t="s">
+        <v>22</v>
+      </c>
+      <c r="H840" t="s">
+        <v>15</v>
+      </c>
+      <c r="I840" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="841" spans="2:9">
+      <c r="B841" s="12" t="s">
+        <v>765</v>
+      </c>
+      <c r="C841" t="s">
+        <v>25</v>
+      </c>
+      <c r="D841" t="s">
+        <v>27</v>
+      </c>
+      <c r="E841" t="s">
+        <v>32</v>
+      </c>
+      <c r="F841" t="s">
+        <v>21</v>
+      </c>
+      <c r="G841" t="s">
+        <v>28</v>
+      </c>
+      <c r="H841" t="s">
+        <v>38</v>
+      </c>
+      <c r="I841" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="842" spans="2:9">
+      <c r="B842" s="12" t="s">
+        <v>766</v>
+      </c>
+      <c r="C842" t="s">
+        <v>10</v>
+      </c>
+      <c r="D842" t="s">
+        <v>11</v>
+      </c>
+      <c r="E842" t="s">
+        <v>19</v>
+      </c>
+      <c r="F842" t="s">
+        <v>21</v>
+      </c>
+      <c r="G842" t="s">
+        <v>47</v>
+      </c>
+      <c r="H842" t="s">
+        <v>38</v>
+      </c>
+      <c r="I842" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="843" spans="2:9">
+      <c r="B843" s="12" t="s">
+        <v>767</v>
+      </c>
+      <c r="C843" t="s">
+        <v>10</v>
+      </c>
+      <c r="D843" t="s">
+        <v>27</v>
+      </c>
+      <c r="E843" t="s">
+        <v>19</v>
+      </c>
+      <c r="F843" t="s">
+        <v>21</v>
+      </c>
+      <c r="G843" t="s">
+        <v>67</v>
+      </c>
+      <c r="H843" t="s">
+        <v>57</v>
+      </c>
+      <c r="I843" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="844" spans="2:9">
+      <c r="B844" s="12" t="s">
+        <v>768</v>
+      </c>
+      <c r="C844" t="s">
+        <v>10</v>
+      </c>
+      <c r="D844" t="s">
+        <v>27</v>
+      </c>
+      <c r="E844" t="s">
+        <v>55</v>
+      </c>
+      <c r="F844" t="s">
+        <v>13</v>
+      </c>
+      <c r="G844" t="s">
+        <v>22</v>
+      </c>
+      <c r="H844" t="s">
+        <v>38</v>
+      </c>
+      <c r="I844" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="845" spans="2:9">
+      <c r="B845" s="12" t="s">
+        <v>769</v>
+      </c>
+      <c r="C845" t="s">
+        <v>10</v>
+      </c>
+      <c r="D845" t="s">
+        <v>27</v>
+      </c>
+      <c r="E845" t="s">
+        <v>55</v>
+      </c>
+      <c r="F845" t="s">
+        <v>21</v>
+      </c>
+      <c r="G845" t="s">
+        <v>28</v>
+      </c>
+      <c r="H845" t="s">
+        <v>26</v>
+      </c>
+      <c r="I845" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="846" spans="2:9">
+      <c r="B846" s="12" t="s">
+        <v>770</v>
+      </c>
+      <c r="C846" t="s">
+        <v>10</v>
+      </c>
+      <c r="D846" t="s">
+        <v>27</v>
+      </c>
+      <c r="E846" t="s">
+        <v>19</v>
+      </c>
+      <c r="F846" t="s">
+        <v>21</v>
+      </c>
+      <c r="G846" t="s">
+        <v>28</v>
+      </c>
+      <c r="H846" t="s">
+        <v>43</v>
+      </c>
+      <c r="I846" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="847" spans="2:9">
+      <c r="B847" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="C847" t="s">
+        <v>10</v>
+      </c>
+      <c r="D847" t="s">
+        <v>27</v>
+      </c>
+      <c r="E847" t="s">
+        <v>55</v>
+      </c>
+      <c r="F847" t="s">
+        <v>21</v>
+      </c>
+      <c r="G847" t="s">
+        <v>28</v>
+      </c>
+      <c r="H847" t="s">
+        <v>26</v>
+      </c>
+      <c r="I847" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="848" spans="2:9">
+      <c r="B848" s="12" t="s">
+        <v>772</v>
+      </c>
+      <c r="C848" t="s">
+        <v>10</v>
+      </c>
+      <c r="D848" t="s">
+        <v>27</v>
+      </c>
+      <c r="E848" t="s">
+        <v>55</v>
+      </c>
+      <c r="F848" t="s">
+        <v>13</v>
+      </c>
+      <c r="G848" t="s">
+        <v>22</v>
+      </c>
+      <c r="H848" t="s">
+        <v>15</v>
+      </c>
+      <c r="I848" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="849" spans="2:9">
+      <c r="B849" s="12" t="s">
+        <v>773</v>
+      </c>
+      <c r="C849" t="s">
+        <v>48</v>
+      </c>
+      <c r="D849" t="s">
+        <v>27</v>
+      </c>
+      <c r="E849" t="s">
+        <v>12</v>
+      </c>
+      <c r="F849" t="s">
+        <v>21</v>
+      </c>
+      <c r="G849" t="s">
+        <v>28</v>
+      </c>
+      <c r="H849" t="s">
+        <v>38</v>
+      </c>
+      <c r="I849" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="850" spans="2:9">
+      <c r="B850" s="12" t="s">
+        <v>774</v>
+      </c>
+      <c r="C850" t="s">
+        <v>10</v>
+      </c>
+      <c r="D850" t="s">
+        <v>18</v>
+      </c>
+      <c r="E850" t="s">
+        <v>12</v>
+      </c>
+      <c r="F850" t="s">
+        <v>21</v>
+      </c>
+      <c r="G850" t="s">
+        <v>28</v>
+      </c>
+      <c r="H850" t="s">
+        <v>38</v>
+      </c>
+      <c r="I850" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="851" spans="2:9">
+      <c r="B851" s="12" t="s">
+        <v>774</v>
+      </c>
+      <c r="C851" t="s">
+        <v>31</v>
+      </c>
+      <c r="D851" t="s">
+        <v>27</v>
+      </c>
+      <c r="E851" t="s">
+        <v>32</v>
+      </c>
+      <c r="F851" t="s">
+        <v>13</v>
+      </c>
+      <c r="G851" t="s">
+        <v>37</v>
+      </c>
+      <c r="H851" t="s">
+        <v>57</v>
+      </c>
+      <c r="I851" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="852" spans="2:9">
+      <c r="B852" s="12" t="s">
+        <v>775</v>
+      </c>
+      <c r="C852" t="s">
+        <v>10</v>
+      </c>
+      <c r="D852" t="s">
+        <v>11</v>
+      </c>
+      <c r="E852" t="s">
+        <v>55</v>
+      </c>
+      <c r="F852" t="s">
+        <v>13</v>
+      </c>
+      <c r="G852" t="s">
+        <v>37</v>
+      </c>
+      <c r="H852" t="s">
+        <v>25</v>
+      </c>
+      <c r="I852" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="853" spans="2:9">
+      <c r="B853" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="C853" t="s">
+        <v>10</v>
+      </c>
+      <c r="D853" t="s">
+        <v>27</v>
+      </c>
+      <c r="E853" t="s">
+        <v>12</v>
+      </c>
+      <c r="F853" t="s">
+        <v>21</v>
+      </c>
+      <c r="G853" t="s">
+        <v>28</v>
+      </c>
+      <c r="H853" t="s">
+        <v>53</v>
+      </c>
+      <c r="I853" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="854" spans="2:9">
+      <c r="B854" s="12" t="s">
+        <v>777</v>
+      </c>
+      <c r="C854" t="s">
+        <v>44</v>
+      </c>
+      <c r="D854" t="s">
+        <v>27</v>
+      </c>
+      <c r="E854" t="s">
+        <v>32</v>
+      </c>
+      <c r="F854" t="s">
+        <v>21</v>
+      </c>
+      <c r="G854" t="s">
+        <v>65</v>
+      </c>
+      <c r="H854" t="s">
+        <v>53</v>
+      </c>
+      <c r="I854" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="855" spans="2:9">
+      <c r="B855" s="12" t="s">
+        <v>778</v>
+      </c>
+      <c r="C855" t="s">
+        <v>10</v>
+      </c>
+      <c r="D855" t="s">
+        <v>11</v>
+      </c>
+      <c r="E855" t="s">
+        <v>19</v>
+      </c>
+      <c r="F855" t="s">
+        <v>21</v>
+      </c>
+      <c r="G855" t="s">
+        <v>47</v>
+      </c>
+      <c r="H855" t="s">
+        <v>38</v>
+      </c>
+      <c r="I855" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="856" spans="2:9">
+      <c r="B856" s="12" t="s">
+        <v>778</v>
+      </c>
+      <c r="C856" t="s">
+        <v>31</v>
+      </c>
+      <c r="D856" t="s">
+        <v>27</v>
+      </c>
+      <c r="E856" t="s">
+        <v>32</v>
+      </c>
+      <c r="F856" t="s">
+        <v>21</v>
+      </c>
+      <c r="G856" t="s">
+        <v>47</v>
+      </c>
+      <c r="H856" t="s">
+        <v>38</v>
+      </c>
+      <c r="I856" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="857" spans="2:9">
+      <c r="B857" s="12" t="s">
+        <v>778</v>
+      </c>
+      <c r="C857" t="s">
+        <v>31</v>
+      </c>
+      <c r="D857" t="s">
+        <v>27</v>
+      </c>
+      <c r="E857" t="s">
+        <v>12</v>
+      </c>
+      <c r="F857" t="s">
+        <v>13</v>
+      </c>
+      <c r="G857" t="s">
+        <v>28</v>
+      </c>
+      <c r="H857" t="s">
+        <v>38</v>
+      </c>
+      <c r="I857" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="858" spans="2:9">
+      <c r="B858" s="12" t="s">
+        <v>779</v>
+      </c>
+      <c r="C858" t="s">
+        <v>25</v>
+      </c>
+      <c r="D858" t="s">
+        <v>27</v>
+      </c>
+      <c r="E858" t="s">
+        <v>32</v>
+      </c>
+      <c r="F858" t="s">
+        <v>33</v>
+      </c>
+      <c r="G858" t="s">
+        <v>28</v>
+      </c>
+      <c r="H858" t="s">
+        <v>38</v>
+      </c>
+      <c r="I858" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="859" spans="2:9">
+      <c r="B859" s="12" t="s">
+        <v>780</v>
+      </c>
+      <c r="C859" t="s">
+        <v>10</v>
+      </c>
+      <c r="D859" t="s">
+        <v>27</v>
+      </c>
+      <c r="E859" t="s">
+        <v>19</v>
+      </c>
+      <c r="F859" t="s">
+        <v>21</v>
+      </c>
+      <c r="G859" t="s">
+        <v>22</v>
+      </c>
+      <c r="H859" t="s">
+        <v>53</v>
+      </c>
+      <c r="I859" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="860" spans="2:9">
+      <c r="B860" s="12" t="s">
+        <v>781</v>
+      </c>
+      <c r="C860" t="s">
+        <v>48</v>
+      </c>
+      <c r="D860" t="s">
+        <v>27</v>
+      </c>
+      <c r="E860" t="s">
+        <v>32</v>
+      </c>
+      <c r="F860" t="s">
+        <v>21</v>
+      </c>
+      <c r="G860" t="s">
+        <v>28</v>
+      </c>
+      <c r="H860" t="s">
+        <v>38</v>
+      </c>
+      <c r="I860" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="861" spans="2:9">
+      <c r="B861" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="C861" t="s">
+        <v>10</v>
+      </c>
+      <c r="D861" t="s">
+        <v>27</v>
+      </c>
+      <c r="E861" t="s">
+        <v>12</v>
+      </c>
+      <c r="F861" t="s">
+        <v>13</v>
+      </c>
+      <c r="G861" t="s">
+        <v>28</v>
+      </c>
+      <c r="H861" t="s">
+        <v>38</v>
+      </c>
+      <c r="I861" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="862" spans="2:9">
+      <c r="B862" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="C862" t="s">
+        <v>10</v>
+      </c>
+      <c r="D862" t="s">
+        <v>27</v>
+      </c>
+      <c r="E862" t="s">
+        <v>19</v>
+      </c>
+      <c r="F862" t="s">
+        <v>21</v>
+      </c>
+      <c r="G862" t="s">
+        <v>37</v>
+      </c>
+      <c r="H862" t="s">
+        <v>38</v>
+      </c>
+      <c r="I862" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="863" spans="2:9">
+      <c r="B863" s="12" t="s">
+        <v>784</v>
+      </c>
+      <c r="C863" t="s">
+        <v>10</v>
+      </c>
+      <c r="D863" t="s">
+        <v>18</v>
+      </c>
+      <c r="E863" t="s">
+        <v>12</v>
+      </c>
+      <c r="F863" t="s">
+        <v>21</v>
+      </c>
+      <c r="G863" t="s">
+        <v>47</v>
+      </c>
+      <c r="H863" t="s">
+        <v>53</v>
+      </c>
+      <c r="I863" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="864" spans="2:9">
+      <c r="B864" s="12" t="s">
+        <v>785</v>
+      </c>
+      <c r="C864" t="s">
+        <v>10</v>
+      </c>
+      <c r="D864" t="s">
+        <v>11</v>
+      </c>
+      <c r="E864" t="s">
+        <v>60</v>
+      </c>
+      <c r="F864" t="s">
+        <v>21</v>
+      </c>
+      <c r="G864" t="s">
+        <v>37</v>
+      </c>
+      <c r="H864" t="s">
+        <v>25</v>
+      </c>
+      <c r="I864" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="865" spans="2:9">
+      <c r="B865" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="C865" t="s">
+        <v>48</v>
+      </c>
+      <c r="D865" t="s">
+        <v>27</v>
+      </c>
+      <c r="E865" t="s">
+        <v>19</v>
+      </c>
+      <c r="F865" t="s">
+        <v>21</v>
+      </c>
+      <c r="G865" t="s">
+        <v>22</v>
+      </c>
+      <c r="H865" t="s">
+        <v>53</v>
+      </c>
+      <c r="I865" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="866" spans="2:9">
+      <c r="B866" s="12" t="s">
+        <v>787</v>
+      </c>
+      <c r="C866" t="s">
+        <v>10</v>
+      </c>
+      <c r="D866" t="s">
+        <v>27</v>
+      </c>
+      <c r="E866" t="s">
+        <v>19</v>
+      </c>
+      <c r="F866" t="s">
+        <v>21</v>
+      </c>
+      <c r="G866" t="s">
+        <v>22</v>
+      </c>
+      <c r="H866" t="s">
+        <v>53</v>
+      </c>
+      <c r="I866" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="867" spans="2:9">
+      <c r="B867" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="C867" t="s">
+        <v>24</v>
+      </c>
+      <c r="D867" t="s">
+        <v>27</v>
+      </c>
+      <c r="E867" t="s">
+        <v>12</v>
+      </c>
+      <c r="F867" t="s">
+        <v>13</v>
+      </c>
+      <c r="G867" t="s">
+        <v>22</v>
+      </c>
+      <c r="H867" t="s">
+        <v>53</v>
+      </c>
+      <c r="I867" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="868" spans="2:9">
+      <c r="B868" s="12" t="s">
+        <v>789</v>
+      </c>
+      <c r="C868" t="s">
+        <v>31</v>
+      </c>
+      <c r="D868" t="s">
+        <v>27</v>
+      </c>
+      <c r="E868" t="s">
+        <v>12</v>
+      </c>
+      <c r="F868" t="s">
+        <v>13</v>
+      </c>
+      <c r="G868" t="s">
+        <v>28</v>
+      </c>
+      <c r="H868" t="s">
+        <v>53</v>
+      </c>
+      <c r="I868" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="869" spans="2:9">
+      <c r="B869" s="12" t="s">
+        <v>790</v>
+      </c>
+      <c r="C869" t="s">
+        <v>10</v>
+      </c>
+      <c r="D869" t="s">
+        <v>27</v>
+      </c>
+      <c r="E869" t="s">
+        <v>12</v>
+      </c>
+      <c r="F869" t="s">
+        <v>21</v>
+      </c>
+      <c r="G869" t="s">
+        <v>22</v>
+      </c>
+      <c r="H869" t="s">
+        <v>38</v>
+      </c>
+      <c r="I869" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="870" spans="2:9">
+      <c r="B870" s="12" t="s">
+        <v>791</v>
+      </c>
+      <c r="C870" t="s">
+        <v>10</v>
+      </c>
+      <c r="D870" t="s">
+        <v>27</v>
+      </c>
+      <c r="E870" t="s">
+        <v>19</v>
+      </c>
+      <c r="F870" t="s">
+        <v>52</v>
+      </c>
+      <c r="G870" t="s">
+        <v>22</v>
+      </c>
+      <c r="H870" t="s">
+        <v>15</v>
+      </c>
+      <c r="I870" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="871" spans="2:9">
+      <c r="B871" s="12" t="s">
+        <v>792</v>
+      </c>
+      <c r="C871" t="s">
+        <v>10</v>
+      </c>
+      <c r="D871" t="s">
+        <v>27</v>
+      </c>
+      <c r="E871" t="s">
+        <v>19</v>
+      </c>
+      <c r="F871" t="s">
+        <v>21</v>
+      </c>
+      <c r="G871" t="s">
+        <v>28</v>
+      </c>
+      <c r="H871" t="s">
+        <v>38</v>
+      </c>
+      <c r="I871" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="872" spans="2:9">
+      <c r="B872" s="12" t="s">
+        <v>793</v>
+      </c>
+      <c r="C872" t="s">
+        <v>10</v>
+      </c>
+      <c r="D872" t="s">
+        <v>11</v>
+      </c>
+      <c r="E872" t="s">
+        <v>19</v>
+      </c>
+      <c r="F872" t="s">
+        <v>13</v>
+      </c>
+      <c r="G872" t="s">
+        <v>28</v>
+      </c>
+      <c r="H872" t="s">
+        <v>38</v>
+      </c>
+      <c r="I872" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="873" spans="2:9">
+      <c r="B873" s="12" t="s">
+        <v>794</v>
+      </c>
+      <c r="C873" t="s">
+        <v>10</v>
+      </c>
+      <c r="D873" t="s">
+        <v>27</v>
+      </c>
+      <c r="E873" t="s">
+        <v>19</v>
+      </c>
+      <c r="F873" t="s">
+        <v>13</v>
+      </c>
+      <c r="G873" t="s">
+        <v>22</v>
+      </c>
+      <c r="H873" t="s">
+        <v>26</v>
+      </c>
+      <c r="I873" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="874" spans="2:9">
+      <c r="B874" s="12" t="s">
+        <v>795</v>
+      </c>
+      <c r="C874" t="s">
+        <v>10</v>
+      </c>
+      <c r="D874" t="s">
+        <v>11</v>
+      </c>
+      <c r="E874" t="s">
+        <v>12</v>
+      </c>
+      <c r="F874" t="s">
+        <v>21</v>
+      </c>
+      <c r="G874" t="s">
+        <v>65</v>
+      </c>
+      <c r="H874" t="s">
+        <v>38</v>
+      </c>
+      <c r="I874" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="875" spans="2:9">
+      <c r="B875" s="12" t="s">
+        <v>796</v>
+      </c>
+      <c r="C875" t="s">
+        <v>10</v>
+      </c>
+      <c r="D875" t="s">
+        <v>27</v>
+      </c>
+      <c r="E875" t="s">
+        <v>19</v>
+      </c>
+      <c r="F875" t="s">
+        <v>13</v>
+      </c>
+      <c r="G875" t="s">
+        <v>65</v>
+      </c>
+      <c r="H875" t="s">
+        <v>38</v>
+      </c>
+      <c r="I875" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="876" spans="2:9">
+      <c r="B876" s="12" t="s">
+        <v>797</v>
+      </c>
+      <c r="C876" t="s">
+        <v>10</v>
+      </c>
+      <c r="D876" t="s">
+        <v>27</v>
+      </c>
+      <c r="E876" t="s">
+        <v>19</v>
+      </c>
+      <c r="F876" t="s">
+        <v>13</v>
+      </c>
+      <c r="G876" t="s">
+        <v>65</v>
+      </c>
+      <c r="H876" t="s">
+        <v>38</v>
+      </c>
+      <c r="I876" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="877" spans="2:9">
+      <c r="B877" s="12" t="s">
+        <v>798</v>
+      </c>
+      <c r="C877" t="s">
+        <v>10</v>
+      </c>
+      <c r="D877" t="s">
+        <v>11</v>
+      </c>
+      <c r="E877" t="s">
+        <v>55</v>
+      </c>
+      <c r="F877" t="s">
+        <v>33</v>
+      </c>
+      <c r="G877" t="s">
+        <v>22</v>
+      </c>
+      <c r="H877" t="s">
+        <v>15</v>
+      </c>
+      <c r="I877" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="878" spans="2:9">
+      <c r="B878" s="12" t="s">
+        <v>799</v>
+      </c>
+      <c r="C878" t="s">
+        <v>10</v>
+      </c>
+      <c r="D878" t="s">
+        <v>18</v>
+      </c>
+      <c r="E878" t="s">
+        <v>19</v>
+      </c>
+      <c r="F878" t="s">
+        <v>21</v>
+      </c>
+      <c r="G878" t="s">
+        <v>47</v>
+      </c>
+      <c r="H878" t="s">
+        <v>53</v>
+      </c>
+      <c r="I878" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="879" spans="2:9">
+      <c r="B879" s="12" t="s">
+        <v>800</v>
+      </c>
+      <c r="C879" t="s">
+        <v>24</v>
+      </c>
+      <c r="D879" t="s">
+        <v>11</v>
+      </c>
+      <c r="E879" t="s">
+        <v>12</v>
+      </c>
+      <c r="F879" t="s">
+        <v>13</v>
+      </c>
+      <c r="G879" t="s">
+        <v>28</v>
+      </c>
+      <c r="H879" t="s">
+        <v>53</v>
+      </c>
+      <c r="I879" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="880" spans="2:9">
+      <c r="B880" s="12" t="s">
+        <v>800</v>
+      </c>
+      <c r="C880" t="s">
+        <v>10</v>
+      </c>
+      <c r="D880" t="s">
+        <v>11</v>
+      </c>
+      <c r="E880" t="s">
+        <v>32</v>
+      </c>
+      <c r="F880" t="s">
+        <v>13</v>
+      </c>
+      <c r="G880" t="s">
+        <v>28</v>
+      </c>
+      <c r="H880" t="s">
+        <v>26</v>
+      </c>
+      <c r="I880" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="881" spans="2:9">
+      <c r="B881" s="12" t="s">
+        <v>801</v>
+      </c>
+      <c r="C881" t="s">
+        <v>24</v>
+      </c>
+      <c r="D881" t="s">
+        <v>27</v>
+      </c>
+      <c r="E881" t="s">
+        <v>19</v>
+      </c>
+      <c r="F881" t="s">
+        <v>52</v>
+      </c>
+      <c r="G881" t="s">
+        <v>70</v>
+      </c>
+      <c r="H881" t="s">
+        <v>57</v>
+      </c>
+      <c r="I881" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="882" spans="2:9">
+      <c r="B882" s="12" t="s">
+        <v>801</v>
+      </c>
+      <c r="C882" t="s">
+        <v>10</v>
+      </c>
+      <c r="D882" t="s">
+        <v>27</v>
+      </c>
+      <c r="E882" t="s">
+        <v>12</v>
+      </c>
+      <c r="F882" t="s">
+        <v>52</v>
+      </c>
+      <c r="G882" t="s">
+        <v>70</v>
+      </c>
+      <c r="H882" t="s">
+        <v>43</v>
+      </c>
+      <c r="I882" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="883" spans="2:9">
+      <c r="B883" s="12" t="s">
+        <v>801</v>
+      </c>
+      <c r="C883" t="s">
+        <v>10</v>
+      </c>
+      <c r="D883" t="s">
+        <v>27</v>
+      </c>
+      <c r="E883" t="s">
+        <v>55</v>
+      </c>
+      <c r="F883" t="s">
+        <v>13</v>
+      </c>
+      <c r="G883" t="s">
+        <v>37</v>
+      </c>
+      <c r="H883" t="s">
+        <v>25</v>
+      </c>
+      <c r="I883" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="884" spans="2:9">
+      <c r="B884" s="12" t="s">
+        <v>802</v>
+      </c>
+      <c r="C884" t="s">
+        <v>10</v>
+      </c>
+      <c r="D884" t="s">
+        <v>11</v>
+      </c>
+      <c r="E884" t="s">
+        <v>19</v>
+      </c>
+      <c r="F884" t="s">
+        <v>13</v>
+      </c>
+      <c r="G884" t="s">
+        <v>22</v>
+      </c>
+      <c r="H884" t="s">
+        <v>26</v>
+      </c>
+      <c r="I884" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="885" spans="2:9">
+      <c r="B885" s="12" t="s">
+        <v>803</v>
+      </c>
+      <c r="C885" t="s">
+        <v>24</v>
+      </c>
+      <c r="D885" t="s">
+        <v>11</v>
+      </c>
+      <c r="E885" t="s">
+        <v>12</v>
+      </c>
+      <c r="F885" t="s">
+        <v>21</v>
+      </c>
+      <c r="G885" t="s">
+        <v>28</v>
+      </c>
+      <c r="H885" t="s">
+        <v>38</v>
+      </c>
+      <c r="I885" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="886" spans="2:9">
+      <c r="B886" s="12" t="s">
+        <v>804</v>
+      </c>
+      <c r="C886" t="s">
+        <v>10</v>
+      </c>
+      <c r="D886" t="s">
+        <v>27</v>
+      </c>
+      <c r="E886" t="s">
+        <v>32</v>
+      </c>
+      <c r="F886" t="s">
+        <v>13</v>
+      </c>
+      <c r="G886" t="s">
+        <v>28</v>
+      </c>
+      <c r="H886" t="s">
+        <v>53</v>
+      </c>
+      <c r="I886" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="887" spans="2:9">
+      <c r="B887" s="12" t="s">
+        <v>805</v>
+      </c>
+      <c r="C887" t="s">
+        <v>10</v>
+      </c>
+      <c r="D887" t="s">
+        <v>27</v>
+      </c>
+      <c r="E887" t="s">
+        <v>55</v>
+      </c>
+      <c r="F887" t="s">
+        <v>13</v>
+      </c>
+      <c r="G887" t="s">
+        <v>22</v>
+      </c>
+      <c r="H887" t="s">
+        <v>57</v>
+      </c>
+      <c r="I887" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="888" spans="2:9">
+      <c r="B888" s="12" t="s">
+        <v>806</v>
+      </c>
+      <c r="C888" t="s">
+        <v>10</v>
+      </c>
+      <c r="D888" t="s">
+        <v>27</v>
+      </c>
+      <c r="E888" t="s">
+        <v>55</v>
+      </c>
+      <c r="F888" t="s">
+        <v>13</v>
+      </c>
+      <c r="G888" t="s">
+        <v>22</v>
+      </c>
+      <c r="H888" t="s">
+        <v>57</v>
+      </c>
+      <c r="I888" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="889" spans="2:9">
+      <c r="B889" s="12" t="s">
+        <v>807</v>
+      </c>
+      <c r="C889" t="s">
+        <v>36</v>
+      </c>
+      <c r="D889" t="s">
+        <v>27</v>
+      </c>
+      <c r="E889" t="s">
+        <v>32</v>
+      </c>
+      <c r="F889" t="s">
+        <v>33</v>
+      </c>
+      <c r="G889" t="s">
+        <v>28</v>
+      </c>
+      <c r="H889" t="s">
+        <v>53</v>
+      </c>
+      <c r="I889" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="890" spans="2:9">
+      <c r="B890" s="12" t="s">
+        <v>808</v>
+      </c>
+      <c r="C890" t="s">
+        <v>10</v>
+      </c>
+      <c r="D890" t="s">
+        <v>18</v>
+      </c>
+      <c r="E890" t="s">
+        <v>12</v>
+      </c>
+      <c r="F890" t="s">
+        <v>21</v>
+      </c>
+      <c r="G890" t="s">
+        <v>28</v>
+      </c>
+      <c r="H890" t="s">
+        <v>53</v>
+      </c>
+      <c r="I890" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="891" spans="2:9">
+      <c r="B891" s="12" t="s">
+        <v>808</v>
+      </c>
+      <c r="C891" t="s">
+        <v>10</v>
+      </c>
+      <c r="D891" t="s">
+        <v>27</v>
+      </c>
+      <c r="E891" t="s">
+        <v>12</v>
+      </c>
+      <c r="F891" t="s">
+        <v>21</v>
+      </c>
+      <c r="G891" t="s">
+        <v>28</v>
+      </c>
+      <c r="H891" t="s">
+        <v>43</v>
+      </c>
+      <c r="I891" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="892" spans="2:9">
+      <c r="B892" s="12" t="s">
+        <v>809</v>
+      </c>
+      <c r="C892" t="s">
+        <v>10</v>
+      </c>
+      <c r="D892" t="s">
+        <v>11</v>
+      </c>
+      <c r="E892" t="s">
+        <v>19</v>
+      </c>
+      <c r="F892" t="s">
+        <v>21</v>
+      </c>
+      <c r="G892" t="s">
+        <v>47</v>
+      </c>
+      <c r="H892" t="s">
+        <v>38</v>
+      </c>
+      <c r="I892" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="893" spans="2:9">
+      <c r="B893" s="12" t="s">
+        <v>809</v>
+      </c>
+      <c r="C893" t="s">
+        <v>10</v>
+      </c>
+      <c r="D893" t="s">
+        <v>27</v>
+      </c>
+      <c r="E893" t="s">
+        <v>55</v>
+      </c>
+      <c r="F893" t="s">
+        <v>13</v>
+      </c>
+      <c r="G893" t="s">
+        <v>28</v>
+      </c>
+      <c r="H893" t="s">
+        <v>57</v>
+      </c>
+      <c r="I893" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="894" spans="2:9">
+      <c r="B894" s="12" t="s">
+        <v>810</v>
+      </c>
+      <c r="C894" t="s">
+        <v>10</v>
+      </c>
+      <c r="D894" t="s">
+        <v>27</v>
+      </c>
+      <c r="E894" t="s">
+        <v>12</v>
+      </c>
+      <c r="F894" t="s">
+        <v>21</v>
+      </c>
+      <c r="G894" t="s">
+        <v>28</v>
+      </c>
+      <c r="H894" t="s">
+        <v>38</v>
+      </c>
+      <c r="I894" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="895" spans="2:9">
+      <c r="B895" s="12" t="s">
+        <v>811</v>
+      </c>
+      <c r="C895" t="s">
+        <v>10</v>
+      </c>
+      <c r="D895" t="s">
+        <v>27</v>
+      </c>
+      <c r="E895" t="s">
+        <v>12</v>
+      </c>
+      <c r="F895" t="s">
+        <v>52</v>
+      </c>
+      <c r="G895" t="s">
+        <v>22</v>
+      </c>
+      <c r="H895" t="s">
+        <v>15</v>
+      </c>
+      <c r="I895" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="896" spans="2:9">
+      <c r="B896" s="12" t="s">
+        <v>812</v>
+      </c>
+      <c r="C896" t="s">
+        <v>10</v>
+      </c>
+      <c r="D896" t="s">
+        <v>27</v>
+      </c>
+      <c r="E896" t="s">
+        <v>19</v>
+      </c>
+      <c r="F896" t="s">
+        <v>21</v>
+      </c>
+      <c r="G896" t="s">
+        <v>65</v>
+      </c>
+      <c r="H896" t="s">
+        <v>38</v>
+      </c>
+      <c r="I896" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="897" spans="2:9">
+      <c r="B897" s="12" t="s">
+        <v>813</v>
+      </c>
+      <c r="C897" t="s">
+        <v>36</v>
+      </c>
+      <c r="D897" t="s">
+        <v>27</v>
+      </c>
+      <c r="E897" t="s">
+        <v>12</v>
+      </c>
+      <c r="F897" t="s">
+        <v>33</v>
+      </c>
+      <c r="G897" t="s">
+        <v>37</v>
+      </c>
+      <c r="H897" t="s">
+        <v>25</v>
+      </c>
+      <c r="I897" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="898" spans="2:9">
+      <c r="B898" s="12" t="s">
+        <v>814</v>
+      </c>
+      <c r="C898" t="s">
+        <v>36</v>
+      </c>
+      <c r="D898" t="s">
+        <v>27</v>
+      </c>
+      <c r="E898" t="s">
+        <v>12</v>
+      </c>
+      <c r="F898" t="s">
+        <v>21</v>
+      </c>
+      <c r="G898" t="s">
+        <v>28</v>
+      </c>
+      <c r="H898" t="s">
+        <v>53</v>
+      </c>
+      <c r="I898" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="899" spans="2:9">
+      <c r="B899" s="12" t="s">
+        <v>815</v>
+      </c>
+      <c r="C899" t="s">
+        <v>10</v>
+      </c>
+      <c r="D899" t="s">
+        <v>27</v>
+      </c>
+      <c r="E899" t="s">
+        <v>19</v>
+      </c>
+      <c r="F899" t="s">
+        <v>13</v>
+      </c>
+      <c r="G899" t="s">
+        <v>28</v>
+      </c>
+      <c r="H899" t="s">
+        <v>53</v>
+      </c>
+      <c r="I899" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="900" spans="2:9">
+      <c r="B900" s="12" t="s">
+        <v>816</v>
+      </c>
+      <c r="C900" t="s">
+        <v>10</v>
+      </c>
+      <c r="D900" t="s">
+        <v>27</v>
+      </c>
+      <c r="E900" t="s">
+        <v>55</v>
+      </c>
+      <c r="F900" t="s">
+        <v>21</v>
+      </c>
+      <c r="G900" t="s">
+        <v>22</v>
+      </c>
+      <c r="H900" t="s">
+        <v>15</v>
+      </c>
+      <c r="I900" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="901" spans="2:9">
+      <c r="B901" s="12" t="s">
+        <v>817</v>
+      </c>
+      <c r="C901" t="s">
+        <v>31</v>
+      </c>
+      <c r="D901" t="s">
+        <v>27</v>
+      </c>
+      <c r="E901" t="s">
+        <v>12</v>
+      </c>
+      <c r="F901" t="s">
+        <v>13</v>
+      </c>
+      <c r="G901" t="s">
+        <v>28</v>
+      </c>
+      <c r="H901" t="s">
+        <v>26</v>
+      </c>
+      <c r="I901" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="902" spans="2:9">
+      <c r="B902" s="12" t="s">
+        <v>818</v>
+      </c>
+      <c r="C902" t="s">
+        <v>44</v>
+      </c>
+      <c r="D902" t="s">
+        <v>27</v>
+      </c>
+      <c r="E902" t="s">
+        <v>19</v>
+      </c>
+      <c r="F902" t="s">
+        <v>21</v>
+      </c>
+      <c r="G902" t="s">
+        <v>65</v>
+      </c>
+      <c r="H902" t="s">
+        <v>38</v>
+      </c>
+      <c r="I902" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="903" spans="2:9">
+      <c r="B903" s="12" t="s">
+        <v>819</v>
+      </c>
+      <c r="C903" t="s">
+        <v>10</v>
+      </c>
+      <c r="D903" t="s">
+        <v>18</v>
+      </c>
+      <c r="E903" t="s">
+        <v>12</v>
+      </c>
+      <c r="F903" t="s">
+        <v>21</v>
+      </c>
+      <c r="G903" t="s">
+        <v>47</v>
+      </c>
+      <c r="H903" t="s">
+        <v>38</v>
+      </c>
+      <c r="I903" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="904" spans="2:9">
+      <c r="B904" s="12" t="s">
+        <v>820</v>
+      </c>
+      <c r="C904" t="s">
+        <v>10</v>
+      </c>
+      <c r="D904" t="s">
+        <v>27</v>
+      </c>
+      <c r="E904" t="s">
+        <v>19</v>
+      </c>
+      <c r="F904" t="s">
+        <v>21</v>
+      </c>
+      <c r="G904" t="s">
+        <v>28</v>
+      </c>
+      <c r="H904" t="s">
+        <v>53</v>
+      </c>
+      <c r="I904" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="905" spans="2:9">
+      <c r="B905" s="12" t="s">
+        <v>821</v>
+      </c>
+      <c r="C905" t="s">
+        <v>10</v>
+      </c>
+      <c r="D905" t="s">
+        <v>11</v>
+      </c>
+      <c r="E905" t="s">
+        <v>19</v>
+      </c>
+      <c r="F905" t="s">
+        <v>21</v>
+      </c>
+      <c r="G905" t="s">
+        <v>28</v>
+      </c>
+      <c r="H905" t="s">
+        <v>15</v>
+      </c>
+      <c r="I905" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="906" spans="2:9">
+      <c r="B906" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="C906" t="s">
+        <v>36</v>
+      </c>
+      <c r="D906" t="s">
+        <v>27</v>
+      </c>
+      <c r="E906" t="s">
+        <v>12</v>
+      </c>
+      <c r="F906" t="s">
+        <v>21</v>
+      </c>
+      <c r="G906" t="s">
+        <v>28</v>
+      </c>
+      <c r="H906" t="s">
+        <v>25</v>
+      </c>
+      <c r="I906" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="907" spans="2:9">
+      <c r="B907" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="C907" t="s">
+        <v>24</v>
+      </c>
+      <c r="D907" t="s">
+        <v>27</v>
+      </c>
+      <c r="E907" t="s">
+        <v>19</v>
+      </c>
+      <c r="F907" t="s">
+        <v>13</v>
+      </c>
+      <c r="G907" t="s">
+        <v>28</v>
+      </c>
+      <c r="H907" t="s">
+        <v>53</v>
+      </c>
+      <c r="I907" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="908" spans="2:9">
+      <c r="B908" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="C908" t="s">
+        <v>10</v>
+      </c>
+      <c r="D908" t="s">
+        <v>11</v>
+      </c>
+      <c r="E908" t="s">
+        <v>19</v>
+      </c>
+      <c r="F908" t="s">
+        <v>13</v>
+      </c>
+      <c r="G908" t="s">
+        <v>22</v>
+      </c>
+      <c r="H908" t="s">
+        <v>26</v>
+      </c>
+      <c r="I908" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="909" spans="2:9">
+      <c r="B909" s="12" t="s">
+        <v>824</v>
+      </c>
+      <c r="C909" t="s">
+        <v>31</v>
+      </c>
+      <c r="D909" t="s">
+        <v>27</v>
+      </c>
+      <c r="E909" t="s">
+        <v>32</v>
+      </c>
+      <c r="F909" t="s">
+        <v>13</v>
+      </c>
+      <c r="G909" t="s">
+        <v>28</v>
+      </c>
+      <c r="H909" t="s">
+        <v>53</v>
+      </c>
+      <c r="I909" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="910" spans="2:9">
+      <c r="B910" s="12" t="s">
+        <v>825</v>
+      </c>
+      <c r="C910" t="s">
+        <v>10</v>
+      </c>
+      <c r="D910" t="s">
+        <v>11</v>
+      </c>
+      <c r="E910" t="s">
+        <v>19</v>
+      </c>
+      <c r="F910" t="s">
+        <v>21</v>
+      </c>
+      <c r="G910" t="s">
+        <v>47</v>
+      </c>
+      <c r="H910" t="s">
+        <v>53</v>
+      </c>
+      <c r="I910" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="911" spans="2:9">
+      <c r="B911" s="12" t="s">
+        <v>826</v>
+      </c>
+      <c r="C911" t="s">
+        <v>10</v>
+      </c>
+      <c r="D911" t="s">
+        <v>27</v>
+      </c>
+      <c r="E911" t="s">
+        <v>19</v>
+      </c>
+      <c r="F911" t="s">
+        <v>13</v>
+      </c>
+      <c r="G911" t="s">
+        <v>22</v>
+      </c>
+      <c r="H911" t="s">
+        <v>15</v>
+      </c>
+      <c r="I911" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="912" spans="2:9">
+      <c r="B912" s="12" t="s">
+        <v>827</v>
+      </c>
+      <c r="C912" t="s">
+        <v>10</v>
+      </c>
+      <c r="D912" t="s">
+        <v>27</v>
+      </c>
+      <c r="E912" t="s">
+        <v>12</v>
+      </c>
+      <c r="F912" t="s">
+        <v>13</v>
+      </c>
+      <c r="G912" t="s">
+        <v>22</v>
+      </c>
+      <c r="H912" t="s">
+        <v>53</v>
+      </c>
+      <c r="I912" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="913" spans="2:9">
+      <c r="B913" s="12" t="s">
+        <v>828</v>
+      </c>
+      <c r="C913" t="s">
+        <v>10</v>
+      </c>
+      <c r="D913" t="s">
+        <v>27</v>
+      </c>
+      <c r="E913" t="s">
+        <v>19</v>
+      </c>
+      <c r="F913" t="s">
+        <v>21</v>
+      </c>
+      <c r="G913" t="s">
+        <v>22</v>
+      </c>
+      <c r="H913" t="s">
+        <v>15</v>
+      </c>
+      <c r="I913" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="914" spans="2:9">
+      <c r="B914" s="12" t="s">
+        <v>829</v>
+      </c>
+      <c r="C914" t="s">
+        <v>10</v>
+      </c>
+      <c r="D914" t="s">
+        <v>27</v>
+      </c>
+      <c r="E914" t="s">
+        <v>19</v>
+      </c>
+      <c r="F914" t="s">
+        <v>21</v>
+      </c>
+      <c r="G914" t="s">
+        <v>28</v>
+      </c>
+      <c r="H914" t="s">
+        <v>57</v>
+      </c>
+      <c r="I914" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="915" spans="2:9">
+      <c r="B915" s="12" t="s">
+        <v>829</v>
+      </c>
+      <c r="C915" t="s">
+        <v>10</v>
+      </c>
+      <c r="D915" t="s">
+        <v>27</v>
+      </c>
+      <c r="E915" t="s">
+        <v>19</v>
+      </c>
+      <c r="F915" t="s">
+        <v>21</v>
+      </c>
+      <c r="G915" t="s">
+        <v>22</v>
+      </c>
+      <c r="H915" t="s">
+        <v>15</v>
+      </c>
+      <c r="I915" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="916" spans="2:9">
+      <c r="B916" s="12" t="s">
+        <v>830</v>
+      </c>
+      <c r="C916" t="s">
+        <v>10</v>
+      </c>
+      <c r="D916" t="s">
+        <v>27</v>
+      </c>
+      <c r="E916" t="s">
+        <v>12</v>
+      </c>
+      <c r="F916" t="s">
+        <v>21</v>
+      </c>
+      <c r="G916" t="s">
+        <v>28</v>
+      </c>
+      <c r="H916" t="s">
+        <v>53</v>
+      </c>
+      <c r="I916" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="917" spans="2:9">
+      <c r="B917" s="12" t="s">
+        <v>831</v>
+      </c>
+      <c r="C917" t="s">
+        <v>10</v>
+      </c>
+      <c r="D917" t="s">
+        <v>27</v>
+      </c>
+      <c r="E917" t="s">
+        <v>32</v>
+      </c>
+      <c r="F917" t="s">
+        <v>21</v>
+      </c>
+      <c r="G917" t="s">
+        <v>22</v>
+      </c>
+      <c r="H917" t="s">
+        <v>53</v>
+      </c>
+      <c r="I917" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="918" spans="2:9">
+      <c r="B918" s="12" t="s">
+        <v>832</v>
+      </c>
+      <c r="C918" t="s">
+        <v>10</v>
+      </c>
+      <c r="D918" t="s">
+        <v>27</v>
+      </c>
+      <c r="E918" t="s">
+        <v>19</v>
+      </c>
+      <c r="F918" t="s">
+        <v>13</v>
+      </c>
+      <c r="G918" t="s">
+        <v>65</v>
+      </c>
+      <c r="H918" t="s">
+        <v>53</v>
+      </c>
+      <c r="I918" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="919" spans="2:9">
+      <c r="B919" s="12" t="s">
+        <v>833</v>
+      </c>
+      <c r="C919" t="s">
+        <v>10</v>
+      </c>
+      <c r="D919" t="s">
+        <v>27</v>
+      </c>
+      <c r="E919" t="s">
+        <v>32</v>
+      </c>
+      <c r="F919" t="s">
+        <v>13</v>
+      </c>
+      <c r="G919" t="s">
+        <v>28</v>
+      </c>
+      <c r="H919" t="s">
+        <v>53</v>
+      </c>
+      <c r="I919" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="920" spans="2:9">
+      <c r="B920" s="12" t="s">
+        <v>833</v>
+      </c>
+      <c r="C920" t="s">
+        <v>10</v>
+      </c>
+      <c r="D920" t="s">
+        <v>27</v>
+      </c>
+      <c r="E920" t="s">
+        <v>32</v>
+      </c>
+      <c r="F920" t="s">
+        <v>21</v>
+      </c>
+      <c r="G920" t="s">
+        <v>28</v>
+      </c>
+      <c r="H920" t="s">
+        <v>53</v>
+      </c>
+      <c r="I920" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="921" spans="2:9">
+      <c r="B921" s="12" t="s">
+        <v>834</v>
+      </c>
+      <c r="C921" t="s">
+        <v>31</v>
+      </c>
+      <c r="D921" t="s">
+        <v>27</v>
+      </c>
+      <c r="E921" t="s">
+        <v>32</v>
+      </c>
+      <c r="F921" t="s">
+        <v>13</v>
+      </c>
+      <c r="G921" t="s">
+        <v>28</v>
+      </c>
+      <c r="H921" t="s">
+        <v>53</v>
+      </c>
+      <c r="I921" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="922" spans="2:9">
+      <c r="B922" s="12" t="s">
+        <v>835</v>
+      </c>
+      <c r="C922" t="s">
+        <v>10</v>
+      </c>
+      <c r="D922" t="s">
+        <v>27</v>
+      </c>
+      <c r="E922" t="s">
+        <v>19</v>
+      </c>
+      <c r="F922" t="s">
+        <v>13</v>
+      </c>
+      <c r="G922" t="s">
+        <v>22</v>
+      </c>
+      <c r="H922" t="s">
+        <v>57</v>
+      </c>
+      <c r="I922" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="923" spans="2:9">
+      <c r="B923" s="12" t="s">
+        <v>836</v>
+      </c>
+      <c r="C923" t="s">
+        <v>10</v>
+      </c>
+      <c r="D923" t="s">
+        <v>27</v>
+      </c>
+      <c r="E923" t="s">
+        <v>19</v>
+      </c>
+      <c r="F923" t="s">
+        <v>52</v>
+      </c>
+      <c r="G923" t="s">
+        <v>22</v>
+      </c>
+      <c r="H923" t="s">
+        <v>57</v>
+      </c>
+      <c r="I923" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="924" spans="2:9">
+      <c r="B924" s="12" t="s">
+        <v>837</v>
+      </c>
+      <c r="C924" t="s">
+        <v>10</v>
+      </c>
+      <c r="D924" t="s">
+        <v>27</v>
+      </c>
+      <c r="E924" t="s">
+        <v>19</v>
+      </c>
+      <c r="F924" t="s">
+        <v>21</v>
+      </c>
+      <c r="G924" t="s">
+        <v>65</v>
+      </c>
+      <c r="H924" t="s">
+        <v>38</v>
+      </c>
+      <c r="I924" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="925" spans="2:9">
+      <c r="B925" s="12" t="s">
+        <v>838</v>
+      </c>
+      <c r="C925" t="s">
+        <v>24</v>
+      </c>
+      <c r="D925" t="s">
+        <v>27</v>
+      </c>
+      <c r="E925" t="s">
+        <v>19</v>
+      </c>
+      <c r="F925" t="s">
+        <v>13</v>
+      </c>
+      <c r="G925" t="s">
+        <v>28</v>
+      </c>
+      <c r="H925" t="s">
+        <v>53</v>
+      </c>
+      <c r="I925" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="926" spans="2:9">
+      <c r="B926" s="12" t="s">
+        <v>839</v>
+      </c>
+      <c r="C926" t="s">
+        <v>10</v>
+      </c>
+      <c r="D926" t="s">
+        <v>11</v>
+      </c>
+      <c r="E926" t="s">
+        <v>19</v>
+      </c>
+      <c r="F926" t="s">
+        <v>21</v>
+      </c>
+      <c r="G926" t="s">
+        <v>47</v>
+      </c>
+      <c r="H926" t="s">
+        <v>26</v>
+      </c>
+      <c r="I926" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="927" spans="2:9">
+      <c r="B927" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="C927" t="s">
+        <v>10</v>
+      </c>
+      <c r="D927" t="s">
+        <v>27</v>
+      </c>
+      <c r="E927" t="s">
+        <v>19</v>
+      </c>
+      <c r="F927" t="s">
+        <v>21</v>
+      </c>
+      <c r="G927" t="s">
+        <v>65</v>
+      </c>
+      <c r="H927" t="s">
+        <v>53</v>
+      </c>
+      <c r="I927" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="928" spans="2:9">
+      <c r="B928" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="C928" t="s">
+        <v>10</v>
+      </c>
+      <c r="D928" t="s">
+        <v>27</v>
+      </c>
+      <c r="E928" t="s">
+        <v>19</v>
+      </c>
+      <c r="F928" t="s">
+        <v>21</v>
+      </c>
+      <c r="G928" t="s">
+        <v>28</v>
+      </c>
+      <c r="H928" t="s">
+        <v>15</v>
+      </c>
+      <c r="I928" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="929" spans="2:9">
+      <c r="B929" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="C929" t="s">
+        <v>10</v>
+      </c>
+      <c r="D929" t="s">
+        <v>27</v>
+      </c>
+      <c r="E929" t="s">
+        <v>12</v>
+      </c>
+      <c r="F929" t="s">
+        <v>13</v>
+      </c>
+      <c r="G929" t="s">
+        <v>28</v>
+      </c>
+      <c r="H929" t="s">
+        <v>53</v>
+      </c>
+      <c r="I929" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="930" spans="2:9">
+      <c r="B930" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="C930" t="s">
+        <v>31</v>
+      </c>
+      <c r="D930" t="s">
+        <v>11</v>
+      </c>
+      <c r="E930" t="s">
+        <v>12</v>
+      </c>
+      <c r="F930" t="s">
+        <v>33</v>
+      </c>
+      <c r="G930" t="s">
+        <v>28</v>
+      </c>
+      <c r="H930" t="s">
+        <v>53</v>
+      </c>
+      <c r="I930" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="931" spans="2:9">
+      <c r="B931" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="C931" t="s">
+        <v>10</v>
+      </c>
+      <c r="D931" t="s">
+        <v>27</v>
+      </c>
+      <c r="E931" t="s">
+        <v>19</v>
+      </c>
+      <c r="F931" t="s">
+        <v>13</v>
+      </c>
+      <c r="G931" t="s">
+        <v>65</v>
+      </c>
+      <c r="H931" t="s">
+        <v>26</v>
+      </c>
+      <c r="I931" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="932" spans="2:9">
+      <c r="B932" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="C932" t="s">
+        <v>10</v>
+      </c>
+      <c r="D932" t="s">
+        <v>11</v>
+      </c>
+      <c r="E932" t="s">
+        <v>19</v>
+      </c>
+      <c r="F932" t="s">
+        <v>21</v>
+      </c>
+      <c r="G932" t="s">
+        <v>47</v>
+      </c>
+      <c r="H932" t="s">
+        <v>53</v>
+      </c>
+      <c r="I932" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="933" spans="2:9">
+      <c r="B933" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="C933" t="s">
+        <v>10</v>
+      </c>
+      <c r="D933" t="s">
+        <v>27</v>
+      </c>
+      <c r="E933" t="s">
+        <v>19</v>
+      </c>
+      <c r="F933" t="s">
+        <v>13</v>
+      </c>
+      <c r="G933" t="s">
+        <v>22</v>
+      </c>
+      <c r="H933" t="s">
+        <v>15</v>
+      </c>
+      <c r="I933" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="934" spans="2:9">
+      <c r="B934" s="12" t="s">
+        <v>847</v>
+      </c>
+      <c r="C934" t="s">
+        <v>36</v>
+      </c>
+      <c r="D934" t="s">
+        <v>27</v>
+      </c>
+      <c r="E934" t="s">
+        <v>12</v>
+      </c>
+      <c r="F934" t="s">
+        <v>21</v>
+      </c>
+      <c r="G934" t="s">
+        <v>37</v>
+      </c>
+      <c r="H934" t="s">
+        <v>38</v>
+      </c>
+      <c r="I934" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="935" spans="2:9">
+      <c r="B935" s="12" t="s">
+        <v>848</v>
+      </c>
+      <c r="C935" t="s">
+        <v>36</v>
+      </c>
+      <c r="D935" t="s">
+        <v>27</v>
+      </c>
+      <c r="E935" t="s">
+        <v>12</v>
+      </c>
+      <c r="F935" t="s">
+        <v>52</v>
+      </c>
+      <c r="G935" t="s">
+        <v>22</v>
+      </c>
+      <c r="H935" t="s">
+        <v>15</v>
+      </c>
+      <c r="I935" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="936" spans="2:9">
+      <c r="B936" s="12" t="s">
+        <v>849</v>
+      </c>
+      <c r="C936" t="s">
+        <v>10</v>
+      </c>
+      <c r="D936" t="s">
+        <v>27</v>
+      </c>
+      <c r="E936" t="s">
+        <v>19</v>
+      </c>
+      <c r="F936" t="s">
+        <v>21</v>
+      </c>
+      <c r="G936" t="s">
+        <v>22</v>
+      </c>
+      <c r="H936" t="s">
+        <v>53</v>
+      </c>
+      <c r="I936" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="937" spans="2:9">
+      <c r="B937" s="12" t="s">
+        <v>850</v>
+      </c>
+      <c r="C937" t="s">
+        <v>10</v>
+      </c>
+      <c r="D937" t="s">
+        <v>11</v>
+      </c>
+      <c r="E937" t="s">
+        <v>19</v>
+      </c>
+      <c r="F937" t="s">
+        <v>21</v>
+      </c>
+      <c r="G937" t="s">
+        <v>65</v>
+      </c>
+      <c r="H937" t="s">
+        <v>53</v>
+      </c>
+      <c r="I937" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="938" spans="2:9">
+      <c r="B938" s="12" t="s">
+        <v>851</v>
+      </c>
+      <c r="C938" t="s">
+        <v>10</v>
+      </c>
+      <c r="D938" t="s">
+        <v>18</v>
+      </c>
+      <c r="E938" t="s">
+        <v>12</v>
+      </c>
+      <c r="F938" t="s">
+        <v>21</v>
+      </c>
+      <c r="G938" t="s">
+        <v>37</v>
+      </c>
+      <c r="H938" t="s">
+        <v>25</v>
+      </c>
+      <c r="I938" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="939" spans="2:9">
+      <c r="B939" s="12" t="s">
+        <v>852</v>
+      </c>
+      <c r="C939" t="s">
+        <v>10</v>
+      </c>
+      <c r="D939" t="s">
+        <v>27</v>
+      </c>
+      <c r="E939" t="s">
+        <v>19</v>
+      </c>
+      <c r="F939" t="s">
+        <v>21</v>
+      </c>
+      <c r="G939" t="s">
+        <v>28</v>
+      </c>
+      <c r="H939" t="s">
+        <v>53</v>
+      </c>
+      <c r="I939" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="940" spans="2:9">
+      <c r="B940" s="12" t="s">
+        <v>852</v>
+      </c>
+      <c r="C940" t="s">
+        <v>24</v>
+      </c>
+      <c r="D940" t="s">
+        <v>27</v>
+      </c>
+      <c r="E940" t="s">
+        <v>12</v>
+      </c>
+      <c r="F940" t="s">
+        <v>21</v>
+      </c>
+      <c r="G940" t="s">
+        <v>28</v>
+      </c>
+      <c r="H940" t="s">
+        <v>53</v>
+      </c>
+      <c r="I940" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="941" spans="2:9">
+      <c r="B941" s="12" t="s">
+        <v>852</v>
+      </c>
+      <c r="C941" t="s">
+        <v>24</v>
+      </c>
+      <c r="D941" t="s">
+        <v>27</v>
+      </c>
+      <c r="E941" t="s">
+        <v>19</v>
+      </c>
+      <c r="F941" t="s">
+        <v>33</v>
+      </c>
+      <c r="G941" t="s">
+        <v>28</v>
+      </c>
+      <c r="H941" t="s">
+        <v>53</v>
+      </c>
+      <c r="I941" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="942" spans="2:9">
+      <c r="B942" s="12" t="s">
+        <v>852</v>
+      </c>
+      <c r="C942" t="s">
+        <v>10</v>
+      </c>
+      <c r="D942" t="s">
+        <v>27</v>
+      </c>
+      <c r="E942" t="s">
+        <v>12</v>
+      </c>
+      <c r="F942" t="s">
+        <v>13</v>
+      </c>
+      <c r="G942" t="s">
+        <v>28</v>
+      </c>
+      <c r="H942" t="s">
+        <v>53</v>
+      </c>
+      <c r="I942" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="943" spans="2:9">
+      <c r="B943" s="12" t="s">
+        <v>853</v>
+      </c>
+      <c r="C943" t="s">
+        <v>10</v>
+      </c>
+      <c r="D943" t="s">
+        <v>27</v>
+      </c>
+      <c r="E943" t="s">
+        <v>19</v>
+      </c>
+      <c r="F943" t="s">
+        <v>52</v>
+      </c>
+      <c r="G943" t="s">
+        <v>22</v>
+      </c>
+      <c r="H943" t="s">
+        <v>57</v>
+      </c>
+      <c r="I943" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="944" spans="2:9">
+      <c r="B944" s="12" t="s">
+        <v>854</v>
+      </c>
+      <c r="C944" t="s">
+        <v>10</v>
+      </c>
+      <c r="D944" t="s">
+        <v>27</v>
+      </c>
+      <c r="E944" t="s">
+        <v>32</v>
+      </c>
+      <c r="F944" t="s">
+        <v>52</v>
+      </c>
+      <c r="G944" t="s">
+        <v>28</v>
+      </c>
+      <c r="H944" t="s">
+        <v>26</v>
+      </c>
+      <c r="I944" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="945" spans="2:9">
+      <c r="B945" s="12" t="s">
+        <v>855</v>
+      </c>
+      <c r="C945" t="s">
+        <v>10</v>
+      </c>
+      <c r="D945" t="s">
+        <v>27</v>
+      </c>
+      <c r="E945" t="s">
+        <v>12</v>
+      </c>
+      <c r="F945" t="s">
+        <v>21</v>
+      </c>
+      <c r="G945" t="s">
+        <v>28</v>
+      </c>
+      <c r="H945" t="s">
+        <v>53</v>
+      </c>
+      <c r="I945" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="946" spans="2:9">
+      <c r="B946" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="C946" t="s">
+        <v>10</v>
+      </c>
+      <c r="D946" t="s">
+        <v>27</v>
+      </c>
+      <c r="E946" t="s">
+        <v>12</v>
+      </c>
+      <c r="F946" t="s">
+        <v>21</v>
+      </c>
+      <c r="G946" t="s">
+        <v>65</v>
+      </c>
+      <c r="H946" t="s">
+        <v>53</v>
+      </c>
+      <c r="I946" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="947" spans="2:9">
+      <c r="B947" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="C947" t="s">
+        <v>10</v>
+      </c>
+      <c r="D947" t="s">
+        <v>27</v>
+      </c>
+      <c r="E947" t="s">
+        <v>12</v>
+      </c>
+      <c r="F947" t="s">
+        <v>21</v>
+      </c>
+      <c r="G947" t="s">
+        <v>47</v>
+      </c>
+      <c r="H947" t="s">
+        <v>53</v>
+      </c>
+      <c r="I947" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="948" spans="2:9">
+      <c r="B948" s="12" t="s">
+        <v>858</v>
+      </c>
+      <c r="C948" t="s">
+        <v>10</v>
+      </c>
+      <c r="D948" t="s">
+        <v>27</v>
+      </c>
+      <c r="E948" t="s">
+        <v>19</v>
+      </c>
+      <c r="F948" t="s">
+        <v>13</v>
+      </c>
+      <c r="G948" t="s">
+        <v>22</v>
+      </c>
+      <c r="H948" t="s">
+        <v>53</v>
+      </c>
+      <c r="I948" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="949" spans="2:9">
+      <c r="B949" s="12" t="s">
+        <v>859</v>
+      </c>
+      <c r="C949" t="s">
+        <v>10</v>
+      </c>
+      <c r="D949" t="s">
+        <v>27</v>
+      </c>
+      <c r="E949" t="s">
+        <v>19</v>
+      </c>
+      <c r="F949" t="s">
+        <v>13</v>
+      </c>
+      <c r="G949" t="s">
+        <v>28</v>
+      </c>
+      <c r="H949" t="s">
+        <v>53</v>
+      </c>
+      <c r="I949" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="950" spans="2:9">
+      <c r="B950" s="12" t="s">
+        <v>859</v>
+      </c>
+      <c r="C950" t="s">
+        <v>24</v>
+      </c>
+      <c r="D950" t="s">
+        <v>27</v>
+      </c>
+      <c r="E950" t="s">
+        <v>19</v>
+      </c>
+      <c r="F950" t="s">
+        <v>21</v>
+      </c>
+      <c r="G950" t="s">
+        <v>28</v>
+      </c>
+      <c r="H950" t="s">
+        <v>53</v>
+      </c>
+      <c r="I950" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="951" spans="2:9">
+      <c r="B951" s="12" t="s">
+        <v>860</v>
+      </c>
+      <c r="C951" t="s">
+        <v>31</v>
+      </c>
+      <c r="D951" t="s">
+        <v>27</v>
+      </c>
+      <c r="E951" t="s">
+        <v>32</v>
+      </c>
+      <c r="F951" t="s">
+        <v>21</v>
+      </c>
+      <c r="G951" t="s">
+        <v>28</v>
+      </c>
+      <c r="H951" t="s">
+        <v>53</v>
+      </c>
+      <c r="I951" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="952" spans="2:9">
+      <c r="B952" s="12" t="s">
+        <v>861</v>
+      </c>
+      <c r="C952" t="s">
+        <v>10</v>
+      </c>
+      <c r="D952" t="s">
+        <v>11</v>
+      </c>
+      <c r="E952" t="s">
+        <v>19</v>
+      </c>
+      <c r="F952" t="s">
+        <v>21</v>
+      </c>
+      <c r="G952" t="s">
+        <v>70</v>
+      </c>
+      <c r="H952" t="s">
+        <v>43</v>
+      </c>
+      <c r="I952" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="953" spans="2:9">
+      <c r="B953" s="12" t="s">
+        <v>862</v>
+      </c>
+      <c r="C953" t="s">
+        <v>36</v>
+      </c>
+      <c r="D953" t="s">
+        <v>27</v>
+      </c>
+      <c r="E953" t="s">
+        <v>32</v>
+      </c>
+      <c r="F953" t="s">
+        <v>52</v>
+      </c>
+      <c r="G953" t="s">
+        <v>70</v>
+      </c>
+      <c r="H953" t="s">
+        <v>43</v>
+      </c>
+      <c r="I953" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="954" spans="2:9">
+      <c r="B954" s="12" t="s">
+        <v>863</v>
+      </c>
+      <c r="C954" t="s">
+        <v>44</v>
+      </c>
+      <c r="D954" t="s">
+        <v>27</v>
+      </c>
+      <c r="E954" t="s">
+        <v>32</v>
+      </c>
+      <c r="F954" t="s">
+        <v>21</v>
+      </c>
+      <c r="G954" t="s">
+        <v>65</v>
+      </c>
+      <c r="H954" t="s">
+        <v>26</v>
+      </c>
+      <c r="I954" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="955" spans="2:9">
+      <c r="B955" s="12" t="s">
+        <v>863</v>
+      </c>
+      <c r="C955" t="s">
+        <v>24</v>
+      </c>
+      <c r="D955" t="s">
+        <v>27</v>
+      </c>
+      <c r="E955" t="s">
+        <v>32</v>
+      </c>
+      <c r="F955" t="s">
+        <v>21</v>
+      </c>
+      <c r="G955" t="s">
+        <v>47</v>
+      </c>
+      <c r="H955" t="s">
+        <v>53</v>
+      </c>
+      <c r="I955" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="956" spans="2:9">
+      <c r="B956" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="C956" t="s">
+        <v>10</v>
+      </c>
+      <c r="D956" t="s">
+        <v>27</v>
+      </c>
+      <c r="E956" t="s">
+        <v>32</v>
+      </c>
+      <c r="F956" t="s">
+        <v>21</v>
+      </c>
+      <c r="G956" t="s">
+        <v>28</v>
+      </c>
+      <c r="H956" t="s">
+        <v>26</v>
+      </c>
+      <c r="I956" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="957" spans="2:9">
+      <c r="B957" s="13" t="s">
+        <v>865</v>
+      </c>
+      <c r="C957" t="s">
+        <v>10</v>
+      </c>
+      <c r="D957" t="s">
+        <v>11</v>
+      </c>
+      <c r="E957" t="s">
+        <v>19</v>
+      </c>
+      <c r="F957" t="s">
+        <v>21</v>
+      </c>
+      <c r="G957" t="s">
+        <v>47</v>
+      </c>
+      <c r="H957" t="s">
+        <v>43</v>
+      </c>
+      <c r="I957" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="958" spans="2:9">
+      <c r="B958" s="13" t="s">
+        <v>866</v>
+      </c>
+      <c r="C958" t="s">
+        <v>24</v>
+      </c>
+      <c r="D958" t="s">
+        <v>27</v>
+      </c>
+      <c r="E958" t="s">
+        <v>19</v>
+      </c>
+      <c r="F958" t="s">
+        <v>52</v>
+      </c>
+      <c r="G958" t="s">
+        <v>28</v>
+      </c>
+      <c r="H958" t="s">
+        <v>53</v>
+      </c>
+      <c r="I958" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="959" spans="2:9">
+      <c r="B959" s="13" t="s">
+        <v>867</v>
+      </c>
+      <c r="C959" t="s">
+        <v>10</v>
+      </c>
+      <c r="D959" t="s">
+        <v>11</v>
+      </c>
+      <c r="E959" t="s">
+        <v>19</v>
+      </c>
+      <c r="F959" t="s">
+        <v>21</v>
+      </c>
+      <c r="G959" t="s">
+        <v>37</v>
+      </c>
+      <c r="H959" t="s">
+        <v>25</v>
+      </c>
+      <c r="I959" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="960" spans="2:9">
+      <c r="B960" s="13" t="s">
+        <v>868</v>
+      </c>
+      <c r="C960" t="s">
+        <v>36</v>
+      </c>
+      <c r="D960" t="s">
+        <v>27</v>
+      </c>
+      <c r="E960" t="s">
+        <v>12</v>
+      </c>
+      <c r="F960" t="s">
+        <v>21</v>
+      </c>
+      <c r="G960" t="s">
+        <v>22</v>
+      </c>
+      <c r="H960" t="s">
+        <v>57</v>
+      </c>
+      <c r="I960" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="961" spans="2:9">
+      <c r="B961" s="13" t="s">
+        <v>869</v>
+      </c>
+      <c r="C961" t="s">
+        <v>10</v>
+      </c>
+      <c r="D961" t="s">
+        <v>27</v>
+      </c>
+      <c r="E961" t="s">
+        <v>19</v>
+      </c>
+      <c r="F961" t="s">
+        <v>21</v>
+      </c>
+      <c r="G961" t="s">
+        <v>22</v>
+      </c>
+      <c r="H961" t="s">
+        <v>53</v>
+      </c>
+      <c r="I961" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="962" spans="2:9">
+      <c r="B962" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="C962" t="s">
+        <v>31</v>
+      </c>
+      <c r="D962" t="s">
+        <v>27</v>
+      </c>
+      <c r="E962" t="s">
+        <v>12</v>
+      </c>
+      <c r="F962" t="s">
+        <v>13</v>
+      </c>
+      <c r="G962" t="s">
+        <v>70</v>
+      </c>
+      <c r="H962" t="s">
+        <v>43</v>
+      </c>
+      <c r="I962" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="963" spans="2:9">
+      <c r="B963" s="13" t="s">
+        <v>871</v>
+      </c>
+      <c r="C963" t="s">
+        <v>10</v>
+      </c>
+      <c r="D963" t="s">
+        <v>11</v>
+      </c>
+      <c r="E963" t="s">
+        <v>12</v>
+      </c>
+      <c r="F963" t="s">
+        <v>21</v>
+      </c>
+      <c r="G963" t="s">
+        <v>65</v>
+      </c>
+      <c r="H963" t="s">
+        <v>38</v>
+      </c>
+      <c r="I963" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="964" spans="2:9">
+      <c r="B964" s="13" t="s">
+        <v>872</v>
+      </c>
+      <c r="C964" t="s">
+        <v>10</v>
+      </c>
+      <c r="D964" t="s">
+        <v>27</v>
+      </c>
+      <c r="E964" t="s">
+        <v>19</v>
+      </c>
+      <c r="F964" t="s">
+        <v>21</v>
+      </c>
+      <c r="G964" t="s">
+        <v>22</v>
+      </c>
+      <c r="H964" t="s">
+        <v>53</v>
+      </c>
+      <c r="I964" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="965" spans="2:9">
+      <c r="B965" s="13" t="s">
+        <v>873</v>
+      </c>
+      <c r="C965" t="s">
+        <v>10</v>
+      </c>
+      <c r="D965" t="s">
+        <v>27</v>
+      </c>
+      <c r="E965" t="s">
+        <v>19</v>
+      </c>
+      <c r="F965" t="s">
+        <v>21</v>
+      </c>
+      <c r="G965" t="s">
+        <v>47</v>
+      </c>
+      <c r="H965" t="s">
+        <v>38</v>
+      </c>
+      <c r="I965" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="966" spans="2:9">
+      <c r="B966" s="13" t="s">
+        <v>874</v>
+      </c>
+      <c r="C966" t="s">
+        <v>10</v>
+      </c>
+      <c r="D966" t="s">
+        <v>11</v>
+      </c>
+      <c r="E966" t="s">
+        <v>19</v>
+      </c>
+      <c r="F966" t="s">
+        <v>21</v>
+      </c>
+      <c r="G966" t="s">
+        <v>47</v>
+      </c>
+      <c r="H966" t="s">
+        <v>53</v>
+      </c>
+      <c r="I966" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="967" spans="2:9">
+      <c r="B967" s="13" t="s">
+        <v>875</v>
+      </c>
+      <c r="C967" t="s">
+        <v>10</v>
+      </c>
+      <c r="D967" t="s">
+        <v>27</v>
+      </c>
+      <c r="E967" t="s">
+        <v>19</v>
+      </c>
+      <c r="F967" t="s">
+        <v>21</v>
+      </c>
+      <c r="G967" t="s">
+        <v>65</v>
+      </c>
+      <c r="H967" t="s">
+        <v>26</v>
+      </c>
+      <c r="I967" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="968" spans="2:9">
+      <c r="B968" s="13" t="s">
+        <v>876</v>
+      </c>
+      <c r="C968" t="s">
+        <v>48</v>
+      </c>
+      <c r="D968" t="s">
+        <v>27</v>
+      </c>
+      <c r="E968" t="s">
+        <v>12</v>
+      </c>
+      <c r="F968" t="s">
+        <v>21</v>
+      </c>
+      <c r="G968" t="s">
+        <v>47</v>
+      </c>
+      <c r="H968" t="s">
+        <v>38</v>
+      </c>
+      <c r="I968" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="969" spans="2:9">
+      <c r="B969" s="13" t="s">
+        <v>877</v>
+      </c>
+      <c r="C969" t="s">
+        <v>10</v>
+      </c>
+      <c r="D969" t="s">
+        <v>18</v>
+      </c>
+      <c r="E969" t="s">
+        <v>19</v>
+      </c>
+      <c r="F969" t="s">
+        <v>21</v>
+      </c>
+      <c r="G969" t="s">
+        <v>28</v>
+      </c>
+      <c r="H969" t="s">
+        <v>57</v>
+      </c>
+      <c r="I969" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="970" spans="2:9">
+      <c r="B970" s="13" t="s">
+        <v>877</v>
+      </c>
+      <c r="C970" t="s">
+        <v>10</v>
+      </c>
+      <c r="D970" t="s">
+        <v>27</v>
+      </c>
+      <c r="E970" t="s">
+        <v>12</v>
+      </c>
+      <c r="F970" t="s">
+        <v>21</v>
+      </c>
+      <c r="G970" t="s">
+        <v>28</v>
+      </c>
+      <c r="H970" t="s">
+        <v>26</v>
+      </c>
+      <c r="I970" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="971" spans="2:9">
+      <c r="B971" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="C971" t="s">
+        <v>10</v>
+      </c>
+      <c r="D971" t="s">
+        <v>27</v>
+      </c>
+      <c r="E971" t="s">
+        <v>19</v>
+      </c>
+      <c r="F971" t="s">
+        <v>21</v>
+      </c>
+      <c r="G971" t="s">
+        <v>65</v>
+      </c>
+      <c r="H971" t="s">
+        <v>38</v>
+      </c>
+      <c r="I971" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="972" spans="2:9">
+      <c r="B972" s="13" t="s">
+        <v>879</v>
+      </c>
+      <c r="C972" t="s">
+        <v>10</v>
+      </c>
+      <c r="D972" t="s">
+        <v>18</v>
+      </c>
+      <c r="E972" t="s">
+        <v>19</v>
+      </c>
+      <c r="F972" t="s">
+        <v>21</v>
+      </c>
+      <c r="G972" t="s">
+        <v>28</v>
+      </c>
+      <c r="H972" t="s">
+        <v>53</v>
+      </c>
+      <c r="I972" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="973" spans="2:9">
+      <c r="B973" s="13" t="s">
+        <v>879</v>
+      </c>
+      <c r="C973" t="s">
+        <v>10</v>
+      </c>
+      <c r="D973" t="s">
+        <v>11</v>
+      </c>
+      <c r="E973" t="s">
+        <v>12</v>
+      </c>
+      <c r="F973" t="s">
+        <v>21</v>
+      </c>
+      <c r="G973" t="s">
+        <v>65</v>
+      </c>
+      <c r="H973" t="s">
+        <v>53</v>
+      </c>
+      <c r="I973" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="974" spans="2:9">
+      <c r="B974" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="C974" t="s">
+        <v>10</v>
+      </c>
+      <c r="D974" t="s">
+        <v>11</v>
+      </c>
+      <c r="E974" t="s">
+        <v>12</v>
+      </c>
+      <c r="F974" t="s">
+        <v>21</v>
+      </c>
+      <c r="G974" t="s">
+        <v>65</v>
+      </c>
+      <c r="H974" t="s">
+        <v>38</v>
+      </c>
+      <c r="I974" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="975" spans="2:9">
+      <c r="B975" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="C975" t="s">
+        <v>31</v>
+      </c>
+      <c r="D975" t="s">
+        <v>27</v>
+      </c>
+      <c r="E975" t="s">
+        <v>12</v>
+      </c>
+      <c r="F975" t="s">
+        <v>13</v>
+      </c>
+      <c r="G975" t="s">
+        <v>28</v>
+      </c>
+      <c r="H975" t="s">
+        <v>53</v>
+      </c>
+      <c r="I975" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="976" spans="2:9">
+      <c r="B976" s="13" t="s">
+        <v>881</v>
+      </c>
+      <c r="C976" t="s">
+        <v>10</v>
+      </c>
+      <c r="D976" t="s">
+        <v>27</v>
+      </c>
+      <c r="E976" t="s">
+        <v>12</v>
+      </c>
+      <c r="F976" t="s">
+        <v>21</v>
+      </c>
+      <c r="G976" t="s">
+        <v>28</v>
+      </c>
+      <c r="H976" t="s">
+        <v>53</v>
+      </c>
+      <c r="I976" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="977" spans="2:9">
+      <c r="B977" s="13" t="s">
+        <v>882</v>
+      </c>
+      <c r="C977" t="s">
+        <v>24</v>
+      </c>
+      <c r="D977" t="s">
+        <v>27</v>
+      </c>
+      <c r="E977" t="s">
+        <v>12</v>
+      </c>
+      <c r="F977" t="s">
+        <v>13</v>
+      </c>
+      <c r="G977" t="s">
+        <v>28</v>
+      </c>
+      <c r="H977" t="s">
+        <v>53</v>
+      </c>
+      <c r="I977" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="978" spans="2:9">
+      <c r="B978" s="13" t="s">
+        <v>882</v>
+      </c>
+      <c r="C978" t="s">
+        <v>24</v>
+      </c>
+      <c r="D978" t="s">
+        <v>27</v>
+      </c>
+      <c r="E978" t="s">
+        <v>19</v>
+      </c>
+      <c r="F978" t="s">
+        <v>13</v>
+      </c>
+      <c r="G978" t="s">
+        <v>22</v>
+      </c>
+      <c r="H978" t="s">
+        <v>53</v>
+      </c>
+      <c r="I978" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="979" spans="2:9">
+      <c r="B979" s="13" t="s">
+        <v>882</v>
+      </c>
+      <c r="C979" t="s">
+        <v>10</v>
+      </c>
+      <c r="D979" t="s">
+        <v>27</v>
+      </c>
+      <c r="E979" t="s">
+        <v>12</v>
+      </c>
+      <c r="F979" t="s">
+        <v>13</v>
+      </c>
+      <c r="G979" t="s">
+        <v>22</v>
+      </c>
+      <c r="H979" t="s">
+        <v>57</v>
+      </c>
+      <c r="I979" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="980" spans="2:9">
+      <c r="B980" s="13" t="s">
+        <v>883</v>
+      </c>
+      <c r="C980" t="s">
+        <v>31</v>
+      </c>
+      <c r="D980" t="s">
+        <v>27</v>
+      </c>
+      <c r="E980" t="s">
+        <v>12</v>
+      </c>
+      <c r="F980" t="s">
+        <v>13</v>
+      </c>
+      <c r="G980" t="s">
+        <v>28</v>
+      </c>
+      <c r="H980" t="s">
+        <v>25</v>
+      </c>
+      <c r="I980" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="981" spans="2:9">
+      <c r="B981" s="13" t="s">
+        <v>884</v>
+      </c>
+      <c r="C981" t="s">
+        <v>31</v>
+      </c>
+      <c r="D981" t="s">
+        <v>11</v>
+      </c>
+      <c r="E981" t="s">
+        <v>12</v>
+      </c>
+      <c r="F981" t="s">
+        <v>21</v>
+      </c>
+      <c r="G981" t="s">
+        <v>28</v>
+      </c>
+      <c r="H981" t="s">
+        <v>53</v>
+      </c>
+      <c r="I981" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="982" spans="2:9">
+      <c r="B982" s="13" t="s">
+        <v>885</v>
+      </c>
+      <c r="C982" t="s">
+        <v>10</v>
+      </c>
+      <c r="D982" t="s">
+        <v>27</v>
+      </c>
+      <c r="E982" t="s">
+        <v>19</v>
+      </c>
+      <c r="F982" t="s">
+        <v>21</v>
+      </c>
+      <c r="G982" t="s">
+        <v>65</v>
+      </c>
+      <c r="H982" t="s">
+        <v>53</v>
+      </c>
+      <c r="I982" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="983" spans="2:9">
+      <c r="B983" s="13" t="s">
+        <v>886</v>
+      </c>
+      <c r="C983" t="s">
+        <v>24</v>
+      </c>
+      <c r="D983" t="s">
+        <v>27</v>
+      </c>
+      <c r="E983" t="s">
+        <v>19</v>
+      </c>
+      <c r="F983" t="s">
+        <v>33</v>
+      </c>
+      <c r="G983" t="s">
+        <v>28</v>
+      </c>
+      <c r="H983" t="s">
+        <v>53</v>
+      </c>
+      <c r="I983" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="984" spans="2:9">
+      <c r="B984" s="13" t="s">
+        <v>886</v>
+      </c>
+      <c r="C984" t="s">
+        <v>10</v>
+      </c>
+      <c r="D984" t="s">
+        <v>27</v>
+      </c>
+      <c r="E984" t="s">
+        <v>19</v>
+      </c>
+      <c r="F984" t="s">
+        <v>13</v>
+      </c>
+      <c r="G984" t="s">
+        <v>28</v>
+      </c>
+      <c r="H984" t="s">
+        <v>53</v>
+      </c>
+      <c r="I984" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="985" spans="2:9">
+      <c r="B985" s="13" t="s">
+        <v>887</v>
+      </c>
+      <c r="C985" t="s">
+        <v>10</v>
+      </c>
+      <c r="D985" t="s">
+        <v>27</v>
+      </c>
+      <c r="E985" t="s">
+        <v>12</v>
+      </c>
+      <c r="F985" t="s">
+        <v>21</v>
+      </c>
+      <c r="G985" t="s">
+        <v>65</v>
+      </c>
+      <c r="H985" t="s">
+        <v>38</v>
+      </c>
+      <c r="I985" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="986" spans="2:9">
+      <c r="B986" s="13" t="s">
+        <v>888</v>
+      </c>
+      <c r="C986" t="s">
+        <v>44</v>
+      </c>
+      <c r="D986" t="s">
+        <v>11</v>
+      </c>
+      <c r="E986" t="s">
+        <v>19</v>
+      </c>
+      <c r="F986" t="s">
+        <v>21</v>
+      </c>
+      <c r="G986" t="s">
+        <v>65</v>
+      </c>
+      <c r="H986" t="s">
+        <v>38</v>
+      </c>
+      <c r="I986" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="987" spans="2:9">
+      <c r="B987" s="13" t="s">
+        <v>889</v>
+      </c>
+      <c r="C987" t="s">
+        <v>10</v>
+      </c>
+      <c r="D987" t="s">
+        <v>18</v>
+      </c>
+      <c r="E987" t="s">
+        <v>19</v>
+      </c>
+      <c r="F987" t="s">
+        <v>21</v>
+      </c>
+      <c r="G987" t="s">
+        <v>65</v>
+      </c>
+      <c r="H987" t="s">
+        <v>38</v>
+      </c>
+      <c r="I987" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="988" spans="2:9">
+      <c r="B988" s="13" t="s">
+        <v>889</v>
+      </c>
+      <c r="C988" t="s">
+        <v>44</v>
+      </c>
+      <c r="D988" t="s">
+        <v>11</v>
+      </c>
+      <c r="E988" t="s">
+        <v>32</v>
+      </c>
+      <c r="F988" t="s">
+        <v>21</v>
+      </c>
+      <c r="G988" t="s">
+        <v>65</v>
+      </c>
+      <c r="H988" t="s">
+        <v>38</v>
+      </c>
+      <c r="I988" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I568"/>
-  <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="10">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1401">
       <formula1>$O$59:$O$63</formula1>
@@ -23788,70 +31040,60 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1112">
       <formula1>$O$8:$O$14</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G122">
+      <formula1>$O$23:$O$31</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1113:C1165">
+      <formula1>$L$9:$L$15</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1428">
       <formula1>$O$17:$O$21</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1401">
       <formula1>$O$50:$O$52</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G123:G1401">
+      <formula1>$O$23:$O$30</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1401">
       <formula1>$O$45:$O$47</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G123:G1401">
-      <formula1>$O$23:$O$30</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1113:C1165">
-      <formula1>$L$9:$L$15</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G122">
-      <formula1>$O$23:$O$31</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>